--- a/LookupFiles/Regions_tz.xlsx
+++ b/LookupFiles/Regions_tz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aae\Downloads\ENERGY-master\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssbno-my.sharepoint.com/personal/aae_ssb_no/Documents/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A357B-64C6-4BB7-AF49-DA4AA29D9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
+    <workbookView xWindow="6345" yWindow="3660" windowWidth="21600" windowHeight="12735" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3577" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="996">
   <si>
     <t>02</t>
   </si>
@@ -3019,6 +3015,9 @@
   </si>
   <si>
     <t>haitumiki</t>
+  </si>
+  <si>
+    <t>Songwe</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3385,7 @@
   <dimension ref="A1:M298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:R15"/>
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9155,16 +9154,16 @@
         <v>486</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D141" t="s">
-        <v>961</v>
+        <v>498</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>411</v>
       </c>
       <c r="F141" t="s">
-        <v>962</v>
+        <v>505</v>
       </c>
       <c r="G141">
         <v>11</v>
@@ -9173,16 +9172,16 @@
         <v>994</v>
       </c>
       <c r="I141" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>962</v>
+        <v>505</v>
       </c>
       <c r="K141" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>962</v>
+        <v>506</v>
       </c>
       <c r="M141" t="s">
         <v>10</v>
@@ -9196,16 +9195,16 @@
         <v>486</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D142" t="s">
-        <v>961</v>
+        <v>498</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>962</v>
+        <v>499</v>
       </c>
       <c r="G142">
         <v>11</v>
@@ -9214,16 +9213,16 @@
         <v>994</v>
       </c>
       <c r="I142" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="J142" t="s">
-        <v>965</v>
+        <v>500</v>
       </c>
       <c r="K142" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
       <c r="M142" t="s">
         <v>10</v>
@@ -9237,16 +9236,16 @@
         <v>486</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="D143" t="s">
-        <v>961</v>
+        <v>509</v>
       </c>
       <c r="E143" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
-        <v>963</v>
+        <v>510</v>
       </c>
       <c r="G143">
         <v>11</v>
@@ -9255,19 +9254,19 @@
         <v>994</v>
       </c>
       <c r="I143" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>964</v>
+        <v>511</v>
       </c>
       <c r="K143" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>964</v>
+        <v>511</v>
       </c>
       <c r="M143" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -9278,16 +9277,16 @@
         <v>486</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="D144" t="s">
-        <v>961</v>
+        <v>509</v>
       </c>
       <c r="E144" t="s">
-        <v>809</v>
+        <v>55</v>
       </c>
       <c r="F144" t="s">
-        <v>966</v>
+        <v>512</v>
       </c>
       <c r="G144">
         <v>11</v>
@@ -9296,19 +9295,19 @@
         <v>994</v>
       </c>
       <c r="I144" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>967</v>
+        <v>513</v>
       </c>
       <c r="K144" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>968</v>
+        <v>513</v>
       </c>
       <c r="M144" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -9319,16 +9318,16 @@
         <v>486</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="D145" t="s">
-        <v>961</v>
+        <v>509</v>
       </c>
       <c r="E145" t="s">
-        <v>878</v>
+        <v>315</v>
       </c>
       <c r="F145" t="s">
-        <v>978</v>
+        <v>514</v>
       </c>
       <c r="G145">
         <v>11</v>
@@ -9340,13 +9339,13 @@
         <v>6</v>
       </c>
       <c r="J145" t="s">
-        <v>978</v>
+        <v>515</v>
       </c>
       <c r="K145" t="s">
-        <v>979</v>
+        <v>68</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>978</v>
+        <v>515</v>
       </c>
       <c r="M145" t="s">
         <v>45</v>
@@ -9360,16 +9359,16 @@
         <v>486</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="D146" t="s">
-        <v>961</v>
+        <v>509</v>
       </c>
       <c r="E146" t="s">
-        <v>973</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>974</v>
+        <v>516</v>
       </c>
       <c r="G146">
         <v>11</v>
@@ -9378,16 +9377,16 @@
         <v>994</v>
       </c>
       <c r="I146" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="J146" t="s">
-        <v>975</v>
+        <v>517</v>
       </c>
       <c r="K146" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>975</v>
+        <v>517</v>
       </c>
       <c r="M146" t="s">
         <v>45</v>
@@ -9395,22 +9394,22 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B147" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="E147" t="s">
-        <v>411</v>
+        <v>70</v>
       </c>
       <c r="F147" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="G147">
         <v>11</v>
@@ -9422,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="K147" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="M147" t="s">
         <v>10</v>
@@ -9436,22 +9435,22 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B148" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C148" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="F148" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="G148">
         <v>11</v>
@@ -9460,16 +9459,16 @@
         <v>994</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="K148" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="M148" t="s">
         <v>10</v>
@@ -9477,22 +9476,22 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B149" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C149" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="D149" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E149" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F149" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="G149">
         <v>11</v>
@@ -9501,16 +9500,16 @@
         <v>994</v>
       </c>
       <c r="I149" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="K149" t="s">
-        <v>17</v>
+        <v>541</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="M149" t="s">
         <v>45</v>
@@ -9518,22 +9517,22 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B150" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C150" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="D150" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>528</v>
       </c>
       <c r="F150" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G150">
         <v>11</v>
@@ -9542,39 +9541,39 @@
         <v>994</v>
       </c>
       <c r="I150" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J150" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="K150" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="M150" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B151" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C151" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="E151" t="s">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="F151" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="G151">
         <v>11</v>
@@ -9586,36 +9585,36 @@
         <v>6</v>
       </c>
       <c r="J151" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="K151" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="M151" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B152" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>542</v>
       </c>
       <c r="F152" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="G152">
         <v>11</v>
@@ -9624,16 +9623,16 @@
         <v>994</v>
       </c>
       <c r="I152" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J152" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="K152" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="M152" t="s">
         <v>45</v>
@@ -9641,22 +9640,22 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B153" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C153" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="D153" t="s">
-        <v>969</v>
+        <v>545</v>
       </c>
       <c r="E153" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>970</v>
+        <v>546</v>
       </c>
       <c r="G153">
         <v>11</v>
@@ -9665,39 +9664,39 @@
         <v>994</v>
       </c>
       <c r="I153" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="J153" t="s">
-        <v>971</v>
+        <v>547</v>
       </c>
       <c r="K153" t="s">
-        <v>9</v>
+        <v>549</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>972</v>
+        <v>548</v>
       </c>
       <c r="M153" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B154" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C154" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>976</v>
+        <v>523</v>
       </c>
       <c r="E154" t="s">
-        <v>860</v>
+        <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>976</v>
+        <v>524</v>
       </c>
       <c r="G154">
         <v>11</v>
@@ -9706,39 +9705,39 @@
         <v>994</v>
       </c>
       <c r="I154" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="J154" t="s">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="K154" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>153</v>
+        <v>526</v>
       </c>
       <c r="M154" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B155" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C155" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>976</v>
+        <v>523</v>
       </c>
       <c r="E155" t="s">
-        <v>860</v>
+        <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>976</v>
+        <v>524</v>
       </c>
       <c r="G155">
         <v>11</v>
@@ -9747,39 +9746,39 @@
         <v>994</v>
       </c>
       <c r="I155" t="s">
-        <v>834</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>977</v>
+        <v>538</v>
       </c>
       <c r="K155" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>977</v>
+        <v>539</v>
       </c>
       <c r="M155" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>550</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="C156" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>976</v>
+        <v>565</v>
       </c>
       <c r="E156" t="s">
-        <v>860</v>
+        <v>130</v>
       </c>
       <c r="F156" t="s">
-        <v>976</v>
+        <v>566</v>
       </c>
       <c r="G156">
         <v>11</v>
@@ -9788,39 +9787,39 @@
         <v>994</v>
       </c>
       <c r="I156" t="s">
-        <v>959</v>
+        <v>6</v>
       </c>
       <c r="J156" t="s">
-        <v>980</v>
+        <v>567</v>
       </c>
       <c r="K156" t="s">
         <v>34</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>980</v>
+        <v>567</v>
       </c>
       <c r="M156" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B157" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="E157" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -9829,16 +9828,16 @@
         <v>994</v>
       </c>
       <c r="I157" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J157" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="K157" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="M157" t="s">
         <v>10</v>
@@ -9846,22 +9845,22 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B158" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="E158" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F158" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="G158">
         <v>11</v>
@@ -9873,36 +9872,36 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="K158" t="s">
-        <v>34</v>
+        <v>579</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="M158" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B159" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C159" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="E159" t="s">
-        <v>59</v>
+        <v>568</v>
       </c>
       <c r="F159" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="G159">
         <v>11</v>
@@ -9911,39 +9910,39 @@
         <v>994</v>
       </c>
       <c r="I159" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="K159" t="s">
-        <v>541</v>
+        <v>13</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="M159" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B160" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C160" t="s">
         <v>46</v>
       </c>
       <c r="D160" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="E160" t="s">
-        <v>528</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="G160">
         <v>11</v>
@@ -9952,16 +9951,16 @@
         <v>994</v>
       </c>
       <c r="I160" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J160" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="K160" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>317</v>
+        <v>561</v>
       </c>
       <c r="M160" t="s">
         <v>10</v>
@@ -9969,22 +9968,22 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B161" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D161" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="E161" t="s">
-        <v>70</v>
+        <v>568</v>
       </c>
       <c r="F161" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="G161">
         <v>11</v>
@@ -9993,16 +9992,16 @@
         <v>994</v>
       </c>
       <c r="I161" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="K161" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="M161" t="s">
         <v>10</v>
@@ -10010,22 +10009,22 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B162" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="E162" t="s">
-        <v>542</v>
+        <v>359</v>
       </c>
       <c r="F162" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="G162">
         <v>11</v>
@@ -10037,13 +10036,13 @@
         <v>6</v>
       </c>
       <c r="J162" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="K162" t="s">
-        <v>58</v>
+        <v>588</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="M162" t="s">
         <v>45</v>
@@ -10051,22 +10050,22 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B163" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F163" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="G163">
         <v>11</v>
@@ -10075,16 +10074,16 @@
         <v>994</v>
       </c>
       <c r="I163" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J163" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="K163" t="s">
-        <v>549</v>
+        <v>17</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="M163" t="s">
         <v>45</v>
@@ -10092,22 +10091,22 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B164" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="F164" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="G164">
         <v>11</v>
@@ -10116,39 +10115,39 @@
         <v>994</v>
       </c>
       <c r="I164" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="K164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="M164" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B165" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D165" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F165" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="G165">
         <v>11</v>
@@ -10160,13 +10159,13 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="K165" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="M165" t="s">
         <v>10</v>
@@ -10180,16 +10179,16 @@
         <v>551</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D166" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E166" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="F166" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="G166">
         <v>11</v>
@@ -10198,16 +10197,16 @@
         <v>994</v>
       </c>
       <c r="I166" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="K166" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="M166" t="s">
         <v>10</v>
@@ -10221,34 +10220,34 @@
         <v>551</v>
       </c>
       <c r="C167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>555</v>
+      </c>
+      <c r="E167" t="s">
+        <v>126</v>
+      </c>
+      <c r="F167" t="s">
+        <v>556</v>
+      </c>
+      <c r="G167">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>994</v>
+      </c>
+      <c r="I167" t="s">
         <v>0</v>
       </c>
-      <c r="D167" t="s">
-        <v>552</v>
-      </c>
-      <c r="E167" t="s">
-        <v>38</v>
-      </c>
-      <c r="F167" t="s">
-        <v>553</v>
-      </c>
-      <c r="G167">
-        <v>11</v>
-      </c>
-      <c r="H167" t="s">
-        <v>994</v>
-      </c>
-      <c r="I167" t="s">
-        <v>46</v>
-      </c>
       <c r="J167" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K167" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M167" t="s">
         <v>10</v>
@@ -10256,22 +10255,22 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C168" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="E168" t="s">
-        <v>138</v>
+        <v>411</v>
       </c>
       <c r="F168" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="G168">
         <v>11</v>
@@ -10280,39 +10279,39 @@
         <v>994</v>
       </c>
       <c r="I168" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J168" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K168" t="s">
-        <v>579</v>
+        <v>58</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="M168" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="E169" t="s">
-        <v>568</v>
+        <v>359</v>
       </c>
       <c r="F169" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="G169">
         <v>11</v>
@@ -10321,16 +10320,16 @@
         <v>994</v>
       </c>
       <c r="I169" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J169" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="K169" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="M169" t="s">
         <v>10</v>
@@ -10338,22 +10337,22 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C170" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F170" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="G170">
         <v>11</v>
@@ -10362,16 +10361,16 @@
         <v>994</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J170" t="s">
-        <v>560</v>
+        <v>90</v>
       </c>
       <c r="K170" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>561</v>
+        <v>90</v>
       </c>
       <c r="M170" t="s">
         <v>10</v>
@@ -10379,22 +10378,22 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C171" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="E171" t="s">
-        <v>568</v>
+        <v>73</v>
       </c>
       <c r="F171" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="G171">
         <v>11</v>
@@ -10403,16 +10402,16 @@
         <v>994</v>
       </c>
       <c r="I171" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J171" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="K171" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="M171" t="s">
         <v>10</v>
@@ -10420,22 +10419,22 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E172" t="s">
-        <v>359</v>
+        <v>55</v>
       </c>
       <c r="F172" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="G172">
         <v>11</v>
@@ -10444,16 +10443,16 @@
         <v>994</v>
       </c>
       <c r="I172" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="J172" t="s">
-        <v>586</v>
+        <v>98</v>
       </c>
       <c r="K172" t="s">
-        <v>588</v>
+        <v>58</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>587</v>
+        <v>98</v>
       </c>
       <c r="M172" t="s">
         <v>45</v>
@@ -10461,22 +10460,22 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="E173" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F173" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="G173">
         <v>11</v>
@@ -10485,16 +10484,16 @@
         <v>994</v>
       </c>
       <c r="I173" t="s">
-        <v>22</v>
+        <v>609</v>
       </c>
       <c r="J173" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="K173" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="M173" t="s">
         <v>45</v>
@@ -10502,22 +10501,22 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="E174" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="G174">
         <v>11</v>
@@ -10526,16 +10525,16 @@
         <v>994</v>
       </c>
       <c r="I174" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="J174" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="K174" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="M174" t="s">
         <v>45</v>
@@ -10543,22 +10542,22 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C175" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="E175" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="G175">
         <v>11</v>
@@ -10567,16 +10566,16 @@
         <v>994</v>
       </c>
       <c r="I175" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="K175" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="M175" t="s">
         <v>10</v>
@@ -10584,22 +10583,22 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C176" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="E176" t="s">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="F176" t="s">
-        <v>574</v>
+        <v>140</v>
       </c>
       <c r="G176">
         <v>11</v>
@@ -10608,39 +10607,39 @@
         <v>994</v>
       </c>
       <c r="I176" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J176" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="K176" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>576</v>
+        <v>13</v>
       </c>
       <c r="M176" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>550</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="C177" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="E177" t="s">
-        <v>126</v>
+        <v>641</v>
       </c>
       <c r="F177" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="G177">
         <v>11</v>
@@ -10649,39 +10648,39 @@
         <v>994</v>
       </c>
       <c r="I177" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J177" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="K177" t="s">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="M177" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="E178" t="s">
-        <v>411</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="G178">
         <v>11</v>
@@ -10690,16 +10689,16 @@
         <v>994</v>
       </c>
       <c r="I178" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J178" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="K178" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="M178" t="s">
         <v>10</v>
@@ -10707,22 +10706,22 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="E179" t="s">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="F179" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="G179">
         <v>11</v>
@@ -10731,16 +10730,16 @@
         <v>994</v>
       </c>
       <c r="I179" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="K179" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="M179" t="s">
         <v>10</v>
@@ -10748,22 +10747,22 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C180" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D180" t="s">
-        <v>590</v>
+        <v>635</v>
       </c>
       <c r="E180" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="F180" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="G180">
         <v>11</v>
@@ -10772,80 +10771,80 @@
         <v>994</v>
       </c>
       <c r="I180" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J180" t="s">
-        <v>90</v>
+        <v>636</v>
       </c>
       <c r="K180" t="s">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="M180" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>637</v>
+      </c>
+      <c r="E181" t="s">
+        <v>456</v>
+      </c>
+      <c r="F181" t="s">
+        <v>638</v>
+      </c>
+      <c r="G181">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>994</v>
+      </c>
+      <c r="I181" t="s">
         <v>0</v>
       </c>
-      <c r="D181" t="s">
-        <v>590</v>
-      </c>
-      <c r="E181" t="s">
-        <v>73</v>
-      </c>
-      <c r="F181" t="s">
-        <v>597</v>
-      </c>
-      <c r="G181">
-        <v>11</v>
-      </c>
-      <c r="H181" t="s">
-        <v>994</v>
-      </c>
-      <c r="I181" t="s">
-        <v>22</v>
-      </c>
       <c r="J181" t="s">
-        <v>598</v>
+        <v>98</v>
       </c>
       <c r="K181" t="s">
         <v>105</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>599</v>
+        <v>98</v>
       </c>
       <c r="M181" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B182" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="F182" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="G182">
         <v>11</v>
@@ -10854,16 +10853,16 @@
         <v>994</v>
       </c>
       <c r="I182" t="s">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>98</v>
+        <v>639</v>
       </c>
       <c r="K182" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>98</v>
+        <v>640</v>
       </c>
       <c r="M182" t="s">
         <v>45</v>
@@ -10871,22 +10870,22 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C183" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D183" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F183" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="G183">
         <v>11</v>
@@ -10895,39 +10894,39 @@
         <v>994</v>
       </c>
       <c r="I183" t="s">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="K183" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>610</v>
+        <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D184" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E184" t="s">
-        <v>326</v>
+        <v>492</v>
       </c>
       <c r="F184" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="G184">
         <v>11</v>
@@ -10936,39 +10935,39 @@
         <v>994</v>
       </c>
       <c r="I184" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J184" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="K184" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>34</v>
+        <v>625</v>
       </c>
       <c r="M184" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B185" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D185" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F185" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="G185">
         <v>11</v>
@@ -10977,16 +10976,16 @@
         <v>994</v>
       </c>
       <c r="I185" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J185" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="K185" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="M185" t="s">
         <v>10</v>
@@ -10994,22 +10993,22 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B186" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D186" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="E186" t="s">
-        <v>542</v>
+        <v>4</v>
       </c>
       <c r="F186" t="s">
-        <v>140</v>
+        <v>632</v>
       </c>
       <c r="G186">
         <v>11</v>
@@ -11018,19 +11017,19 @@
         <v>994</v>
       </c>
       <c r="I186" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="K186" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>13</v>
+        <v>634</v>
       </c>
       <c r="M186" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -11041,16 +11040,16 @@
         <v>611</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D187" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="E187" t="s">
-        <v>641</v>
+        <v>73</v>
       </c>
       <c r="F187" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="G187">
         <v>11</v>
@@ -11062,36 +11061,36 @@
         <v>46</v>
       </c>
       <c r="J187" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="K187" t="s">
-        <v>423</v>
+        <v>58</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="M187" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B188" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="F188" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="G188">
         <v>11</v>
@@ -11103,36 +11102,36 @@
         <v>46</v>
       </c>
       <c r="J188" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="K188" t="s">
-        <v>213</v>
+        <v>667</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="M188" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C189" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="E189" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="F189" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="G189">
         <v>11</v>
@@ -11144,13 +11143,13 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="K189" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="M189" t="s">
         <v>10</v>
@@ -11158,22 +11157,22 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C190" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="E190" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="F190" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="G190">
         <v>11</v>
@@ -11182,16 +11181,16 @@
         <v>994</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J190" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="K190" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>140</v>
+        <v>669</v>
       </c>
       <c r="M190" t="s">
         <v>45</v>
@@ -11199,22 +11198,22 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="E191" t="s">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="F191" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="G191">
         <v>11</v>
@@ -11223,39 +11222,39 @@
         <v>994</v>
       </c>
       <c r="I191" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J191" t="s">
-        <v>98</v>
+        <v>658</v>
       </c>
       <c r="K191" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>98</v>
+        <v>659</v>
       </c>
       <c r="M191" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D192" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E192" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="F192" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="G192">
         <v>11</v>
@@ -11264,39 +11263,39 @@
         <v>994</v>
       </c>
       <c r="I192" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J192" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="K192" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="M192" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B193" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="E193" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F193" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="G193">
         <v>11</v>
@@ -11308,13 +11307,13 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="K193" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>332</v>
+        <v>662</v>
       </c>
       <c r="M193" t="s">
         <v>10</v>
@@ -11322,22 +11321,22 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="E194" t="s">
-        <v>492</v>
+        <v>126</v>
       </c>
       <c r="F194" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="G194">
         <v>11</v>
@@ -11346,16 +11345,16 @@
         <v>994</v>
       </c>
       <c r="I194" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="K194" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="L194" s="5" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="M194" t="s">
         <v>10</v>
@@ -11363,22 +11362,22 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B195" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="E195" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F195" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="G195">
         <v>11</v>
@@ -11387,39 +11386,39 @@
         <v>994</v>
       </c>
       <c r="I195" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="K195" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="L195" s="5" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="M195" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B196" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="E196" t="s">
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="F196" t="s">
-        <v>632</v>
+        <v>663</v>
       </c>
       <c r="G196">
         <v>11</v>
@@ -11428,16 +11427,16 @@
         <v>994</v>
       </c>
       <c r="I196" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="K196" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="L196" s="5" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="M196" t="s">
         <v>10</v>
@@ -11445,22 +11444,22 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B197" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C197" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D197" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="E197" t="s">
-        <v>73</v>
+        <v>456</v>
       </c>
       <c r="F197" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="G197">
         <v>11</v>
@@ -11469,39 +11468,39 @@
         <v>994</v>
       </c>
       <c r="I197" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="K197" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="L197" s="5" t="s">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="M197" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B198" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="E198" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="G198">
         <v>11</v>
@@ -11510,39 +11509,39 @@
         <v>994</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="K198" t="s">
-        <v>667</v>
+        <v>34</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="M198" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B199" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="E199" t="s">
-        <v>411</v>
+        <v>168</v>
       </c>
       <c r="F199" t="s">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="G199">
         <v>11</v>
@@ -11551,16 +11550,16 @@
         <v>994</v>
       </c>
       <c r="I199" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J199" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="K199" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="M199" t="s">
         <v>10</v>
@@ -11568,22 +11567,22 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B200" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="E200" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F200" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="G200">
         <v>11</v>
@@ -11592,39 +11591,39 @@
         <v>994</v>
       </c>
       <c r="I200" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="K200" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="M200" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B201" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="E201" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="F201" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="G201">
         <v>11</v>
@@ -11633,16 +11632,16 @@
         <v>994</v>
       </c>
       <c r="I201" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="K201" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="M201" t="s">
         <v>10</v>
@@ -11650,22 +11649,22 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B202" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C202" t="s">
         <v>46</v>
       </c>
       <c r="D202" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
       <c r="E202" t="s">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
       <c r="G202">
         <v>11</v>
@@ -11677,13 +11676,13 @@
         <v>46</v>
       </c>
       <c r="J202" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="K202" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="M202" t="s">
         <v>10</v>
@@ -11691,40 +11690,40 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B203" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C203" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203" t="s">
+        <v>692</v>
+      </c>
+      <c r="E203" t="s">
+        <v>428</v>
+      </c>
+      <c r="F203" t="s">
+        <v>703</v>
+      </c>
+      <c r="G203">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>994</v>
+      </c>
+      <c r="I203" t="s">
         <v>2</v>
       </c>
-      <c r="D203" t="s">
-        <v>652</v>
-      </c>
-      <c r="E203" t="s">
-        <v>99</v>
-      </c>
-      <c r="F203" t="s">
-        <v>660</v>
-      </c>
-      <c r="G203">
-        <v>11</v>
-      </c>
-      <c r="H203" t="s">
-        <v>994</v>
-      </c>
-      <c r="I203" t="s">
-        <v>0</v>
-      </c>
       <c r="J203" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="K203" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="M203" t="s">
         <v>10</v>
@@ -11732,22 +11731,22 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B204" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D204" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="E204" t="s">
-        <v>126</v>
+        <v>447</v>
       </c>
       <c r="F204" t="s">
-        <v>653</v>
+        <v>709</v>
       </c>
       <c r="G204">
         <v>11</v>
@@ -11756,39 +11755,39 @@
         <v>994</v>
       </c>
       <c r="I204" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J204" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="K204" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="M204" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B205" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="E205" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="G205">
         <v>11</v>
@@ -11797,39 +11796,39 @@
         <v>994</v>
       </c>
       <c r="I205" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="K205" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="M205" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B206" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="E206" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="F206" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="G206">
         <v>11</v>
@@ -11838,16 +11837,16 @@
         <v>994</v>
       </c>
       <c r="I206" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="J206" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="K206" t="s">
         <v>105</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="M206" t="s">
         <v>10</v>
@@ -11855,22 +11854,22 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="B207" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C207" t="s">
         <v>36</v>
       </c>
       <c r="D207" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="E207" t="s">
-        <v>456</v>
+        <v>271</v>
       </c>
       <c r="F207" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
       <c r="G207">
         <v>11</v>
@@ -11879,19 +11878,19 @@
         <v>994</v>
       </c>
       <c r="I207" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="K207" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="M207" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -11902,16 +11901,16 @@
         <v>676</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="E208" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F208" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="G208">
         <v>11</v>
@@ -11920,19 +11919,19 @@
         <v>994</v>
       </c>
       <c r="I208" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J208" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="K208" t="s">
         <v>34</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="M208" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -11943,16 +11942,16 @@
         <v>676</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="E209" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="F209" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="G209">
         <v>11</v>
@@ -11964,16 +11963,16 @@
         <v>6</v>
       </c>
       <c r="J209" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="K209" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="M209" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -11984,37 +11983,37 @@
         <v>676</v>
       </c>
       <c r="C210" t="s">
+        <v>86</v>
+      </c>
+      <c r="D210" t="s">
+        <v>697</v>
+      </c>
+      <c r="E210" t="s">
+        <v>411</v>
+      </c>
+      <c r="F210" t="s">
+        <v>717</v>
+      </c>
+      <c r="G210">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>994</v>
+      </c>
+      <c r="I210" t="s">
         <v>6</v>
       </c>
-      <c r="D210" t="s">
-        <v>677</v>
-      </c>
-      <c r="E210" t="s">
-        <v>238</v>
-      </c>
-      <c r="F210" t="s">
-        <v>685</v>
-      </c>
-      <c r="G210">
-        <v>11</v>
-      </c>
-      <c r="H210" t="s">
-        <v>994</v>
-      </c>
-      <c r="I210" t="s">
-        <v>0</v>
-      </c>
       <c r="J210" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="K210" t="s">
-        <v>222</v>
+        <v>720</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="M210" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -12025,16 +12024,16 @@
         <v>676</v>
       </c>
       <c r="C211" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D211" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="E211" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="F211" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="G211">
         <v>11</v>
@@ -12043,16 +12042,16 @@
         <v>994</v>
       </c>
       <c r="I211" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J211" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K211" t="s">
         <v>51</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="M211" t="s">
         <v>10</v>
@@ -12060,23 +12059,23 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B212" t="s">
+        <v>722</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>748</v>
+      </c>
+      <c r="E212" t="s">
+        <v>143</v>
+      </c>
+      <c r="F212" t="s">
         <v>676</v>
       </c>
-      <c r="C212" t="s">
-        <v>46</v>
-      </c>
-      <c r="D212" t="s">
-        <v>692</v>
-      </c>
-      <c r="E212" t="s">
-        <v>396</v>
-      </c>
-      <c r="F212" t="s">
-        <v>693</v>
-      </c>
       <c r="G212">
         <v>11</v>
       </c>
@@ -12084,39 +12083,39 @@
         <v>994</v>
       </c>
       <c r="I212" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J212" t="s">
-        <v>693</v>
+        <v>449</v>
       </c>
       <c r="K212" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>693</v>
+        <v>449</v>
       </c>
       <c r="M212" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B213" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="E213" t="s">
-        <v>428</v>
+        <v>59</v>
       </c>
       <c r="F213" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="G213">
         <v>11</v>
@@ -12125,16 +12124,16 @@
         <v>994</v>
       </c>
       <c r="I213" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J213" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="K213" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="M213" t="s">
         <v>10</v>
@@ -12142,22 +12141,22 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B214" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C214" t="s">
         <v>46</v>
       </c>
       <c r="D214" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="E214" t="s">
-        <v>447</v>
+        <v>103</v>
       </c>
       <c r="F214" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="G214">
         <v>11</v>
@@ -12166,16 +12165,16 @@
         <v>994</v>
       </c>
       <c r="I214" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J214" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="K214" t="s">
-        <v>711</v>
+        <v>222</v>
       </c>
       <c r="L214" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="M214" t="s">
         <v>45</v>
@@ -12183,22 +12182,22 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B215" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D215" t="s">
-        <v>681</v>
+        <v>749</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="F215" t="s">
-        <v>694</v>
+        <v>752</v>
       </c>
       <c r="G215">
         <v>11</v>
@@ -12207,39 +12206,39 @@
         <v>994</v>
       </c>
       <c r="I215" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J215" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="K215" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>696</v>
+        <v>753</v>
       </c>
       <c r="M215" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B216" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D216" t="s">
-        <v>681</v>
+        <v>749</v>
       </c>
       <c r="E216" t="s">
-        <v>492</v>
+        <v>252</v>
       </c>
       <c r="F216" t="s">
-        <v>682</v>
+        <v>754</v>
       </c>
       <c r="G216">
         <v>11</v>
@@ -12248,39 +12247,39 @@
         <v>994</v>
       </c>
       <c r="I216" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J216" t="s">
-        <v>683</v>
+        <v>755</v>
       </c>
       <c r="K216" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>684</v>
+        <v>755</v>
       </c>
       <c r="M216" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B217" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="E217" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
       <c r="G217">
         <v>11</v>
@@ -12289,16 +12288,16 @@
         <v>994</v>
       </c>
       <c r="I217" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="K217" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="M217" t="s">
         <v>10</v>
@@ -12306,22 +12305,22 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B218" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="E218" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="G218">
         <v>11</v>
@@ -12330,39 +12329,39 @@
         <v>994</v>
       </c>
       <c r="I218" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J218" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="K218" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="M218" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B219" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D219" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="E219" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="F219" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="G219">
         <v>11</v>
@@ -12371,39 +12370,39 @@
         <v>994</v>
       </c>
       <c r="I219" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J219" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="K219" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="L219" s="5" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="M219" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B220" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C220" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D220" t="s">
-        <v>697</v>
+        <v>735</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="F220" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
       <c r="G220">
         <v>11</v>
@@ -12415,57 +12414,57 @@
         <v>6</v>
       </c>
       <c r="J220" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="K220" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="M220" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B221" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C221" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" t="s">
+        <v>756</v>
+      </c>
+      <c r="E221" t="s">
+        <v>143</v>
+      </c>
+      <c r="F221" t="s">
+        <v>757</v>
+      </c>
+      <c r="G221">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
+        <v>994</v>
+      </c>
+      <c r="I221" t="s">
         <v>86</v>
       </c>
-      <c r="D221" t="s">
-        <v>697</v>
-      </c>
-      <c r="E221" t="s">
-        <v>278</v>
-      </c>
-      <c r="F221" t="s">
-        <v>698</v>
-      </c>
-      <c r="G221">
-        <v>11</v>
-      </c>
-      <c r="H221" t="s">
-        <v>994</v>
-      </c>
-      <c r="I221" t="s">
-        <v>36</v>
-      </c>
       <c r="J221" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
       <c r="K221" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
       <c r="M221" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -12476,16 +12475,16 @@
         <v>722</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="E222" t="s">
-        <v>143</v>
+        <v>759</v>
       </c>
       <c r="F222" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="G222">
         <v>11</v>
@@ -12497,13 +12496,13 @@
         <v>36</v>
       </c>
       <c r="J222" t="s">
-        <v>449</v>
+        <v>761</v>
       </c>
       <c r="K222" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>449</v>
+        <v>761</v>
       </c>
       <c r="M222" t="s">
         <v>45</v>
@@ -12517,16 +12516,16 @@
         <v>722</v>
       </c>
       <c r="C223" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D223" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E223" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F223" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="G223">
         <v>11</v>
@@ -12535,16 +12534,16 @@
         <v>994</v>
       </c>
       <c r="I223" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J223" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="K223" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="L223" s="5" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="M223" t="s">
         <v>10</v>
@@ -12558,34 +12557,34 @@
         <v>722</v>
       </c>
       <c r="C224" t="s">
+        <v>86</v>
+      </c>
+      <c r="D224" t="s">
+        <v>727</v>
+      </c>
+      <c r="E224" t="s">
+        <v>641</v>
+      </c>
+      <c r="F224" t="s">
+        <v>762</v>
+      </c>
+      <c r="G224">
+        <v>11</v>
+      </c>
+      <c r="H224" t="s">
+        <v>994</v>
+      </c>
+      <c r="I224" t="s">
         <v>46</v>
       </c>
-      <c r="D224" t="s">
-        <v>749</v>
-      </c>
-      <c r="E224" t="s">
-        <v>103</v>
-      </c>
-      <c r="F224" t="s">
-        <v>750</v>
-      </c>
-      <c r="G224">
-        <v>11</v>
-      </c>
-      <c r="H224" t="s">
-        <v>994</v>
-      </c>
-      <c r="I224" t="s">
-        <v>22</v>
-      </c>
       <c r="J224" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="K224" t="s">
-        <v>222</v>
+        <v>579</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="M224" t="s">
         <v>45</v>
@@ -12599,16 +12598,16 @@
         <v>722</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D225" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="E225" t="s">
-        <v>330</v>
+        <v>728</v>
       </c>
       <c r="F225" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="G225">
         <v>11</v>
@@ -12617,39 +12616,39 @@
         <v>994</v>
       </c>
       <c r="I225" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J225" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="K225" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="M225" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B226" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C226" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="E226" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="F226" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="G226">
         <v>11</v>
@@ -12658,39 +12657,39 @@
         <v>994</v>
       </c>
       <c r="I226" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="K226" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="M226" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B227" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="E227" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F227" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="G227">
         <v>11</v>
@@ -12702,13 +12701,13 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>658</v>
+        <v>772</v>
       </c>
       <c r="K227" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="M227" t="s">
         <v>10</v>
@@ -12716,22 +12715,22 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B228" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C228" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="E228" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="F228" t="s">
-        <v>732</v>
+        <v>790</v>
       </c>
       <c r="G228">
         <v>11</v>
@@ -12743,36 +12742,36 @@
         <v>6</v>
       </c>
       <c r="J228" t="s">
-        <v>733</v>
+        <v>791</v>
       </c>
       <c r="K228" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>734</v>
+        <v>791</v>
       </c>
       <c r="M228" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B229" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>735</v>
+        <v>774</v>
       </c>
       <c r="E229" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F229" t="s">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="G229">
         <v>11</v>
@@ -12781,16 +12780,16 @@
         <v>994</v>
       </c>
       <c r="I229" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J229" t="s">
-        <v>737</v>
+        <v>776</v>
       </c>
       <c r="K229" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>738</v>
+        <v>777</v>
       </c>
       <c r="M229" t="s">
         <v>10</v>
@@ -12798,22 +12797,22 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B230" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="E230" t="s">
-        <v>528</v>
+        <v>126</v>
       </c>
       <c r="F230" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="G230">
         <v>11</v>
@@ -12822,16 +12821,16 @@
         <v>994</v>
       </c>
       <c r="I230" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="K230" t="s">
-        <v>747</v>
+        <v>105</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="M230" t="s">
         <v>10</v>
@@ -12839,22 +12838,22 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B231" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="E231" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="F231" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="G231">
         <v>11</v>
@@ -12863,39 +12862,39 @@
         <v>994</v>
       </c>
       <c r="I231" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="J231" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="K231" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="M231" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B232" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="E232" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="F232" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="G232">
         <v>11</v>
@@ -12904,16 +12903,16 @@
         <v>994</v>
       </c>
       <c r="I232" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J232" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="K232" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="L232" s="5" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="M232" t="s">
         <v>45</v>
@@ -12921,22 +12920,22 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B233" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C233" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D233" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
       <c r="E233" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F233" t="s">
-        <v>739</v>
+        <v>798</v>
       </c>
       <c r="G233">
         <v>11</v>
@@ -12945,39 +12944,39 @@
         <v>994</v>
       </c>
       <c r="I233" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>740</v>
+        <v>799</v>
       </c>
       <c r="K233" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="M233" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B234" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C234" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D234" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
       <c r="E234" t="s">
-        <v>641</v>
+        <v>330</v>
       </c>
       <c r="F234" t="s">
-        <v>762</v>
+        <v>796</v>
       </c>
       <c r="G234">
         <v>11</v>
@@ -12986,16 +12985,16 @@
         <v>994</v>
       </c>
       <c r="I234" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J234" t="s">
-        <v>762</v>
+        <v>797</v>
       </c>
       <c r="K234" t="s">
-        <v>579</v>
+        <v>222</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="M234" t="s">
         <v>45</v>
@@ -13003,22 +13002,22 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B235" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C235" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>727</v>
+        <v>780</v>
       </c>
       <c r="E235" t="s">
-        <v>728</v>
+        <v>164</v>
       </c>
       <c r="F235" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
       <c r="G235">
         <v>11</v>
@@ -13027,16 +13026,16 @@
         <v>994</v>
       </c>
       <c r="I235" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J235" t="s">
-        <v>729</v>
+        <v>782</v>
       </c>
       <c r="K235" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>730</v>
+        <v>783</v>
       </c>
       <c r="M235" t="s">
         <v>10</v>
@@ -13050,34 +13049,34 @@
         <v>765</v>
       </c>
       <c r="C236" t="s">
+        <v>86</v>
+      </c>
+      <c r="D236" t="s">
+        <v>786</v>
+      </c>
+      <c r="E236" t="s">
+        <v>70</v>
+      </c>
+      <c r="F236" t="s">
+        <v>787</v>
+      </c>
+      <c r="G236">
+        <v>11</v>
+      </c>
+      <c r="H236" t="s">
+        <v>994</v>
+      </c>
+      <c r="I236" t="s">
         <v>6</v>
       </c>
-      <c r="D236" t="s">
-        <v>770</v>
-      </c>
-      <c r="E236" t="s">
-        <v>126</v>
-      </c>
-      <c r="F236" t="s">
-        <v>771</v>
-      </c>
-      <c r="G236">
-        <v>11</v>
-      </c>
-      <c r="H236" t="s">
-        <v>994</v>
-      </c>
-      <c r="I236" t="s">
-        <v>0</v>
-      </c>
       <c r="J236" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="K236" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="M236" t="s">
         <v>10</v>
@@ -13085,22 +13084,22 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B237" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="E237" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="G237">
         <v>11</v>
@@ -13109,16 +13108,16 @@
         <v>994</v>
       </c>
       <c r="I237" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="K237" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="M237" t="s">
         <v>10</v>
@@ -13126,22 +13125,22 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B238" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="E238" t="s">
-        <v>337</v>
+        <v>568</v>
       </c>
       <c r="F238" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="G238">
         <v>11</v>
@@ -13150,39 +13149,39 @@
         <v>994</v>
       </c>
       <c r="I238" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J238" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="K238" t="s">
         <v>105</v>
       </c>
       <c r="L238" s="5" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="M238" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B239" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="E239" t="s">
-        <v>118</v>
+        <v>809</v>
       </c>
       <c r="F239" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="G239">
         <v>11</v>
@@ -13191,16 +13190,16 @@
         <v>994</v>
       </c>
       <c r="I239" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="K239" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="M239" t="s">
         <v>10</v>
@@ -13208,22 +13207,22 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B240" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
       <c r="E240" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F240" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
       <c r="G240">
         <v>11</v>
@@ -13232,16 +13231,16 @@
         <v>994</v>
       </c>
       <c r="I240" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J240" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="K240" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L240" s="5" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="M240" t="s">
         <v>10</v>
@@ -13249,22 +13248,22 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B241" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D241" t="s">
-        <v>766</v>
+        <v>820</v>
       </c>
       <c r="E241" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="F241" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="G241">
         <v>11</v>
@@ -13273,39 +13272,39 @@
         <v>994</v>
       </c>
       <c r="I241" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J241" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="K241" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>779</v>
+        <v>830</v>
       </c>
       <c r="M241" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B242" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D242" t="s">
-        <v>766</v>
+        <v>820</v>
       </c>
       <c r="E242" t="s">
-        <v>792</v>
+        <v>81</v>
       </c>
       <c r="F242" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="G242">
         <v>11</v>
@@ -13317,36 +13316,36 @@
         <v>6</v>
       </c>
       <c r="J242" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="K242" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="M242" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B243" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="E243" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="G243">
         <v>11</v>
@@ -13355,39 +13354,39 @@
         <v>994</v>
       </c>
       <c r="I243" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J243" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="K243" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="M243" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B244" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C244" t="s">
         <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="E244" t="s">
-        <v>330</v>
+        <v>492</v>
       </c>
       <c r="F244" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="G244">
         <v>11</v>
@@ -13399,36 +13398,36 @@
         <v>6</v>
       </c>
       <c r="J244" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="K244" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="M244" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B245" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="E245" t="s">
-        <v>164</v>
+        <v>826</v>
       </c>
       <c r="F245" t="s">
-        <v>781</v>
+        <v>827</v>
       </c>
       <c r="G245">
         <v>11</v>
@@ -13437,39 +13436,39 @@
         <v>994</v>
       </c>
       <c r="I245" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>782</v>
+        <v>584</v>
       </c>
       <c r="K245" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>783</v>
+        <v>828</v>
       </c>
       <c r="M245" t="s">
-        <v>10</v>
+        <v>829</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B246" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="C246" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>786</v>
+        <v>831</v>
       </c>
       <c r="E246" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>787</v>
+        <v>832</v>
       </c>
       <c r="G246">
         <v>11</v>
@@ -13478,39 +13477,39 @@
         <v>994</v>
       </c>
       <c r="I246" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J246" t="s">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="K246" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="M246" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B247" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c r="E247" t="s">
-        <v>19</v>
+        <v>860</v>
       </c>
       <c r="F247" t="s">
-        <v>806</v>
+        <v>850</v>
       </c>
       <c r="G247">
         <v>11</v>
@@ -13519,39 +13518,39 @@
         <v>994</v>
       </c>
       <c r="I247" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J247" t="s">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="K247" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>808</v>
+        <v>861</v>
       </c>
       <c r="M247" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B248" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c r="E248" t="s">
-        <v>568</v>
+        <v>73</v>
       </c>
       <c r="F248" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="G248">
         <v>11</v>
@@ -13560,16 +13559,16 @@
         <v>994</v>
       </c>
       <c r="I248" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J248" t="s">
-        <v>818</v>
+        <v>851</v>
       </c>
       <c r="K248" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="M248" t="s">
         <v>10</v>
@@ -13577,22 +13576,22 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B249" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="E249" t="s">
-        <v>809</v>
+        <v>411</v>
       </c>
       <c r="F249" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="G249">
         <v>11</v>
@@ -13601,16 +13600,16 @@
         <v>994</v>
       </c>
       <c r="I249" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J249" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="K249" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="M249" t="s">
         <v>10</v>
@@ -13618,22 +13617,22 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B250" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="E250" t="s">
-        <v>130</v>
+        <v>809</v>
       </c>
       <c r="F250" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
       <c r="G250">
         <v>11</v>
@@ -13645,13 +13644,13 @@
         <v>6</v>
       </c>
       <c r="J250" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="K250" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="M250" t="s">
         <v>10</v>
@@ -13659,22 +13658,22 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B251" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C251" t="s">
         <v>46</v>
       </c>
       <c r="D251" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="E251" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="F251" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="G251">
         <v>11</v>
@@ -13683,16 +13682,16 @@
         <v>994</v>
       </c>
       <c r="I251" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J251" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="K251" t="s">
-        <v>17</v>
+        <v>864</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="M251" t="s">
         <v>45</v>
@@ -13700,22 +13699,22 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B252" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C252" t="s">
         <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="E252" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="F252" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="G252">
         <v>11</v>
@@ -13724,16 +13723,16 @@
         <v>994</v>
       </c>
       <c r="I252" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="K252" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="M252" t="s">
         <v>10</v>
@@ -13741,22 +13740,22 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B253" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C253" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D253" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="E253" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="F253" t="s">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="G253">
         <v>11</v>
@@ -13768,13 +13767,13 @@
         <v>6</v>
       </c>
       <c r="J253" t="s">
-        <v>815</v>
+        <v>848</v>
       </c>
       <c r="K253" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="M253" t="s">
         <v>10</v>
@@ -13782,22 +13781,22 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B254" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="E254" t="s">
-        <v>492</v>
+        <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="G254">
         <v>11</v>
@@ -13806,16 +13805,16 @@
         <v>994</v>
       </c>
       <c r="I254" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="K254" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="M254" t="s">
         <v>10</v>
@@ -13823,22 +13822,22 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B255" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C255" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="E255" t="s">
-        <v>826</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>827</v>
+        <v>868</v>
       </c>
       <c r="G255">
         <v>11</v>
@@ -13850,36 +13849,36 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>584</v>
+        <v>868</v>
       </c>
       <c r="K255" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="M255" t="s">
-        <v>829</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B256" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D256" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="G256">
         <v>11</v>
@@ -13888,19 +13887,19 @@
         <v>994</v>
       </c>
       <c r="I256" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J256" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="K256" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="M256" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -13911,34 +13910,34 @@
         <v>835</v>
       </c>
       <c r="C257" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" t="s">
+        <v>865</v>
+      </c>
+      <c r="E257" t="s">
+        <v>143</v>
+      </c>
+      <c r="F257" t="s">
+        <v>866</v>
+      </c>
+      <c r="G257">
+        <v>11</v>
+      </c>
+      <c r="H257" t="s">
+        <v>994</v>
+      </c>
+      <c r="I257" t="s">
         <v>6</v>
       </c>
-      <c r="D257" t="s">
-        <v>850</v>
-      </c>
-      <c r="E257" t="s">
-        <v>860</v>
-      </c>
-      <c r="F257" t="s">
-        <v>850</v>
-      </c>
-      <c r="G257">
-        <v>11</v>
-      </c>
-      <c r="H257" t="s">
-        <v>994</v>
-      </c>
-      <c r="I257" t="s">
-        <v>144</v>
-      </c>
       <c r="J257" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="K257" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="M257" t="s">
         <v>45</v>
@@ -13946,22 +13945,22 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B258" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="E258" t="s">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="F258" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="G258">
         <v>11</v>
@@ -13970,39 +13969,39 @@
         <v>994</v>
       </c>
       <c r="I258" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="K258" t="s">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="M258" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B259" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C259" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>836</v>
+        <v>892</v>
       </c>
       <c r="E259" t="s">
-        <v>411</v>
+        <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="G259">
         <v>11</v>
@@ -14011,39 +14010,39 @@
         <v>994</v>
       </c>
       <c r="I259" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>838</v>
+        <v>895</v>
       </c>
       <c r="K259" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="M259" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B260" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C260" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>836</v>
+        <v>892</v>
       </c>
       <c r="E260" t="s">
-        <v>809</v>
+        <v>294</v>
       </c>
       <c r="F260" t="s">
-        <v>844</v>
+        <v>900</v>
       </c>
       <c r="G260">
         <v>11</v>
@@ -14052,39 +14051,39 @@
         <v>994</v>
       </c>
       <c r="I260" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J260" t="s">
-        <v>845</v>
+        <v>666</v>
       </c>
       <c r="K260" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>846</v>
+        <v>666</v>
       </c>
       <c r="M260" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B261" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C261" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
       <c r="E261" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="F261" t="s">
-        <v>862</v>
+        <v>896</v>
       </c>
       <c r="G261">
         <v>11</v>
@@ -14093,16 +14092,16 @@
         <v>994</v>
       </c>
       <c r="I261" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>862</v>
+        <v>897</v>
       </c>
       <c r="K261" t="s">
-        <v>864</v>
+        <v>58</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>863</v>
+        <v>897</v>
       </c>
       <c r="M261" t="s">
         <v>45</v>
@@ -14110,22 +14109,22 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B262" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C262" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="E262" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="G262">
         <v>11</v>
@@ -14134,16 +14133,16 @@
         <v>994</v>
       </c>
       <c r="I262" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="J262" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="K262" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="M262" t="s">
         <v>10</v>
@@ -14151,22 +14150,22 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B263" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C263" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="E263" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="G263">
         <v>11</v>
@@ -14175,16 +14174,16 @@
         <v>994</v>
       </c>
       <c r="I263" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="K263" t="s">
         <v>51</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="M263" t="s">
         <v>10</v>
@@ -14192,22 +14191,22 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B264" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C264" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="E264" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="F264" t="s">
-        <v>841</v>
+        <v>898</v>
       </c>
       <c r="G264">
         <v>11</v>
@@ -14216,39 +14215,39 @@
         <v>994</v>
       </c>
       <c r="I264" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J264" t="s">
-        <v>842</v>
+        <v>898</v>
       </c>
       <c r="K264" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>843</v>
+        <v>899</v>
       </c>
       <c r="M264" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B265" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C265" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D265" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="E265" t="s">
-        <v>492</v>
+        <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="G265">
         <v>11</v>
@@ -14257,39 +14256,39 @@
         <v>994</v>
       </c>
       <c r="I265" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J265" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="K265" t="s">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="M265" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B266" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C266" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D266" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="E266" t="s">
-        <v>492</v>
+        <v>278</v>
       </c>
       <c r="F266" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="G266">
         <v>11</v>
@@ -14298,16 +14297,16 @@
         <v>994</v>
       </c>
       <c r="I266" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="K266" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>859</v>
+        <v>203</v>
       </c>
       <c r="M266" t="s">
         <v>10</v>
@@ -14315,22 +14314,22 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B267" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D267" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="E267" t="s">
-        <v>143</v>
+        <v>878</v>
       </c>
       <c r="F267" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="G267">
         <v>11</v>
@@ -14342,16 +14341,16 @@
         <v>6</v>
       </c>
       <c r="J267" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="K267" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="M267" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -14362,16 +14361,16 @@
         <v>871</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D268" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="E268" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="F268" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="G268">
         <v>11</v>
@@ -14383,16 +14382,16 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="K268" t="s">
-        <v>747</v>
+        <v>17</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="M268" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -14403,57 +14402,57 @@
         <v>871</v>
       </c>
       <c r="C269" t="s">
+        <v>46</v>
+      </c>
+      <c r="D269" t="s">
+        <v>877</v>
+      </c>
+      <c r="E269" t="s">
+        <v>396</v>
+      </c>
+      <c r="F269" t="s">
+        <v>890</v>
+      </c>
+      <c r="G269">
+        <v>11</v>
+      </c>
+      <c r="H269" t="s">
+        <v>994</v>
+      </c>
+      <c r="I269" t="s">
         <v>6</v>
       </c>
-      <c r="D269" t="s">
-        <v>892</v>
-      </c>
-      <c r="E269" t="s">
-        <v>48</v>
-      </c>
-      <c r="F269" t="s">
-        <v>894</v>
-      </c>
-      <c r="G269">
-        <v>11</v>
-      </c>
-      <c r="H269" t="s">
-        <v>994</v>
-      </c>
-      <c r="I269" t="s">
-        <v>2</v>
-      </c>
       <c r="J269" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="K269" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="M269" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B270" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="E270" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="F270" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="G270">
         <v>11</v>
@@ -14462,39 +14461,39 @@
         <v>994</v>
       </c>
       <c r="I270" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="K270" t="s">
         <v>17</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>666</v>
+        <v>909</v>
       </c>
       <c r="M270" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B271" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="E271" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="F271" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="G271">
         <v>11</v>
@@ -14503,39 +14502,39 @@
         <v>994</v>
       </c>
       <c r="I271" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="K271" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="M271" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B272" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="E272" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="F272" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="G272">
         <v>11</v>
@@ -14544,16 +14543,16 @@
         <v>994</v>
       </c>
       <c r="I272" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="J272" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="K272" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>874</v>
+        <v>917</v>
       </c>
       <c r="M272" t="s">
         <v>10</v>
@@ -14561,22 +14560,22 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B273" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C273" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D273" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="E273" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F273" t="s">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="G273">
         <v>11</v>
@@ -14585,39 +14584,39 @@
         <v>994</v>
       </c>
       <c r="I273" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J273" t="s">
-        <v>875</v>
+        <v>926</v>
       </c>
       <c r="K273" t="s">
-        <v>51</v>
+        <v>864</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
       <c r="M273" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B274" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C274" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="E274" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="F274" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="G274">
         <v>11</v>
@@ -14629,36 +14628,36 @@
         <v>6</v>
       </c>
       <c r="J274" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="K274" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="M274" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B275" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>877</v>
+        <v>910</v>
       </c>
       <c r="E275" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="F275" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="G275">
         <v>11</v>
@@ -14667,16 +14666,16 @@
         <v>994</v>
       </c>
       <c r="I275" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J275" t="s">
-        <v>888</v>
+        <v>63</v>
       </c>
       <c r="K275" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>889</v>
+        <v>63</v>
       </c>
       <c r="M275" t="s">
         <v>10</v>
@@ -14684,40 +14683,40 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B276" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>910</v>
+      </c>
+      <c r="E276" t="s">
+        <v>396</v>
+      </c>
+      <c r="F276" t="s">
+        <v>918</v>
+      </c>
+      <c r="G276">
+        <v>11</v>
+      </c>
+      <c r="H276" t="s">
+        <v>994</v>
+      </c>
+      <c r="I276" t="s">
         <v>46</v>
       </c>
-      <c r="D276" t="s">
-        <v>877</v>
-      </c>
-      <c r="E276" t="s">
-        <v>278</v>
-      </c>
-      <c r="F276" t="s">
-        <v>882</v>
-      </c>
-      <c r="G276">
-        <v>11</v>
-      </c>
-      <c r="H276" t="s">
-        <v>994</v>
-      </c>
-      <c r="I276" t="s">
-        <v>0</v>
-      </c>
       <c r="J276" t="s">
-        <v>883</v>
+        <v>919</v>
       </c>
       <c r="K276" t="s">
         <v>58</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>203</v>
+        <v>920</v>
       </c>
       <c r="M276" t="s">
         <v>10</v>
@@ -14725,22 +14724,22 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B277" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C277" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>877</v>
+        <v>910</v>
       </c>
       <c r="E277" t="s">
-        <v>878</v>
+        <v>928</v>
       </c>
       <c r="F277" t="s">
-        <v>879</v>
+        <v>929</v>
       </c>
       <c r="G277">
         <v>11</v>
@@ -14749,39 +14748,39 @@
         <v>994</v>
       </c>
       <c r="I277" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>880</v>
+        <v>929</v>
       </c>
       <c r="K277" t="s">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>881</v>
+        <v>930</v>
       </c>
       <c r="M277" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="B278" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="C278" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D278" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="E278" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="F278" t="s">
-        <v>884</v>
+        <v>922</v>
       </c>
       <c r="G278">
         <v>11</v>
@@ -14790,57 +14789,57 @@
         <v>994</v>
       </c>
       <c r="I278" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>885</v>
+        <v>741</v>
       </c>
       <c r="K278" t="s">
-        <v>17</v>
+        <v>924</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="M278" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>870</v>
+        <v>195</v>
       </c>
       <c r="B279" t="s">
-        <v>871</v>
+        <v>931</v>
       </c>
       <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>931</v>
+      </c>
+      <c r="E279" t="s">
+        <v>271</v>
+      </c>
+      <c r="F279" t="s">
+        <v>932</v>
+      </c>
+      <c r="G279">
+        <v>11</v>
+      </c>
+      <c r="H279" t="s">
+        <v>994</v>
+      </c>
+      <c r="I279" t="s">
         <v>46</v>
       </c>
-      <c r="D279" t="s">
-        <v>877</v>
-      </c>
-      <c r="E279" t="s">
-        <v>396</v>
-      </c>
-      <c r="F279" t="s">
-        <v>890</v>
-      </c>
-      <c r="G279">
-        <v>11</v>
-      </c>
-      <c r="H279" t="s">
-        <v>994</v>
-      </c>
-      <c r="I279" t="s">
-        <v>6</v>
-      </c>
       <c r="J279" t="s">
-        <v>890</v>
+        <v>944</v>
       </c>
       <c r="K279" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>891</v>
+        <v>945</v>
       </c>
       <c r="M279" t="s">
         <v>10</v>
@@ -14848,22 +14847,22 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B280" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>906</v>
+        <v>931</v>
       </c>
       <c r="E280" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="F280" t="s">
-        <v>907</v>
+        <v>932</v>
       </c>
       <c r="G280">
         <v>11</v>
@@ -14872,16 +14871,16 @@
         <v>994</v>
       </c>
       <c r="I280" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J280" t="s">
-        <v>908</v>
+        <v>933</v>
       </c>
       <c r="K280" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>909</v>
+        <v>934</v>
       </c>
       <c r="M280" t="s">
         <v>10</v>
@@ -14889,22 +14888,22 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B281" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>906</v>
+        <v>931</v>
       </c>
       <c r="E281" t="s">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="G281">
         <v>11</v>
@@ -14916,13 +14915,13 @@
         <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>912</v>
+        <v>947</v>
       </c>
       <c r="K281" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>913</v>
+        <v>948</v>
       </c>
       <c r="M281" t="s">
         <v>10</v>
@@ -14930,63 +14929,63 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B282" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>931</v>
+      </c>
+      <c r="E282" t="s">
+        <v>953</v>
+      </c>
+      <c r="F282" t="s">
+        <v>954</v>
+      </c>
+      <c r="G282">
+        <v>11</v>
+      </c>
+      <c r="H282" t="s">
+        <v>994</v>
+      </c>
+      <c r="I282" t="s">
         <v>0</v>
       </c>
-      <c r="D282" t="s">
-        <v>914</v>
-      </c>
-      <c r="E282" t="s">
-        <v>183</v>
-      </c>
-      <c r="F282" t="s">
-        <v>915</v>
-      </c>
-      <c r="G282">
-        <v>11</v>
-      </c>
-      <c r="H282" t="s">
-        <v>994</v>
-      </c>
-      <c r="I282" t="s">
-        <v>36</v>
-      </c>
       <c r="J282" t="s">
-        <v>916</v>
+        <v>954</v>
       </c>
       <c r="K282" t="s">
-        <v>58</v>
+        <v>720</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>917</v>
+        <v>955</v>
       </c>
       <c r="M282" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B283" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C283" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="E283" t="s">
-        <v>59</v>
+        <v>956</v>
       </c>
       <c r="F283" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="G283">
         <v>11</v>
@@ -14995,16 +14994,16 @@
         <v>994</v>
       </c>
       <c r="I283" t="s">
-        <v>46</v>
+        <v>550</v>
       </c>
       <c r="J283" t="s">
-        <v>926</v>
+        <v>958</v>
       </c>
       <c r="K283" t="s">
-        <v>864</v>
+        <v>68</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>927</v>
+        <v>958</v>
       </c>
       <c r="M283" t="s">
         <v>45</v>
@@ -15012,22 +15011,22 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C284" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="E284" t="s">
-        <v>81</v>
+        <v>956</v>
       </c>
       <c r="F284" t="s">
-        <v>904</v>
+        <v>957</v>
       </c>
       <c r="G284">
         <v>11</v>
@@ -15036,57 +15035,57 @@
         <v>994</v>
       </c>
       <c r="I284" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="J284" t="s">
-        <v>904</v>
+        <v>960</v>
       </c>
       <c r="K284" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>905</v>
+        <v>960</v>
       </c>
       <c r="M284" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C285" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" t="s">
+        <v>949</v>
+      </c>
+      <c r="E285" t="s">
+        <v>73</v>
+      </c>
+      <c r="F285" t="s">
+        <v>949</v>
+      </c>
+      <c r="G285">
+        <v>11</v>
+      </c>
+      <c r="H285" t="s">
+        <v>994</v>
+      </c>
+      <c r="I285" t="s">
         <v>2</v>
       </c>
-      <c r="D285" t="s">
-        <v>910</v>
-      </c>
-      <c r="E285" t="s">
-        <v>164</v>
-      </c>
-      <c r="F285" t="s">
-        <v>911</v>
-      </c>
-      <c r="G285">
-        <v>11</v>
-      </c>
-      <c r="H285" t="s">
-        <v>994</v>
-      </c>
-      <c r="I285" t="s">
-        <v>6</v>
-      </c>
       <c r="J285" t="s">
-        <v>63</v>
+        <v>950</v>
       </c>
       <c r="K285" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>63</v>
+        <v>951</v>
       </c>
       <c r="M285" t="s">
         <v>10</v>
@@ -15094,22 +15093,22 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B286" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>910</v>
+        <v>935</v>
       </c>
       <c r="E286" t="s">
-        <v>396</v>
+        <v>271</v>
       </c>
       <c r="F286" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="G286">
         <v>11</v>
@@ -15118,16 +15117,16 @@
         <v>994</v>
       </c>
       <c r="I286" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J286" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="K286" t="s">
         <v>58</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="M286" t="s">
         <v>10</v>
@@ -15135,22 +15134,22 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C287" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D287" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="E287" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="F287" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="G287">
         <v>11</v>
@@ -15159,39 +15158,39 @@
         <v>994</v>
       </c>
       <c r="I287" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J287" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
       <c r="K287" t="s">
-        <v>423</v>
+        <v>34</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="M287" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>901</v>
+        <v>195</v>
       </c>
       <c r="B288" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
       </c>
       <c r="D288" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="E288" t="s">
-        <v>168</v>
+        <v>940</v>
       </c>
       <c r="F288" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="G288">
         <v>11</v>
@@ -15200,80 +15199,80 @@
         <v>994</v>
       </c>
       <c r="I288" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J288" t="s">
-        <v>741</v>
+        <v>941</v>
       </c>
       <c r="K288" t="s">
-        <v>924</v>
+        <v>549</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="M288" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>195</v>
+      <c r="A289" s="1">
+        <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C289" t="s">
+        <v>22</v>
+      </c>
+      <c r="D289" t="s">
+        <v>961</v>
+      </c>
+      <c r="E289" t="s">
+        <v>13</v>
+      </c>
+      <c r="F289" t="s">
+        <v>962</v>
+      </c>
+      <c r="G289">
+        <v>11</v>
+      </c>
+      <c r="H289" t="s">
+        <v>994</v>
+      </c>
+      <c r="I289" t="s">
         <v>6</v>
       </c>
-      <c r="D289" t="s">
-        <v>931</v>
-      </c>
-      <c r="E289" t="s">
-        <v>271</v>
-      </c>
-      <c r="F289" t="s">
-        <v>932</v>
-      </c>
-      <c r="G289">
-        <v>11</v>
-      </c>
-      <c r="H289" t="s">
-        <v>994</v>
-      </c>
-      <c r="I289" t="s">
-        <v>46</v>
-      </c>
       <c r="J289" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="K289" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
       <c r="M289" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>195</v>
+      <c r="A290" s="1">
+        <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>931</v>
+        <v>961</v>
       </c>
       <c r="E290" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>932</v>
+        <v>962</v>
       </c>
       <c r="G290">
         <v>11</v>
@@ -15285,200 +15284,200 @@
         <v>86</v>
       </c>
       <c r="J290" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="K290" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="L290" s="5" t="s">
-        <v>934</v>
+        <v>308</v>
       </c>
       <c r="M290" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>195</v>
+      <c r="A291" s="1">
+        <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C291" t="s">
+        <v>22</v>
+      </c>
+      <c r="D291" t="s">
+        <v>961</v>
+      </c>
+      <c r="E291" t="s">
+        <v>70</v>
+      </c>
+      <c r="F291" t="s">
+        <v>963</v>
+      </c>
+      <c r="G291">
+        <v>11</v>
+      </c>
+      <c r="H291" t="s">
+        <v>994</v>
+      </c>
+      <c r="I291" t="s">
+        <v>0</v>
+      </c>
+      <c r="J291" t="s">
+        <v>964</v>
+      </c>
+      <c r="K291" t="s">
+        <v>105</v>
+      </c>
+      <c r="L291" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="M291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>26</v>
+      </c>
+      <c r="B292" t="s">
+        <v>995</v>
+      </c>
+      <c r="C292" t="s">
+        <v>22</v>
+      </c>
+      <c r="D292" t="s">
+        <v>961</v>
+      </c>
+      <c r="E292" t="s">
+        <v>809</v>
+      </c>
+      <c r="F292" t="s">
+        <v>966</v>
+      </c>
+      <c r="G292">
+        <v>11</v>
+      </c>
+      <c r="H292" t="s">
+        <v>994</v>
+      </c>
+      <c r="I292" t="s">
+        <v>22</v>
+      </c>
+      <c r="J292" t="s">
+        <v>967</v>
+      </c>
+      <c r="K292" t="s">
+        <v>213</v>
+      </c>
+      <c r="L292" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="M292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>26</v>
+      </c>
+      <c r="B293" t="s">
+        <v>995</v>
+      </c>
+      <c r="C293" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" t="s">
+        <v>961</v>
+      </c>
+      <c r="E293" t="s">
+        <v>878</v>
+      </c>
+      <c r="F293" t="s">
+        <v>978</v>
+      </c>
+      <c r="G293">
+        <v>11</v>
+      </c>
+      <c r="H293" t="s">
+        <v>994</v>
+      </c>
+      <c r="I293" t="s">
         <v>6</v>
       </c>
-      <c r="D291" t="s">
-        <v>931</v>
-      </c>
-      <c r="E291" t="s">
-        <v>528</v>
-      </c>
-      <c r="F291" t="s">
-        <v>946</v>
-      </c>
-      <c r="G291">
-        <v>11</v>
-      </c>
-      <c r="H291" t="s">
-        <v>994</v>
-      </c>
-      <c r="I291" t="s">
-        <v>46</v>
-      </c>
-      <c r="J291" t="s">
-        <v>947</v>
-      </c>
-      <c r="K291" t="s">
-        <v>58</v>
-      </c>
-      <c r="L291" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="M291" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>195</v>
-      </c>
-      <c r="B292" t="s">
-        <v>931</v>
-      </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="s">
-        <v>931</v>
-      </c>
-      <c r="E292" t="s">
-        <v>953</v>
-      </c>
-      <c r="F292" t="s">
-        <v>954</v>
-      </c>
-      <c r="G292">
-        <v>11</v>
-      </c>
-      <c r="H292" t="s">
-        <v>994</v>
-      </c>
-      <c r="I292" t="s">
-        <v>0</v>
-      </c>
-      <c r="J292" t="s">
-        <v>954</v>
-      </c>
-      <c r="K292" t="s">
-        <v>720</v>
-      </c>
-      <c r="L292" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="M292" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>195</v>
-      </c>
-      <c r="B293" t="s">
-        <v>931</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" t="s">
-        <v>931</v>
-      </c>
-      <c r="E293" t="s">
-        <v>956</v>
-      </c>
-      <c r="F293" t="s">
-        <v>957</v>
-      </c>
-      <c r="G293">
-        <v>11</v>
-      </c>
-      <c r="H293" t="s">
-        <v>994</v>
-      </c>
-      <c r="I293" t="s">
-        <v>550</v>
-      </c>
       <c r="J293" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="K293" t="s">
-        <v>68</v>
+        <v>979</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="M293" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1">
+        <v>26</v>
+      </c>
+      <c r="B294" t="s">
+        <v>995</v>
+      </c>
+      <c r="C294" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294" t="s">
+        <v>961</v>
+      </c>
+      <c r="E294" t="s">
+        <v>973</v>
+      </c>
+      <c r="F294" t="s">
+        <v>974</v>
+      </c>
+      <c r="G294">
+        <v>11</v>
+      </c>
+      <c r="H294" t="s">
+        <v>994</v>
+      </c>
+      <c r="I294" t="s">
         <v>195</v>
       </c>
-      <c r="B294" t="s">
-        <v>931</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" t="s">
-        <v>931</v>
-      </c>
-      <c r="E294" t="s">
-        <v>956</v>
-      </c>
-      <c r="F294" t="s">
-        <v>957</v>
-      </c>
-      <c r="G294">
-        <v>11</v>
-      </c>
-      <c r="H294" t="s">
-        <v>994</v>
-      </c>
-      <c r="I294" t="s">
-        <v>959</v>
-      </c>
       <c r="J294" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="K294" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="M294" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>195</v>
+      <c r="A295" s="1">
+        <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C295" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D295" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E295" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
       <c r="G295">
         <v>11</v>
@@ -15487,39 +15486,39 @@
         <v>994</v>
       </c>
       <c r="I295" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="K295" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
       <c r="M295" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>195</v>
+      <c r="A296" s="1">
+        <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C296" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D296" t="s">
-        <v>935</v>
+        <v>976</v>
       </c>
       <c r="E296" t="s">
-        <v>271</v>
+        <v>860</v>
       </c>
       <c r="F296" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="G296">
         <v>11</v>
@@ -15528,98 +15527,98 @@
         <v>994</v>
       </c>
       <c r="I296" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="J296" t="s">
-        <v>937</v>
+        <v>153</v>
       </c>
       <c r="K296" t="s">
+        <v>34</v>
+      </c>
+      <c r="L296" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>26</v>
+      </c>
+      <c r="B297" t="s">
+        <v>995</v>
+      </c>
+      <c r="C297" t="s">
+        <v>191</v>
+      </c>
+      <c r="D297" t="s">
+        <v>976</v>
+      </c>
+      <c r="E297" t="s">
+        <v>860</v>
+      </c>
+      <c r="F297" t="s">
+        <v>976</v>
+      </c>
+      <c r="G297">
+        <v>11</v>
+      </c>
+      <c r="H297" t="s">
+        <v>994</v>
+      </c>
+      <c r="I297" t="s">
+        <v>834</v>
+      </c>
+      <c r="J297" t="s">
+        <v>977</v>
+      </c>
+      <c r="K297" t="s">
         <v>58</v>
       </c>
-      <c r="L296" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="M296" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>195</v>
-      </c>
-      <c r="B297" t="s">
-        <v>931</v>
-      </c>
-      <c r="C297" t="s">
-        <v>36</v>
-      </c>
-      <c r="D297" t="s">
-        <v>939</v>
-      </c>
-      <c r="E297" t="s">
-        <v>940</v>
-      </c>
-      <c r="F297" t="s">
-        <v>941</v>
-      </c>
-      <c r="G297">
-        <v>11</v>
-      </c>
-      <c r="H297" t="s">
-        <v>994</v>
-      </c>
-      <c r="I297" t="s">
-        <v>6</v>
-      </c>
-      <c r="J297" t="s">
-        <v>942</v>
-      </c>
-      <c r="K297" t="s">
+      <c r="L297" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="M297" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>26</v>
+      </c>
+      <c r="B298" t="s">
+        <v>995</v>
+      </c>
+      <c r="C298" t="s">
+        <v>191</v>
+      </c>
+      <c r="D298" t="s">
+        <v>976</v>
+      </c>
+      <c r="E298" t="s">
+        <v>860</v>
+      </c>
+      <c r="F298" t="s">
+        <v>976</v>
+      </c>
+      <c r="G298">
+        <v>11</v>
+      </c>
+      <c r="H298" t="s">
+        <v>994</v>
+      </c>
+      <c r="I298" t="s">
+        <v>959</v>
+      </c>
+      <c r="J298" t="s">
+        <v>980</v>
+      </c>
+      <c r="K298" t="s">
         <v>34</v>
       </c>
-      <c r="L297" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="M297" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>195</v>
-      </c>
-      <c r="B298" t="s">
-        <v>931</v>
-      </c>
-      <c r="C298" t="s">
-        <v>36</v>
-      </c>
-      <c r="D298" t="s">
-        <v>939</v>
-      </c>
-      <c r="E298" t="s">
-        <v>940</v>
-      </c>
-      <c r="F298" t="s">
-        <v>941</v>
-      </c>
-      <c r="G298">
-        <v>11</v>
-      </c>
-      <c r="H298" t="s">
-        <v>994</v>
-      </c>
-      <c r="I298" t="s">
-        <v>22</v>
-      </c>
-      <c r="J298" t="s">
-        <v>941</v>
-      </c>
-      <c r="K298" t="s">
-        <v>549</v>
-      </c>
       <c r="L298" s="5" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="M298" t="s">
         <v>45</v>

--- a/LookupFiles/Regions_tz.xlsx
+++ b/LookupFiles/Regions_tz.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssbno-my.sharepoint.com/personal/aae_ssb_no/Documents/Documents/GitHub/ENERGY/LookupFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939058E0-BF97-46E8-B917-65D2149311D5}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3660" windowWidth="21600" windowHeight="12735" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark2'!$A$1:$M$303</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1010">
   <si>
     <t>02</t>
   </si>
@@ -3018,6 +3021,48 @@
   </si>
   <si>
     <t>Songwe</t>
+  </si>
+  <si>
+    <t>Oldonyosambu</t>
+  </si>
+  <si>
+    <t>Oldonyowas</t>
+  </si>
+  <si>
+    <t>Sura</t>
+  </si>
+  <si>
+    <t>Olmotonyi</t>
+  </si>
+  <si>
+    <t>Olevolos</t>
+  </si>
+  <si>
+    <t>Juhudi</t>
+  </si>
+  <si>
+    <t>Unga Ltd</t>
+  </si>
+  <si>
+    <t>Osterbay</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Elerai</t>
+  </si>
+  <si>
+    <t>Olmatejo A</t>
+  </si>
+  <si>
+    <t>Olkokola</t>
+  </si>
+  <si>
+    <t>Lengijave</t>
+  </si>
+  <si>
+    <t>Olbak</t>
   </si>
 </sst>
 </file>
@@ -3053,7 +3098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3068,6 +3113,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3382,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AF9C4-3666-48C1-BCA5-6AB22838899C}">
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="C286" workbookViewId="0">
+      <selection activeCell="M296" sqref="M296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15624,8 +15672,225 @@
         <v>45</v>
       </c>
     </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="G299">
+        <v>11</v>
+      </c>
+      <c r="H299" t="s">
+        <v>994</v>
+      </c>
+      <c r="I299" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J299" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="K299" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L299" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="M299" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="G300">
+        <v>11</v>
+      </c>
+      <c r="H300" t="s">
+        <v>994</v>
+      </c>
+      <c r="I300" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J300" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K300" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L300" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G301">
+        <v>11</v>
+      </c>
+      <c r="H301" t="s">
+        <v>994</v>
+      </c>
+      <c r="I301" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J301" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K301" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L301" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G302">
+        <v>11</v>
+      </c>
+      <c r="H302" t="s">
+        <v>994</v>
+      </c>
+      <c r="I302" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J302" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K302" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L302" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G303">
+        <v>11</v>
+      </c>
+      <c r="H303" t="s">
+        <v>994</v>
+      </c>
+      <c r="I303" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J303" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K303" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L303" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" s="6"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="6"/>
+      <c r="K304" s="6"/>
+      <c r="L304" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LookupFiles/Regions_tz.xlsx
+++ b/LookupFiles/Regions_tz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939058E0-BF97-46E8-B917-65D2149311D5}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3584482-BD35-4649-BFC6-7D1E3FB74764}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
   </bookViews>
@@ -26,6 +26,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1009">
   <si>
     <t>02</t>
   </si>
@@ -2520,9 +2522,6 @@
   </si>
   <si>
     <t>Azimio B</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Ayamohe</t>
@@ -3098,7 +3097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3115,7 +3114,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3432,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AF9C4-3666-48C1-BCA5-6AB22838899C}">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C286" workbookViewId="0">
-      <selection activeCell="M296" sqref="M296"/>
+    <sheetView tabSelected="1" topLeftCell="F265" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,49 +3448,48 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>982</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>984</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3518,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -3533,7 +3530,7 @@
         <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3559,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -3574,7 +3571,7 @@
         <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3600,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -3615,7 +3612,7 @@
         <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3641,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -3656,7 +3653,7 @@
         <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -3697,7 +3694,7 @@
         <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3723,7 +3720,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -3738,7 +3735,7 @@
         <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3764,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -3779,7 +3776,7 @@
         <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,7 +3802,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -3820,7 +3817,7 @@
         <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,7 +3843,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3861,7 +3858,7 @@
         <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3887,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -3902,7 +3899,7 @@
         <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3928,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -3943,7 +3940,7 @@
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -3984,7 +3981,7 @@
         <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4010,7 +4007,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -4025,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4051,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -4066,7 +4063,7 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -4107,7 +4104,7 @@
         <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4133,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
@@ -4148,7 +4145,7 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -4189,7 +4186,7 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4215,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -4230,7 +4227,7 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4256,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -4271,7 +4268,7 @@
         <v>61</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4297,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
@@ -4312,7 +4309,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4338,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -4353,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -4394,7 +4391,7 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4420,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -4435,7 +4432,7 @@
         <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4461,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -4476,7 +4473,7 @@
         <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4502,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -4517,7 +4514,7 @@
         <v>121</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4543,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I27" t="s">
         <v>144</v>
@@ -4558,7 +4555,7 @@
         <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4584,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -4599,7 +4596,7 @@
         <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4625,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -4640,7 +4637,7 @@
         <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4666,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -4681,7 +4678,7 @@
         <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4707,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -4722,7 +4719,7 @@
         <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4748,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I32" t="s">
         <v>86</v>
@@ -4763,7 +4760,7 @@
         <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4789,7 +4786,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -4804,7 +4801,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4830,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I34" t="s">
         <v>156</v>
@@ -4845,7 +4842,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4871,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -4886,7 +4883,7 @@
         <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4912,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I36" t="s">
         <v>0</v>
@@ -4927,7 +4924,7 @@
         <v>58</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4953,7 +4950,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
@@ -4968,7 +4965,7 @@
         <v>166</v>
       </c>
       <c r="M37" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -5009,7 +5006,7 @@
         <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5035,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -5050,7 +5047,7 @@
         <v>163</v>
       </c>
       <c r="M39" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5076,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I40" t="s">
         <v>144</v>
@@ -5091,7 +5088,7 @@
         <v>171</v>
       </c>
       <c r="M40" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5117,7 +5114,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -5132,7 +5129,7 @@
         <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5158,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -5173,7 +5170,7 @@
         <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5199,7 +5196,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I43" t="s">
         <v>86</v>
@@ -5214,7 +5211,7 @@
         <v>197</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5240,7 +5237,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I44" t="s">
         <v>199</v>
@@ -5255,7 +5252,7 @@
         <v>200</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5281,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -5296,7 +5293,7 @@
         <v>203</v>
       </c>
       <c r="M45" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5322,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I46" t="s">
         <v>2</v>
@@ -5337,7 +5334,7 @@
         <v>190</v>
       </c>
       <c r="M46" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5363,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -5378,7 +5375,7 @@
         <v>178</v>
       </c>
       <c r="M47" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -5419,7 +5416,7 @@
         <v>204</v>
       </c>
       <c r="M48" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -5460,7 +5457,7 @@
         <v>194</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -5501,7 +5498,7 @@
         <v>212</v>
       </c>
       <c r="M50" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5527,7 +5524,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -5542,7 +5539,7 @@
         <v>257</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5568,7 +5565,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I52" t="s">
         <v>46</v>
@@ -5583,7 +5580,7 @@
         <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -5624,7 +5621,7 @@
         <v>246</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5650,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I54" t="s">
         <v>0</v>
@@ -5665,7 +5662,7 @@
         <v>228</v>
       </c>
       <c r="M54" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5691,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I55" t="s">
         <v>46</v>
@@ -5706,7 +5703,7 @@
         <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5732,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -5747,7 +5744,7 @@
         <v>260</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -5788,7 +5785,7 @@
         <v>233</v>
       </c>
       <c r="M57" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5814,7 +5811,7 @@
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I58" t="s">
         <v>250</v>
@@ -5829,7 +5826,7 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5855,7 +5852,7 @@
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I59" t="s">
         <v>199</v>
@@ -5870,7 +5867,7 @@
         <v>105</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -5911,7 +5908,7 @@
         <v>208</v>
       </c>
       <c r="M60" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -5952,7 +5949,7 @@
         <v>241</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -5993,7 +5990,7 @@
         <v>221</v>
       </c>
       <c r="M62" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -6034,7 +6031,7 @@
         <v>237</v>
       </c>
       <c r="M63" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6060,7 +6057,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -6075,7 +6072,7 @@
         <v>283</v>
       </c>
       <c r="M64" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6101,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
@@ -6116,7 +6113,7 @@
         <v>269</v>
       </c>
       <c r="M65" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6142,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I66" t="s">
         <v>0</v>
@@ -6157,7 +6154,7 @@
         <v>276</v>
       </c>
       <c r="M66" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
@@ -6198,7 +6195,7 @@
         <v>265</v>
       </c>
       <c r="M67" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6224,7 +6221,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -6239,7 +6236,7 @@
         <v>215</v>
       </c>
       <c r="M68" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6265,7 +6262,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I69" t="s">
         <v>2</v>
@@ -6280,7 +6277,7 @@
         <v>289</v>
       </c>
       <c r="M69" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6306,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -6321,7 +6318,7 @@
         <v>281</v>
       </c>
       <c r="M70" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I71" t="s">
         <v>2</v>
@@ -6362,7 +6359,7 @@
         <v>274</v>
       </c>
       <c r="M71" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6388,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I72" t="s">
         <v>0</v>
@@ -6403,7 +6400,7 @@
         <v>293</v>
       </c>
       <c r="M72" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6429,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I73" t="s">
         <v>46</v>
@@ -6444,7 +6441,7 @@
         <v>296</v>
       </c>
       <c r="M73" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I74" t="s">
         <v>46</v>
@@ -6485,7 +6482,7 @@
         <v>300</v>
       </c>
       <c r="M74" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6511,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I75" t="s">
         <v>2</v>
@@ -6526,7 +6523,7 @@
         <v>358</v>
       </c>
       <c r="M75" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6552,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I76" t="s">
         <v>36</v>
@@ -6567,7 +6564,7 @@
         <v>304</v>
       </c>
       <c r="M76" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6593,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -6608,7 +6605,7 @@
         <v>307</v>
       </c>
       <c r="M77" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6634,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I78" t="s">
         <v>0</v>
@@ -6649,7 +6646,7 @@
         <v>309</v>
       </c>
       <c r="M78" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -6675,7 +6672,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
@@ -6690,7 +6687,7 @@
         <v>311</v>
       </c>
       <c r="M79" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6716,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I80" t="s">
         <v>36</v>
@@ -6731,7 +6728,7 @@
         <v>314</v>
       </c>
       <c r="M80" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6757,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
@@ -6772,7 +6769,7 @@
         <v>317</v>
       </c>
       <c r="M81" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I82" t="s">
         <v>86</v>
@@ -6813,7 +6810,7 @@
         <v>320</v>
       </c>
       <c r="M82" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6854,7 +6851,7 @@
         <v>324</v>
       </c>
       <c r="M83" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6880,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6895,7 +6892,7 @@
         <v>328</v>
       </c>
       <c r="M84" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I85" t="s">
         <v>0</v>
@@ -6936,7 +6933,7 @@
         <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6962,7 +6959,7 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I86" t="s">
         <v>2</v>
@@ -6977,7 +6974,7 @@
         <v>334</v>
       </c>
       <c r="M86" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7003,7 +7000,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I87" t="s">
         <v>2</v>
@@ -7018,7 +7015,7 @@
         <v>336</v>
       </c>
       <c r="M87" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7044,7 +7041,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I88" t="s">
         <v>0</v>
@@ -7059,7 +7056,7 @@
         <v>338</v>
       </c>
       <c r="M88" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7085,7 +7082,7 @@
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I89" t="s">
         <v>2</v>
@@ -7100,7 +7097,7 @@
         <v>317</v>
       </c>
       <c r="M89" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7126,7 +7123,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I90" t="s">
         <v>36</v>
@@ -7141,7 +7138,7 @@
         <v>345</v>
       </c>
       <c r="M90" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7167,7 +7164,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I91" t="s">
         <v>86</v>
@@ -7182,7 +7179,7 @@
         <v>347</v>
       </c>
       <c r="M91" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7208,7 +7205,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I92" t="s">
         <v>46</v>
@@ -7223,7 +7220,7 @@
         <v>349</v>
       </c>
       <c r="M92" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7249,7 +7246,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I93" t="s">
         <v>0</v>
@@ -7264,7 +7261,7 @@
         <v>351</v>
       </c>
       <c r="M93" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,7 +7287,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I94" t="s">
         <v>46</v>
@@ -7305,7 +7302,7 @@
         <v>353</v>
       </c>
       <c r="M94" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7331,7 +7328,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
@@ -7346,7 +7343,7 @@
         <v>355</v>
       </c>
       <c r="M95" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7372,7 +7369,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -7387,7 +7384,7 @@
         <v>356</v>
       </c>
       <c r="M96" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7413,7 +7410,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
@@ -7428,7 +7425,7 @@
         <v>367</v>
       </c>
       <c r="M97" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7454,7 +7451,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -7469,7 +7466,7 @@
         <v>384</v>
       </c>
       <c r="M98" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,7 +7492,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I99" t="s">
         <v>36</v>
@@ -7510,7 +7507,7 @@
         <v>371</v>
       </c>
       <c r="M99" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7536,7 +7533,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I100" t="s">
         <v>2</v>
@@ -7551,7 +7548,7 @@
         <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7577,7 +7574,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I101" t="s">
         <v>36</v>
@@ -7592,7 +7589,7 @@
         <v>364</v>
       </c>
       <c r="M101" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -7618,7 +7615,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7633,7 +7630,7 @@
         <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -7659,7 +7656,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I103" t="s">
         <v>46</v>
@@ -7674,7 +7671,7 @@
         <v>374</v>
       </c>
       <c r="M103" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -7700,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
@@ -7715,7 +7712,7 @@
         <v>105</v>
       </c>
       <c r="M104" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7741,7 +7738,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I105" t="s">
         <v>46</v>
@@ -7756,7 +7753,7 @@
         <v>51</v>
       </c>
       <c r="M105" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I106" t="s">
         <v>0</v>
@@ -7797,7 +7794,7 @@
         <v>399</v>
       </c>
       <c r="M106" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7823,7 +7820,7 @@
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I107" t="s">
         <v>36</v>
@@ -7838,7 +7835,7 @@
         <v>351</v>
       </c>
       <c r="M107" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7864,7 +7861,7 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I108" t="s">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>402</v>
       </c>
       <c r="M108" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -7905,7 +7902,7 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I109" t="s">
         <v>86</v>
@@ -7920,7 +7917,7 @@
         <v>402</v>
       </c>
       <c r="M109" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -7946,7 +7943,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I110" t="s">
         <v>144</v>
@@ -7961,7 +7958,7 @@
         <v>140</v>
       </c>
       <c r="M110" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7987,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -8002,7 +7999,7 @@
         <v>394</v>
       </c>
       <c r="M111" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -8028,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I112" t="s">
         <v>6</v>
@@ -8043,7 +8040,7 @@
         <v>419</v>
       </c>
       <c r="M112" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -8069,7 +8066,7 @@
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I113" t="s">
         <v>2</v>
@@ -8084,7 +8081,7 @@
         <v>422</v>
       </c>
       <c r="M113" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -8110,7 +8107,7 @@
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -8125,7 +8122,7 @@
         <v>414</v>
       </c>
       <c r="M114" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -8151,7 +8148,7 @@
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I115" t="s">
         <v>86</v>
@@ -8166,7 +8163,7 @@
         <v>425</v>
       </c>
       <c r="M115" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -8192,7 +8189,7 @@
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I116" t="s">
         <v>0</v>
@@ -8207,7 +8204,7 @@
         <v>405</v>
       </c>
       <c r="M116" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -8233,7 +8230,7 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I117" t="s">
         <v>2</v>
@@ -8248,7 +8245,7 @@
         <v>140</v>
       </c>
       <c r="M117" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -8274,7 +8271,7 @@
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I118" t="s">
         <v>0</v>
@@ -8289,7 +8286,7 @@
         <v>450</v>
       </c>
       <c r="M118" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -8315,7 +8312,7 @@
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I119" t="s">
         <v>6</v>
@@ -8330,7 +8327,7 @@
         <v>439</v>
       </c>
       <c r="M119" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -8356,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I120" t="s">
         <v>6</v>
@@ -8371,7 +8368,7 @@
         <v>433</v>
       </c>
       <c r="M120" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -8397,7 +8394,7 @@
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -8412,7 +8409,7 @@
         <v>431</v>
       </c>
       <c r="M121" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -8438,7 +8435,7 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I122" t="s">
         <v>6</v>
@@ -8453,7 +8450,7 @@
         <v>453</v>
       </c>
       <c r="M122" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -8479,7 +8476,7 @@
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -8494,7 +8491,7 @@
         <v>455</v>
       </c>
       <c r="M123" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -8520,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -8535,7 +8532,7 @@
         <v>458</v>
       </c>
       <c r="M124" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -8561,7 +8558,7 @@
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I125" t="s">
         <v>0</v>
@@ -8576,7 +8573,7 @@
         <v>443</v>
       </c>
       <c r="M125" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -8602,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I126" t="s">
         <v>0</v>
@@ -8617,7 +8614,7 @@
         <v>446</v>
       </c>
       <c r="M126" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -8658,7 +8655,7 @@
         <v>467</v>
       </c>
       <c r="M127" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -8684,7 +8681,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -8699,7 +8696,7 @@
         <v>472</v>
       </c>
       <c r="M128" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8725,7 +8722,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I129" t="s">
         <v>6</v>
@@ -8740,7 +8737,7 @@
         <v>477</v>
       </c>
       <c r="M129" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -8766,7 +8763,7 @@
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I130" t="s">
         <v>2</v>
@@ -8781,7 +8778,7 @@
         <v>469</v>
       </c>
       <c r="M130" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -8807,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I131" t="s">
         <v>46</v>
@@ -8822,7 +8819,7 @@
         <v>463</v>
       </c>
       <c r="M131" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,7 +8845,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I132" t="s">
         <v>46</v>
@@ -8863,7 +8860,7 @@
         <v>480</v>
       </c>
       <c r="M132" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,7 +8886,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I133" t="s">
         <v>191</v>
@@ -8904,7 +8901,7 @@
         <v>482</v>
       </c>
       <c r="M133" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -8930,7 +8927,7 @@
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I134" t="s">
         <v>6</v>
@@ -8945,7 +8942,7 @@
         <v>475</v>
       </c>
       <c r="M134" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8971,7 +8968,7 @@
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I135" t="s">
         <v>2</v>
@@ -8986,7 +8983,7 @@
         <v>485</v>
       </c>
       <c r="M135" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -9012,7 +9009,7 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I136" t="s">
         <v>0</v>
@@ -9027,7 +9024,7 @@
         <v>504</v>
       </c>
       <c r="M136" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -9053,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I137" t="s">
         <v>0</v>
@@ -9068,7 +9065,7 @@
         <v>495</v>
       </c>
       <c r="M137" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -9094,7 +9091,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I138" t="s">
         <v>156</v>
@@ -9109,7 +9106,7 @@
         <v>508</v>
       </c>
       <c r="M138" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -9135,7 +9132,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I139" t="s">
         <v>36</v>
@@ -9150,7 +9147,7 @@
         <v>496</v>
       </c>
       <c r="M139" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -9176,7 +9173,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
@@ -9191,7 +9188,7 @@
         <v>490</v>
       </c>
       <c r="M140" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -9217,7 +9214,7 @@
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I141" t="s">
         <v>0</v>
@@ -9232,7 +9229,7 @@
         <v>506</v>
       </c>
       <c r="M141" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -9258,7 +9255,7 @@
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -9273,7 +9270,7 @@
         <v>501</v>
       </c>
       <c r="M142" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -9299,7 +9296,7 @@
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I143" t="s">
         <v>6</v>
@@ -9314,7 +9311,7 @@
         <v>511</v>
       </c>
       <c r="M143" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -9340,7 +9337,7 @@
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I144" t="s">
         <v>0</v>
@@ -9355,7 +9352,7 @@
         <v>513</v>
       </c>
       <c r="M144" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -9381,7 +9378,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I145" t="s">
         <v>6</v>
@@ -9396,7 +9393,7 @@
         <v>515</v>
       </c>
       <c r="M145" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -9422,7 +9419,7 @@
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I146" t="s">
         <v>36</v>
@@ -9437,7 +9434,7 @@
         <v>517</v>
       </c>
       <c r="M146" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -9463,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I147" t="s">
         <v>0</v>
@@ -9478,7 +9475,7 @@
         <v>533</v>
       </c>
       <c r="M147" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -9504,7 +9501,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I148" t="s">
         <v>0</v>
@@ -9519,7 +9516,7 @@
         <v>522</v>
       </c>
       <c r="M148" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -9545,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I149" t="s">
         <v>0</v>
@@ -9560,7 +9557,7 @@
         <v>540</v>
       </c>
       <c r="M149" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -9586,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I150" t="s">
         <v>6</v>
@@ -9601,7 +9598,7 @@
         <v>317</v>
       </c>
       <c r="M150" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -9627,7 +9624,7 @@
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I151" t="s">
         <v>6</v>
@@ -9642,7 +9639,7 @@
         <v>537</v>
       </c>
       <c r="M151" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -9668,7 +9665,7 @@
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I152" t="s">
         <v>6</v>
@@ -9683,7 +9680,7 @@
         <v>544</v>
       </c>
       <c r="M152" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -9709,7 +9706,7 @@
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I153" t="s">
         <v>36</v>
@@ -9724,7 +9721,7 @@
         <v>548</v>
       </c>
       <c r="M153" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -9750,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I154" t="s">
         <v>6</v>
@@ -9765,7 +9762,7 @@
         <v>526</v>
       </c>
       <c r="M154" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9791,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I155" t="s">
         <v>2</v>
@@ -9806,7 +9803,7 @@
         <v>539</v>
       </c>
       <c r="M155" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -9832,7 +9829,7 @@
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I156" t="s">
         <v>6</v>
@@ -9847,7 +9844,7 @@
         <v>567</v>
       </c>
       <c r="M156" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -9873,7 +9870,7 @@
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -9888,7 +9885,7 @@
         <v>554</v>
       </c>
       <c r="M157" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -9914,7 +9911,7 @@
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I158" t="s">
         <v>0</v>
@@ -9929,7 +9926,7 @@
         <v>578</v>
       </c>
       <c r="M158" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -9955,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I159" t="s">
         <v>2</v>
@@ -9970,7 +9967,7 @@
         <v>571</v>
       </c>
       <c r="M159" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9996,7 +9993,7 @@
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -10011,7 +10008,7 @@
         <v>561</v>
       </c>
       <c r="M160" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -10037,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I161" t="s">
         <v>0</v>
@@ -10052,7 +10049,7 @@
         <v>573</v>
       </c>
       <c r="M161" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -10078,7 +10075,7 @@
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I162" t="s">
         <v>6</v>
@@ -10093,7 +10090,7 @@
         <v>587</v>
       </c>
       <c r="M162" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -10119,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I163" t="s">
         <v>22</v>
@@ -10134,7 +10131,7 @@
         <v>582</v>
       </c>
       <c r="M163" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -10160,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I164" t="s">
         <v>2</v>
@@ -10175,7 +10172,7 @@
         <v>584</v>
       </c>
       <c r="M164" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -10201,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I165" t="s">
         <v>2</v>
@@ -10216,7 +10213,7 @@
         <v>564</v>
       </c>
       <c r="M165" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -10242,7 +10239,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I166" t="s">
         <v>0</v>
@@ -10257,7 +10254,7 @@
         <v>576</v>
       </c>
       <c r="M166" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -10283,7 +10280,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I167" t="s">
         <v>0</v>
@@ -10298,7 +10295,7 @@
         <v>558</v>
       </c>
       <c r="M167" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -10324,7 +10321,7 @@
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I168" t="s">
         <v>36</v>
@@ -10339,7 +10336,7 @@
         <v>583</v>
       </c>
       <c r="M168" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -10365,7 +10362,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I169" t="s">
         <v>22</v>
@@ -10380,7 +10377,7 @@
         <v>596</v>
       </c>
       <c r="M169" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -10406,7 +10403,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I170" t="s">
         <v>36</v>
@@ -10421,7 +10418,7 @@
         <v>90</v>
       </c>
       <c r="M170" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -10447,7 +10444,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -10462,7 +10459,7 @@
         <v>599</v>
       </c>
       <c r="M171" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -10488,7 +10485,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I172" t="s">
         <v>199</v>
@@ -10503,7 +10500,7 @@
         <v>98</v>
       </c>
       <c r="M172" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -10529,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I173" t="s">
         <v>609</v>
@@ -10544,7 +10541,7 @@
         <v>610</v>
       </c>
       <c r="M173" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -10570,7 +10567,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I174" t="s">
         <v>250</v>
@@ -10585,7 +10582,7 @@
         <v>34</v>
       </c>
       <c r="M174" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -10611,7 +10608,7 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I175" t="s">
         <v>0</v>
@@ -10626,7 +10623,7 @@
         <v>603</v>
       </c>
       <c r="M175" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -10652,7 +10649,7 @@
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I176" t="s">
         <v>144</v>
@@ -10667,7 +10664,7 @@
         <v>13</v>
       </c>
       <c r="M176" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -10693,7 +10690,7 @@
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -10708,7 +10705,7 @@
         <v>643</v>
       </c>
       <c r="M177" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -10734,7 +10731,7 @@
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -10749,7 +10746,7 @@
         <v>615</v>
       </c>
       <c r="M178" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -10775,7 +10772,7 @@
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I179" t="s">
         <v>0</v>
@@ -10790,7 +10787,7 @@
         <v>629</v>
       </c>
       <c r="M179" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -10816,7 +10813,7 @@
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -10831,7 +10828,7 @@
         <v>140</v>
       </c>
       <c r="M180" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -10857,7 +10854,7 @@
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I181" t="s">
         <v>0</v>
@@ -10872,7 +10869,7 @@
         <v>98</v>
       </c>
       <c r="M181" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -10898,7 +10895,7 @@
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I182" t="s">
         <v>0</v>
@@ -10913,7 +10910,7 @@
         <v>640</v>
       </c>
       <c r="M182" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -10939,7 +10936,7 @@
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I183" t="s">
         <v>0</v>
@@ -10954,7 +10951,7 @@
         <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -10980,7 +10977,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I184" t="s">
         <v>6</v>
@@ -10995,7 +10992,7 @@
         <v>625</v>
       </c>
       <c r="M184" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -11021,7 +11018,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I185" t="s">
         <v>6</v>
@@ -11036,7 +11033,7 @@
         <v>619</v>
       </c>
       <c r="M185" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -11062,7 +11059,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I186" t="s">
         <v>0</v>
@@ -11077,7 +11074,7 @@
         <v>634</v>
       </c>
       <c r="M186" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -11103,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -11118,7 +11115,7 @@
         <v>622</v>
       </c>
       <c r="M187" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -11144,7 +11141,7 @@
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -11159,7 +11156,7 @@
         <v>666</v>
       </c>
       <c r="M188" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -11185,7 +11182,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I189" t="s">
         <v>0</v>
@@ -11200,7 +11197,7 @@
         <v>651</v>
       </c>
       <c r="M189" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -11226,7 +11223,7 @@
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
@@ -11241,7 +11238,7 @@
         <v>669</v>
       </c>
       <c r="M190" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -11267,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I191" t="s">
         <v>6</v>
@@ -11282,7 +11279,7 @@
         <v>659</v>
       </c>
       <c r="M191" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -11308,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -11323,7 +11320,7 @@
         <v>648</v>
       </c>
       <c r="M192" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -11349,7 +11346,7 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I193" t="s">
         <v>0</v>
@@ -11364,7 +11361,7 @@
         <v>662</v>
       </c>
       <c r="M193" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -11390,7 +11387,7 @@
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I194" t="s">
         <v>2</v>
@@ -11405,7 +11402,7 @@
         <v>655</v>
       </c>
       <c r="M194" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -11431,7 +11428,7 @@
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I195" t="s">
         <v>2</v>
@@ -11446,7 +11443,7 @@
         <v>672</v>
       </c>
       <c r="M195" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -11472,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I196" t="s">
         <v>2</v>
@@ -11487,7 +11484,7 @@
         <v>664</v>
       </c>
       <c r="M196" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -11513,7 +11510,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I197" t="s">
         <v>2</v>
@@ -11528,7 +11525,7 @@
         <v>674</v>
       </c>
       <c r="M197" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -11554,7 +11551,7 @@
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I198" t="s">
         <v>0</v>
@@ -11569,7 +11566,7 @@
         <v>680</v>
       </c>
       <c r="M198" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -11595,7 +11592,7 @@
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I199" t="s">
         <v>6</v>
@@ -11610,7 +11607,7 @@
         <v>702</v>
       </c>
       <c r="M199" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -11636,7 +11633,7 @@
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I200" t="s">
         <v>0</v>
@@ -11651,7 +11648,7 @@
         <v>687</v>
       </c>
       <c r="M200" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -11677,7 +11674,7 @@
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I201" t="s">
         <v>0</v>
@@ -11692,7 +11689,7 @@
         <v>691</v>
       </c>
       <c r="M201" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -11718,7 +11715,7 @@
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -11733,7 +11730,7 @@
         <v>693</v>
       </c>
       <c r="M202" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -11759,7 +11756,7 @@
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I203" t="s">
         <v>2</v>
@@ -11774,7 +11771,7 @@
         <v>705</v>
       </c>
       <c r="M203" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -11800,7 +11797,7 @@
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I204" t="s">
         <v>6</v>
@@ -11815,7 +11812,7 @@
         <v>710</v>
       </c>
       <c r="M204" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -11841,7 +11838,7 @@
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I205" t="s">
         <v>0</v>
@@ -11856,7 +11853,7 @@
         <v>696</v>
       </c>
       <c r="M205" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -11882,7 +11879,7 @@
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -11897,7 +11894,7 @@
         <v>684</v>
       </c>
       <c r="M206" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -11923,7 +11920,7 @@
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I207" t="s">
         <v>0</v>
@@ -11938,7 +11935,7 @@
         <v>708</v>
       </c>
       <c r="M207" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -11964,7 +11961,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -11979,7 +11976,7 @@
         <v>714</v>
       </c>
       <c r="M208" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -12005,7 +12002,7 @@
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I209" t="s">
         <v>6</v>
@@ -12020,7 +12017,7 @@
         <v>716</v>
       </c>
       <c r="M209" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -12046,7 +12043,7 @@
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I210" t="s">
         <v>6</v>
@@ -12061,7 +12058,7 @@
         <v>719</v>
       </c>
       <c r="M210" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -12087,7 +12084,7 @@
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I211" t="s">
         <v>36</v>
@@ -12102,7 +12099,7 @@
         <v>699</v>
       </c>
       <c r="M211" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -12128,7 +12125,7 @@
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I212" t="s">
         <v>36</v>
@@ -12143,7 +12140,7 @@
         <v>449</v>
       </c>
       <c r="M212" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -12169,7 +12166,7 @@
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I213" t="s">
         <v>6</v>
@@ -12184,7 +12181,7 @@
         <v>726</v>
       </c>
       <c r="M213" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,7 +12207,7 @@
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -12225,7 +12222,7 @@
         <v>751</v>
       </c>
       <c r="M214" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -12251,7 +12248,7 @@
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I215" t="s">
         <v>250</v>
@@ -12266,7 +12263,7 @@
         <v>753</v>
       </c>
       <c r="M215" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -12292,7 +12289,7 @@
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
@@ -12307,7 +12304,7 @@
         <v>755</v>
       </c>
       <c r="M216" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -12333,7 +12330,7 @@
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I217" t="s">
         <v>2</v>
@@ -12348,7 +12345,7 @@
         <v>743</v>
       </c>
       <c r="M217" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -12374,7 +12371,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I218" t="s">
         <v>6</v>
@@ -12389,7 +12386,7 @@
         <v>734</v>
       </c>
       <c r="M218" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -12415,7 +12412,7 @@
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -12430,7 +12427,7 @@
         <v>738</v>
       </c>
       <c r="M219" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -12456,7 +12453,7 @@
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I220" t="s">
         <v>6</v>
@@ -12471,7 +12468,7 @@
         <v>746</v>
       </c>
       <c r="M220" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -12497,7 +12494,7 @@
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I221" t="s">
         <v>86</v>
@@ -12512,7 +12509,7 @@
         <v>758</v>
       </c>
       <c r="M221" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -12538,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I222" t="s">
         <v>36</v>
@@ -12553,7 +12550,7 @@
         <v>761</v>
       </c>
       <c r="M222" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -12579,7 +12576,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -12594,7 +12591,7 @@
         <v>741</v>
       </c>
       <c r="M223" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -12620,7 +12617,7 @@
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -12635,7 +12632,7 @@
         <v>763</v>
       </c>
       <c r="M224" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -12661,7 +12658,7 @@
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I225" t="s">
         <v>6</v>
@@ -12676,7 +12673,7 @@
         <v>730</v>
       </c>
       <c r="M225" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -12702,7 +12699,7 @@
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I226" t="s">
         <v>0</v>
@@ -12717,7 +12714,7 @@
         <v>785</v>
       </c>
       <c r="M226" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -12743,7 +12740,7 @@
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I227" t="s">
         <v>2</v>
@@ -12758,7 +12755,7 @@
         <v>773</v>
       </c>
       <c r="M227" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -12784,7 +12781,7 @@
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I228" t="s">
         <v>6</v>
@@ -12799,7 +12796,7 @@
         <v>791</v>
       </c>
       <c r="M228" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -12825,7 +12822,7 @@
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I229" t="s">
         <v>6</v>
@@ -12840,7 +12837,7 @@
         <v>777</v>
       </c>
       <c r="M229" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -12866,7 +12863,7 @@
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I230" t="s">
         <v>0</v>
@@ -12881,7 +12878,7 @@
         <v>769</v>
       </c>
       <c r="M230" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -12907,7 +12904,7 @@
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I231" t="s">
         <v>46</v>
@@ -12922,7 +12919,7 @@
         <v>779</v>
       </c>
       <c r="M231" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -12948,7 +12945,7 @@
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I232" t="s">
         <v>6</v>
@@ -12963,7 +12960,7 @@
         <v>794</v>
       </c>
       <c r="M232" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -12989,7 +12986,7 @@
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I233" t="s">
         <v>2</v>
@@ -13004,7 +13001,7 @@
         <v>799</v>
       </c>
       <c r="M233" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -13030,7 +13027,7 @@
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I234" t="s">
         <v>6</v>
@@ -13045,7 +13042,7 @@
         <v>797</v>
       </c>
       <c r="M234" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -13071,7 +13068,7 @@
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I235" t="s">
         <v>36</v>
@@ -13086,7 +13083,7 @@
         <v>783</v>
       </c>
       <c r="M235" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -13112,7 +13109,7 @@
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I236" t="s">
         <v>6</v>
@@ -13127,7 +13124,7 @@
         <v>789</v>
       </c>
       <c r="M236" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -13153,7 +13150,7 @@
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I237" t="s">
         <v>0</v>
@@ -13168,7 +13165,7 @@
         <v>808</v>
       </c>
       <c r="M237" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -13194,7 +13191,7 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I238" t="s">
         <v>36</v>
@@ -13209,7 +13206,7 @@
         <v>819</v>
       </c>
       <c r="M238" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -13235,7 +13232,7 @@
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I239" t="s">
         <v>2</v>
@@ -13250,7 +13247,7 @@
         <v>812</v>
       </c>
       <c r="M239" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -13276,7 +13273,7 @@
         <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I240" t="s">
         <v>6</v>
@@ -13291,7 +13288,7 @@
         <v>804</v>
       </c>
       <c r="M240" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -13311,28 +13308,28 @@
         <v>294</v>
       </c>
       <c r="F241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G241">
         <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I241" t="s">
         <v>6</v>
       </c>
       <c r="J241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K241" t="s">
         <v>17</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M241" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -13358,7 +13355,7 @@
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I242" t="s">
         <v>6</v>
@@ -13373,7 +13370,7 @@
         <v>822</v>
       </c>
       <c r="M242" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -13399,7 +13396,7 @@
         <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I243" t="s">
         <v>6</v>
@@ -13414,7 +13411,7 @@
         <v>816</v>
       </c>
       <c r="M243" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -13440,7 +13437,7 @@
         <v>11</v>
       </c>
       <c r="H244" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I244" t="s">
         <v>6</v>
@@ -13455,7 +13452,7 @@
         <v>825</v>
       </c>
       <c r="M244" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -13481,7 +13478,7 @@
         <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I245" t="s">
         <v>0</v>
@@ -13496,7 +13493,7 @@
         <v>828</v>
       </c>
       <c r="M245" t="s">
-        <v>829</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -13510,593 +13507,593 @@
         <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E246" t="s">
         <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G246">
         <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I246" t="s">
         <v>46</v>
       </c>
       <c r="J246" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K246" t="s">
         <v>285</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M246" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>833</v>
+      </c>
+      <c r="B247" t="s">
         <v>834</v>
-      </c>
-      <c r="B247" t="s">
-        <v>835</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E247" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G247">
         <v>11</v>
       </c>
       <c r="H247" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I247" t="s">
         <v>144</v>
       </c>
       <c r="J247" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K247" t="s">
         <v>51</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M247" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>833</v>
+      </c>
+      <c r="B248" t="s">
         <v>834</v>
-      </c>
-      <c r="B248" t="s">
-        <v>835</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E248" t="s">
         <v>73</v>
       </c>
       <c r="F248" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G248">
         <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I248" t="s">
         <v>6</v>
       </c>
       <c r="J248" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K248" t="s">
         <v>34</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M248" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>833</v>
+      </c>
+      <c r="B249" t="s">
         <v>834</v>
-      </c>
-      <c r="B249" t="s">
-        <v>835</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E249" t="s">
         <v>411</v>
       </c>
       <c r="F249" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G249">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I249" t="s">
         <v>22</v>
       </c>
       <c r="J249" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K249" t="s">
         <v>58</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M249" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>833</v>
+      </c>
+      <c r="B250" t="s">
         <v>834</v>
-      </c>
-      <c r="B250" t="s">
-        <v>835</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E250" t="s">
         <v>809</v>
       </c>
       <c r="F250" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G250">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I250" t="s">
         <v>6</v>
       </c>
       <c r="J250" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K250" t="s">
         <v>222</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M250" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>833</v>
+      </c>
+      <c r="B251" t="s">
         <v>834</v>
-      </c>
-      <c r="B251" t="s">
-        <v>835</v>
       </c>
       <c r="C251" t="s">
         <v>46</v>
       </c>
       <c r="D251" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E251" t="s">
         <v>359</v>
       </c>
       <c r="F251" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G251">
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I251" t="s">
         <v>36</v>
       </c>
       <c r="J251" t="s">
+        <v>861</v>
+      </c>
+      <c r="K251" t="s">
+        <v>863</v>
+      </c>
+      <c r="L251" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="K251" t="s">
-        <v>864</v>
-      </c>
-      <c r="L251" s="5" t="s">
-        <v>863</v>
-      </c>
       <c r="M251" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>833</v>
+      </c>
+      <c r="B252" t="s">
         <v>834</v>
-      </c>
-      <c r="B252" t="s">
-        <v>835</v>
       </c>
       <c r="C252" t="s">
         <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E252" t="s">
         <v>164</v>
       </c>
       <c r="F252" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G252">
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I252" t="s">
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K252" t="s">
         <v>34</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M252" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>833</v>
+      </c>
+      <c r="B253" t="s">
         <v>834</v>
-      </c>
-      <c r="B253" t="s">
-        <v>835</v>
       </c>
       <c r="C253" t="s">
         <v>46</v>
       </c>
       <c r="D253" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E253" t="s">
         <v>183</v>
       </c>
       <c r="F253" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G253">
         <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I253" t="s">
         <v>6</v>
       </c>
       <c r="J253" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K253" t="s">
         <v>51</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M253" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>833</v>
+      </c>
+      <c r="B254" t="s">
         <v>834</v>
-      </c>
-      <c r="B254" t="s">
-        <v>835</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E254" t="s">
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G254">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I254" t="s">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K254" t="s">
         <v>34</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M254" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>833</v>
+      </c>
+      <c r="B255" t="s">
         <v>834</v>
-      </c>
-      <c r="B255" t="s">
-        <v>835</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E255" t="s">
         <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G255">
         <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I255" t="s">
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K255" t="s">
         <v>290</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M255" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>833</v>
+      </c>
+      <c r="B256" t="s">
         <v>834</v>
-      </c>
-      <c r="B256" t="s">
-        <v>835</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
       </c>
       <c r="D256" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E256" t="s">
         <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G256">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I256" t="s">
         <v>6</v>
       </c>
       <c r="J256" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K256" t="s">
         <v>9</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M256" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>833</v>
+      </c>
+      <c r="B257" t="s">
         <v>834</v>
-      </c>
-      <c r="B257" t="s">
-        <v>835</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E257" t="s">
         <v>143</v>
       </c>
       <c r="F257" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G257">
         <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I257" t="s">
         <v>6</v>
       </c>
       <c r="J257" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K257" t="s">
         <v>222</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M257" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>869</v>
+      </c>
+      <c r="B258" t="s">
         <v>870</v>
-      </c>
-      <c r="B258" t="s">
-        <v>871</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E258" t="s">
         <v>326</v>
       </c>
       <c r="F258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G258">
         <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I258" t="s">
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K258" t="s">
         <v>747</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M258" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>869</v>
+      </c>
+      <c r="B259" t="s">
         <v>870</v>
-      </c>
-      <c r="B259" t="s">
-        <v>871</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E259" t="s">
         <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G259">
         <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I259" t="s">
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K259" t="s">
         <v>34</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M259" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>869</v>
+      </c>
+      <c r="B260" t="s">
         <v>870</v>
-      </c>
-      <c r="B260" t="s">
-        <v>871</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E260" t="s">
         <v>294</v>
       </c>
       <c r="F260" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G260">
         <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I260" t="s">
         <v>46</v>
@@ -14111,244 +14108,244 @@
         <v>666</v>
       </c>
       <c r="M260" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>869</v>
+      </c>
+      <c r="B261" t="s">
         <v>870</v>
-      </c>
-      <c r="B261" t="s">
-        <v>871</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E261" t="s">
         <v>330</v>
       </c>
       <c r="F261" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G261">
         <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I261" t="s">
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K261" t="s">
         <v>58</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M261" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>869</v>
+      </c>
+      <c r="B262" t="s">
         <v>870</v>
-      </c>
-      <c r="B262" t="s">
-        <v>871</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E262" t="s">
         <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G262">
         <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I262" t="s">
         <v>250</v>
       </c>
       <c r="J262" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K262" t="s">
         <v>105</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M262" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>869</v>
+      </c>
+      <c r="B263" t="s">
         <v>870</v>
-      </c>
-      <c r="B263" t="s">
-        <v>871</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E263" t="s">
         <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G263">
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I263" t="s">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K263" t="s">
         <v>51</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M263" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>869</v>
+      </c>
+      <c r="B264" t="s">
         <v>870</v>
-      </c>
-      <c r="B264" t="s">
-        <v>871</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E264" t="s">
         <v>238</v>
       </c>
       <c r="F264" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G264">
         <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I264" t="s">
         <v>6</v>
       </c>
       <c r="J264" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K264" t="s">
         <v>102</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M264" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>869</v>
+      </c>
+      <c r="B265" t="s">
         <v>870</v>
-      </c>
-      <c r="B265" t="s">
-        <v>871</v>
       </c>
       <c r="C265" t="s">
         <v>46</v>
       </c>
       <c r="D265" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E265" t="s">
         <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G265">
         <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I265" t="s">
         <v>46</v>
       </c>
       <c r="J265" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K265" t="s">
         <v>105</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M265" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>869</v>
+      </c>
+      <c r="B266" t="s">
         <v>870</v>
-      </c>
-      <c r="B266" t="s">
-        <v>871</v>
       </c>
       <c r="C266" t="s">
         <v>46</v>
       </c>
       <c r="D266" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E266" t="s">
         <v>278</v>
       </c>
       <c r="F266" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G266">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I266" t="s">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K266" t="s">
         <v>58</v>
@@ -14357,361 +14354,361 @@
         <v>203</v>
       </c>
       <c r="M266" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>869</v>
+      </c>
+      <c r="B267" t="s">
         <v>870</v>
-      </c>
-      <c r="B267" t="s">
-        <v>871</v>
       </c>
       <c r="C267" t="s">
         <v>46</v>
       </c>
       <c r="D267" t="s">
+        <v>876</v>
+      </c>
+      <c r="E267" t="s">
         <v>877</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>878</v>
       </c>
-      <c r="F267" t="s">
-        <v>879</v>
-      </c>
       <c r="G267">
         <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I267" t="s">
         <v>6</v>
       </c>
       <c r="J267" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K267" t="s">
         <v>58</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M267" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>869</v>
+      </c>
+      <c r="B268" t="s">
         <v>870</v>
-      </c>
-      <c r="B268" t="s">
-        <v>871</v>
       </c>
       <c r="C268" t="s">
         <v>46</v>
       </c>
       <c r="D268" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E268" t="s">
         <v>81</v>
       </c>
       <c r="F268" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G268">
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I268" t="s">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K268" t="s">
         <v>17</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M268" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>869</v>
+      </c>
+      <c r="B269" t="s">
         <v>870</v>
-      </c>
-      <c r="B269" t="s">
-        <v>871</v>
       </c>
       <c r="C269" t="s">
         <v>46</v>
       </c>
       <c r="D269" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E269" t="s">
         <v>396</v>
       </c>
       <c r="F269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G269">
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I269" t="s">
         <v>6</v>
       </c>
       <c r="J269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K269" t="s">
         <v>68</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M269" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>900</v>
+      </c>
+      <c r="B270" t="s">
         <v>901</v>
-      </c>
-      <c r="B270" t="s">
-        <v>902</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E270" t="s">
         <v>73</v>
       </c>
       <c r="F270" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G270">
         <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I270" t="s">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K270" t="s">
         <v>17</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M270" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>900</v>
+      </c>
+      <c r="B271" t="s">
         <v>901</v>
-      </c>
-      <c r="B271" t="s">
-        <v>902</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E271" t="s">
         <v>278</v>
       </c>
       <c r="F271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G271">
         <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I271" t="s">
         <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K271" t="s">
         <v>34</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M271" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>900</v>
+      </c>
+      <c r="B272" t="s">
         <v>901</v>
-      </c>
-      <c r="B272" t="s">
-        <v>902</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E272" t="s">
         <v>183</v>
       </c>
       <c r="F272" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G272">
         <v>11</v>
       </c>
       <c r="H272" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I272" t="s">
         <v>36</v>
       </c>
       <c r="J272" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K272" t="s">
         <v>58</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M272" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>900</v>
+      </c>
+      <c r="B273" t="s">
         <v>901</v>
-      </c>
-      <c r="B273" t="s">
-        <v>902</v>
       </c>
       <c r="C273" t="s">
         <v>46</v>
       </c>
       <c r="D273" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E273" t="s">
         <v>59</v>
       </c>
       <c r="F273" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G273">
         <v>11</v>
       </c>
       <c r="H273" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I273" t="s">
         <v>46</v>
       </c>
       <c r="J273" t="s">
+        <v>925</v>
+      </c>
+      <c r="K273" t="s">
+        <v>863</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="K273" t="s">
-        <v>864</v>
-      </c>
-      <c r="L273" s="5" t="s">
-        <v>927</v>
-      </c>
       <c r="M273" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>900</v>
+      </c>
+      <c r="B274" t="s">
         <v>901</v>
-      </c>
-      <c r="B274" t="s">
-        <v>902</v>
       </c>
       <c r="C274" t="s">
         <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E274" t="s">
         <v>81</v>
       </c>
       <c r="F274" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G274">
         <v>11</v>
       </c>
       <c r="H274" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I274" t="s">
         <v>6</v>
       </c>
       <c r="J274" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K274" t="s">
         <v>68</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M274" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>900</v>
+      </c>
+      <c r="B275" t="s">
         <v>901</v>
-      </c>
-      <c r="B275" t="s">
-        <v>902</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E275" t="s">
         <v>164</v>
       </c>
       <c r="F275" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G275">
         <v>11</v>
       </c>
       <c r="H275" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I275" t="s">
         <v>6</v>
@@ -14726,115 +14723,115 @@
         <v>63</v>
       </c>
       <c r="M275" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>900</v>
+      </c>
+      <c r="B276" t="s">
         <v>901</v>
-      </c>
-      <c r="B276" t="s">
-        <v>902</v>
       </c>
       <c r="C276" t="s">
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E276" t="s">
         <v>396</v>
       </c>
       <c r="F276" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G276">
         <v>11</v>
       </c>
       <c r="H276" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I276" t="s">
         <v>46</v>
       </c>
       <c r="J276" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K276" t="s">
         <v>58</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M276" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>900</v>
+      </c>
+      <c r="B277" t="s">
         <v>901</v>
-      </c>
-      <c r="B277" t="s">
-        <v>902</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E277" t="s">
+        <v>927</v>
+      </c>
+      <c r="F277" t="s">
         <v>928</v>
       </c>
-      <c r="F277" t="s">
-        <v>929</v>
-      </c>
       <c r="G277">
         <v>11</v>
       </c>
       <c r="H277" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I277" t="s">
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K277" t="s">
         <v>423</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M277" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>900</v>
+      </c>
+      <c r="B278" t="s">
         <v>901</v>
-      </c>
-      <c r="B278" t="s">
-        <v>902</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
       </c>
       <c r="D278" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E278" t="s">
         <v>168</v>
       </c>
       <c r="F278" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G278">
         <v>11</v>
       </c>
       <c r="H278" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I278" t="s">
         <v>2</v>
@@ -14843,13 +14840,13 @@
         <v>741</v>
       </c>
       <c r="K278" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M278" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -14857,40 +14854,40 @@
         <v>195</v>
       </c>
       <c r="B279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E279" t="s">
         <v>271</v>
       </c>
       <c r="F279" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G279">
         <v>11</v>
       </c>
       <c r="H279" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I279" t="s">
         <v>46</v>
       </c>
       <c r="J279" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K279" t="s">
         <v>105</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M279" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -14898,40 +14895,40 @@
         <v>195</v>
       </c>
       <c r="B280" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E280" t="s">
         <v>271</v>
       </c>
       <c r="F280" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G280">
         <v>11</v>
       </c>
       <c r="H280" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I280" t="s">
         <v>86</v>
       </c>
       <c r="J280" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K280" t="s">
         <v>34</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M280" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -14939,40 +14936,40 @@
         <v>195</v>
       </c>
       <c r="B281" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E281" t="s">
         <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G281">
         <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I281" t="s">
         <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K281" t="s">
         <v>58</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M281" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -14980,40 +14977,40 @@
         <v>195</v>
       </c>
       <c r="B282" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E282" t="s">
+        <v>952</v>
+      </c>
+      <c r="F282" t="s">
         <v>953</v>
       </c>
-      <c r="F282" t="s">
-        <v>954</v>
-      </c>
       <c r="G282">
         <v>11</v>
       </c>
       <c r="H282" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I282" t="s">
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K282" t="s">
         <v>720</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M282" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -15021,40 +15018,40 @@
         <v>195</v>
       </c>
       <c r="B283" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E283" t="s">
+        <v>955</v>
+      </c>
+      <c r="F283" t="s">
         <v>956</v>
       </c>
-      <c r="F283" t="s">
-        <v>957</v>
-      </c>
       <c r="G283">
         <v>11</v>
       </c>
       <c r="H283" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I283" t="s">
         <v>550</v>
       </c>
       <c r="J283" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K283" t="s">
         <v>68</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M283" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -15062,40 +15059,40 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E284" t="s">
+        <v>955</v>
+      </c>
+      <c r="F284" t="s">
         <v>956</v>
       </c>
-      <c r="F284" t="s">
-        <v>957</v>
-      </c>
       <c r="G284">
         <v>11</v>
       </c>
       <c r="H284" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I284" t="s">
+        <v>958</v>
+      </c>
+      <c r="J284" t="s">
         <v>959</v>
-      </c>
-      <c r="J284" t="s">
-        <v>960</v>
       </c>
       <c r="K284" t="s">
         <v>105</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M284" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -15103,40 +15100,40 @@
         <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E285" t="s">
         <v>73</v>
       </c>
       <c r="F285" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G285">
         <v>11</v>
       </c>
       <c r="H285" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I285" t="s">
         <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K285" t="s">
         <v>105</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M285" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -15144,40 +15141,40 @@
         <v>195</v>
       </c>
       <c r="B286" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E286" t="s">
         <v>271</v>
       </c>
       <c r="F286" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G286">
         <v>11</v>
       </c>
       <c r="H286" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I286" t="s">
         <v>36</v>
       </c>
       <c r="J286" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K286" t="s">
         <v>58</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M286" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -15185,40 +15182,40 @@
         <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C287" t="s">
         <v>36</v>
       </c>
       <c r="D287" t="s">
+        <v>938</v>
+      </c>
+      <c r="E287" t="s">
         <v>939</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>940</v>
       </c>
-      <c r="F287" t="s">
-        <v>941</v>
-      </c>
       <c r="G287">
         <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I287" t="s">
         <v>6</v>
       </c>
       <c r="J287" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K287" t="s">
         <v>34</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M287" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -15226,40 +15223,40 @@
         <v>195</v>
       </c>
       <c r="B288" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
       </c>
       <c r="D288" t="s">
+        <v>938</v>
+      </c>
+      <c r="E288" t="s">
         <v>939</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>940</v>
       </c>
-      <c r="F288" t="s">
-        <v>941</v>
-      </c>
       <c r="G288">
         <v>11</v>
       </c>
       <c r="H288" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I288" t="s">
         <v>22</v>
       </c>
       <c r="J288" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K288" t="s">
         <v>549</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M288" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -15267,40 +15264,40 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G289">
         <v>11</v>
       </c>
       <c r="H289" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I289" t="s">
         <v>6</v>
       </c>
       <c r="J289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K289" t="s">
         <v>68</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M289" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -15308,31 +15305,31 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G290">
         <v>11</v>
       </c>
       <c r="H290" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I290" t="s">
         <v>86</v>
       </c>
       <c r="J290" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K290" t="s">
         <v>105</v>
@@ -15341,7 +15338,7 @@
         <v>308</v>
       </c>
       <c r="M290" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -15349,40 +15346,40 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E291" t="s">
         <v>70</v>
       </c>
       <c r="F291" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G291">
         <v>11</v>
       </c>
       <c r="H291" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I291" t="s">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K291" t="s">
         <v>105</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M291" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -15390,40 +15387,40 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
       </c>
       <c r="D292" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E292" t="s">
         <v>809</v>
       </c>
       <c r="F292" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G292">
         <v>11</v>
       </c>
       <c r="H292" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I292" t="s">
         <v>22</v>
       </c>
       <c r="J292" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K292" t="s">
         <v>213</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M292" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -15431,40 +15428,40 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E293" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F293" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G293">
         <v>11</v>
       </c>
       <c r="H293" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I293" t="s">
         <v>6</v>
       </c>
       <c r="J293" t="s">
+        <v>977</v>
+      </c>
+      <c r="K293" t="s">
         <v>978</v>
       </c>
-      <c r="K293" t="s">
-        <v>979</v>
-      </c>
       <c r="L293" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M293" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -15472,40 +15469,40 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C294" t="s">
         <v>22</v>
       </c>
       <c r="D294" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E294" t="s">
+        <v>972</v>
+      </c>
+      <c r="F294" t="s">
         <v>973</v>
       </c>
-      <c r="F294" t="s">
-        <v>974</v>
-      </c>
       <c r="G294">
         <v>11</v>
       </c>
       <c r="H294" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I294" t="s">
         <v>195</v>
       </c>
       <c r="J294" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K294" t="s">
         <v>58</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M294" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -15513,40 +15510,40 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C295" t="s">
         <v>144</v>
       </c>
       <c r="D295" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E295" t="s">
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G295">
         <v>11</v>
       </c>
       <c r="H295" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I295" t="s">
         <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K295" t="s">
         <v>9</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M295" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -15554,25 +15551,25 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C296" t="s">
         <v>191</v>
       </c>
       <c r="D296" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E296" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F296" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G296">
         <v>11</v>
       </c>
       <c r="H296" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I296" t="s">
         <v>156</v>
@@ -15587,7 +15584,7 @@
         <v>153</v>
       </c>
       <c r="M296" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -15595,40 +15592,40 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C297" t="s">
         <v>191</v>
       </c>
       <c r="D297" t="s">
+        <v>975</v>
+      </c>
+      <c r="E297" t="s">
+        <v>859</v>
+      </c>
+      <c r="F297" t="s">
+        <v>975</v>
+      </c>
+      <c r="G297">
+        <v>11</v>
+      </c>
+      <c r="H297" t="s">
+        <v>993</v>
+      </c>
+      <c r="I297" t="s">
+        <v>833</v>
+      </c>
+      <c r="J297" t="s">
         <v>976</v>
-      </c>
-      <c r="E297" t="s">
-        <v>860</v>
-      </c>
-      <c r="F297" t="s">
-        <v>976</v>
-      </c>
-      <c r="G297">
-        <v>11</v>
-      </c>
-      <c r="H297" t="s">
-        <v>994</v>
-      </c>
-      <c r="I297" t="s">
-        <v>834</v>
-      </c>
-      <c r="J297" t="s">
-        <v>977</v>
       </c>
       <c r="K297" t="s">
         <v>58</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M297" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -15636,40 +15633,40 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C298" t="s">
         <v>191</v>
       </c>
       <c r="D298" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E298" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F298" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G298">
         <v>11</v>
       </c>
       <c r="H298" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I298" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J298" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K298" t="s">
         <v>34</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M298" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -15689,28 +15686,28 @@
         <v>13</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G299">
         <v>11</v>
       </c>
       <c r="H299" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I299" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J299" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K299" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="M299" s="8">
-        <v>1</v>
+        <v>997</v>
+      </c>
+      <c r="M299" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -15727,31 +15724,31 @@
         <v>1</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G300">
         <v>11</v>
       </c>
       <c r="H300" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I300" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M300">
-        <v>2</v>
+        <v>1000</v>
+      </c>
+      <c r="M300" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -15771,28 +15768,28 @@
         <v>252</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G301">
         <v>11</v>
       </c>
       <c r="H301" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I301" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J301" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M301">
-        <v>2</v>
+        <v>1002</v>
+      </c>
+      <c r="M301" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -15809,31 +15806,31 @@
         <v>47</v>
       </c>
       <c r="E302" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F302" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="F302" s="6" t="s">
-        <v>1005</v>
-      </c>
       <c r="G302">
         <v>11</v>
       </c>
       <c r="H302" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I302" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J302" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K302" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M302">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="M302" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -15853,28 +15850,28 @@
         <v>19</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G303">
         <v>11</v>
       </c>
       <c r="H303" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I303" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K303" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M303">
-        <v>1</v>
+        <v>1008</v>
+      </c>
+      <c r="M303" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">

--- a/LookupFiles/Regions_tz.xlsx
+++ b/LookupFiles/Regions_tz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3584482-BD35-4649-BFC6-7D1E3FB74764}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{915C3720-EED0-4A77-A09A-1A49D2D96513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12735" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1010">
   <si>
     <t>02</t>
   </si>
@@ -2522,6 +2520,9 @@
   </si>
   <si>
     <t>Azimio B</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Ayamohe</t>
@@ -3097,7 +3098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3114,6 +3115,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3430,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AF9C4-3666-48C1-BCA5-6AB22838899C}">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F265" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,48 +3450,49 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3515,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -3530,7 +3533,7 @@
         <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3556,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -3571,7 +3574,7 @@
         <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3597,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -3612,7 +3615,7 @@
         <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3638,7 +3641,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -3653,7 +3656,7 @@
         <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3679,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -3694,7 +3697,7 @@
         <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3720,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -3735,7 +3738,7 @@
         <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3761,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -3776,7 +3779,7 @@
         <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,7 +3805,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -3817,7 +3820,7 @@
         <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3843,7 +3846,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3858,7 +3861,7 @@
         <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3884,7 +3887,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -3899,7 +3902,7 @@
         <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3925,7 +3928,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -3940,7 +3943,7 @@
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3966,7 +3969,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -3981,7 +3984,7 @@
         <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4007,7 +4010,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -4022,7 +4025,7 @@
         <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4048,7 +4051,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -4063,7 +4066,7 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4089,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -4104,7 +4107,7 @@
         <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4130,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
@@ -4145,7 +4148,7 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4171,7 +4174,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -4186,7 +4189,7 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4212,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -4227,7 +4230,7 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4253,7 +4256,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -4268,7 +4271,7 @@
         <v>61</v>
       </c>
       <c r="M20" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4294,7 +4297,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
@@ -4309,7 +4312,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4335,7 +4338,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -4350,7 +4353,7 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4376,7 +4379,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -4391,7 +4394,7 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4417,7 +4420,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -4432,7 +4435,7 @@
         <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4458,7 +4461,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -4473,7 +4476,7 @@
         <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4499,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -4514,7 +4517,7 @@
         <v>121</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4540,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I27" t="s">
         <v>144</v>
@@ -4555,7 +4558,7 @@
         <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4581,7 +4584,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -4596,7 +4599,7 @@
         <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4622,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -4637,7 +4640,7 @@
         <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4663,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -4678,7 +4681,7 @@
         <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4704,7 +4707,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -4719,7 +4722,7 @@
         <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4745,7 +4748,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I32" t="s">
         <v>86</v>
@@ -4760,7 +4763,7 @@
         <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4786,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -4801,7 +4804,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4827,7 +4830,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I34" t="s">
         <v>156</v>
@@ -4842,7 +4845,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4868,7 +4871,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -4883,7 +4886,7 @@
         <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4909,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I36" t="s">
         <v>0</v>
@@ -4924,7 +4927,7 @@
         <v>58</v>
       </c>
       <c r="M36" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4950,7 +4953,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
@@ -4965,7 +4968,7 @@
         <v>166</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4991,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -5006,7 +5009,7 @@
         <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5032,7 +5035,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -5047,7 +5050,7 @@
         <v>163</v>
       </c>
       <c r="M39" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5073,7 +5076,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I40" t="s">
         <v>144</v>
@@ -5088,7 +5091,7 @@
         <v>171</v>
       </c>
       <c r="M40" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5114,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -5129,7 +5132,7 @@
         <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5155,7 +5158,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -5170,7 +5173,7 @@
         <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5196,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I43" t="s">
         <v>86</v>
@@ -5211,7 +5214,7 @@
         <v>197</v>
       </c>
       <c r="M43" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5237,7 +5240,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I44" t="s">
         <v>199</v>
@@ -5252,7 +5255,7 @@
         <v>200</v>
       </c>
       <c r="M44" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5278,7 +5281,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -5293,7 +5296,7 @@
         <v>203</v>
       </c>
       <c r="M45" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5319,7 +5322,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I46" t="s">
         <v>2</v>
@@ -5334,7 +5337,7 @@
         <v>190</v>
       </c>
       <c r="M46" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5360,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -5375,7 +5378,7 @@
         <v>178</v>
       </c>
       <c r="M47" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5401,7 +5404,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -5416,7 +5419,7 @@
         <v>204</v>
       </c>
       <c r="M48" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5442,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -5457,7 +5460,7 @@
         <v>194</v>
       </c>
       <c r="M49" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5483,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -5498,7 +5501,7 @@
         <v>212</v>
       </c>
       <c r="M50" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5524,7 +5527,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -5539,7 +5542,7 @@
         <v>257</v>
       </c>
       <c r="M51" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5565,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I52" t="s">
         <v>46</v>
@@ -5580,7 +5583,7 @@
         <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5606,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -5621,7 +5624,7 @@
         <v>246</v>
       </c>
       <c r="M53" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5647,7 +5650,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I54" t="s">
         <v>0</v>
@@ -5662,7 +5665,7 @@
         <v>228</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5688,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I55" t="s">
         <v>46</v>
@@ -5703,7 +5706,7 @@
         <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5729,7 +5732,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -5744,7 +5747,7 @@
         <v>260</v>
       </c>
       <c r="M56" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5770,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -5785,7 +5788,7 @@
         <v>233</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5811,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I58" t="s">
         <v>250</v>
@@ -5826,7 +5829,7 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5852,7 +5855,7 @@
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I59" t="s">
         <v>199</v>
@@ -5867,7 +5870,7 @@
         <v>105</v>
       </c>
       <c r="M59" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5893,7 +5896,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -5908,7 +5911,7 @@
         <v>208</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5934,7 +5937,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -5949,7 +5952,7 @@
         <v>241</v>
       </c>
       <c r="M61" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5975,7 +5978,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -5990,7 +5993,7 @@
         <v>221</v>
       </c>
       <c r="M62" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6016,7 +6019,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -6031,7 +6034,7 @@
         <v>237</v>
       </c>
       <c r="M63" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6057,7 +6060,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -6072,7 +6075,7 @@
         <v>283</v>
       </c>
       <c r="M64" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6098,7 +6101,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
@@ -6113,7 +6116,7 @@
         <v>269</v>
       </c>
       <c r="M65" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6139,7 +6142,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I66" t="s">
         <v>0</v>
@@ -6154,7 +6157,7 @@
         <v>276</v>
       </c>
       <c r="M66" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6180,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
@@ -6195,7 +6198,7 @@
         <v>265</v>
       </c>
       <c r="M67" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6221,7 +6224,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -6236,7 +6239,7 @@
         <v>215</v>
       </c>
       <c r="M68" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6262,7 +6265,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I69" t="s">
         <v>2</v>
@@ -6277,7 +6280,7 @@
         <v>289</v>
       </c>
       <c r="M69" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6303,7 +6306,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -6318,7 +6321,7 @@
         <v>281</v>
       </c>
       <c r="M70" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6344,7 +6347,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I71" t="s">
         <v>2</v>
@@ -6359,7 +6362,7 @@
         <v>274</v>
       </c>
       <c r="M71" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6385,7 +6388,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I72" t="s">
         <v>0</v>
@@ -6400,7 +6403,7 @@
         <v>293</v>
       </c>
       <c r="M72" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6426,7 +6429,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I73" t="s">
         <v>46</v>
@@ -6441,7 +6444,7 @@
         <v>296</v>
       </c>
       <c r="M73" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6467,7 +6470,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I74" t="s">
         <v>46</v>
@@ -6482,7 +6485,7 @@
         <v>300</v>
       </c>
       <c r="M74" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6508,7 +6511,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I75" t="s">
         <v>2</v>
@@ -6523,7 +6526,7 @@
         <v>358</v>
       </c>
       <c r="M75" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6549,7 +6552,7 @@
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I76" t="s">
         <v>36</v>
@@ -6564,7 +6567,7 @@
         <v>304</v>
       </c>
       <c r="M76" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6590,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -6605,7 +6608,7 @@
         <v>307</v>
       </c>
       <c r="M77" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6631,7 +6634,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I78" t="s">
         <v>0</v>
@@ -6646,7 +6649,7 @@
         <v>309</v>
       </c>
       <c r="M78" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -6672,7 +6675,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
@@ -6687,7 +6690,7 @@
         <v>311</v>
       </c>
       <c r="M79" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6713,7 +6716,7 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I80" t="s">
         <v>36</v>
@@ -6728,7 +6731,7 @@
         <v>314</v>
       </c>
       <c r="M80" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6754,7 +6757,7 @@
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
@@ -6769,7 +6772,7 @@
         <v>317</v>
       </c>
       <c r="M81" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6795,7 +6798,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I82" t="s">
         <v>86</v>
@@ -6810,7 +6813,7 @@
         <v>320</v>
       </c>
       <c r="M82" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6836,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6851,7 +6854,7 @@
         <v>324</v>
       </c>
       <c r="M83" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6877,7 +6880,7 @@
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6892,7 +6895,7 @@
         <v>328</v>
       </c>
       <c r="M84" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6918,7 +6921,7 @@
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I85" t="s">
         <v>0</v>
@@ -6933,7 +6936,7 @@
         <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6959,7 +6962,7 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I86" t="s">
         <v>2</v>
@@ -6974,7 +6977,7 @@
         <v>334</v>
       </c>
       <c r="M86" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7000,7 +7003,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I87" t="s">
         <v>2</v>
@@ -7015,7 +7018,7 @@
         <v>336</v>
       </c>
       <c r="M87" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7041,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I88" t="s">
         <v>0</v>
@@ -7056,7 +7059,7 @@
         <v>338</v>
       </c>
       <c r="M88" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7082,7 +7085,7 @@
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I89" t="s">
         <v>2</v>
@@ -7097,7 +7100,7 @@
         <v>317</v>
       </c>
       <c r="M89" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7123,7 +7126,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I90" t="s">
         <v>36</v>
@@ -7138,7 +7141,7 @@
         <v>345</v>
       </c>
       <c r="M90" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7164,7 +7167,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I91" t="s">
         <v>86</v>
@@ -7179,7 +7182,7 @@
         <v>347</v>
       </c>
       <c r="M91" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7205,7 +7208,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I92" t="s">
         <v>46</v>
@@ -7220,7 +7223,7 @@
         <v>349</v>
       </c>
       <c r="M92" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7246,7 +7249,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I93" t="s">
         <v>0</v>
@@ -7261,7 +7264,7 @@
         <v>351</v>
       </c>
       <c r="M93" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7287,7 +7290,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I94" t="s">
         <v>46</v>
@@ -7302,7 +7305,7 @@
         <v>353</v>
       </c>
       <c r="M94" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7328,7 +7331,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
@@ -7343,7 +7346,7 @@
         <v>355</v>
       </c>
       <c r="M95" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7369,7 +7372,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -7384,7 +7387,7 @@
         <v>356</v>
       </c>
       <c r="M96" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7410,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
@@ -7425,7 +7428,7 @@
         <v>367</v>
       </c>
       <c r="M97" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7451,7 +7454,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -7466,7 +7469,7 @@
         <v>384</v>
       </c>
       <c r="M98" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7492,7 +7495,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I99" t="s">
         <v>36</v>
@@ -7507,7 +7510,7 @@
         <v>371</v>
       </c>
       <c r="M99" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7533,7 +7536,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I100" t="s">
         <v>2</v>
@@ -7548,7 +7551,7 @@
         <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7574,7 +7577,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I101" t="s">
         <v>36</v>
@@ -7589,7 +7592,7 @@
         <v>364</v>
       </c>
       <c r="M101" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -7615,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7630,7 +7633,7 @@
         <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -7656,7 +7659,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I103" t="s">
         <v>46</v>
@@ -7671,7 +7674,7 @@
         <v>374</v>
       </c>
       <c r="M103" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -7697,7 +7700,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
@@ -7712,7 +7715,7 @@
         <v>105</v>
       </c>
       <c r="M104" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7738,7 +7741,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I105" t="s">
         <v>46</v>
@@ -7753,7 +7756,7 @@
         <v>51</v>
       </c>
       <c r="M105" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -7779,7 +7782,7 @@
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I106" t="s">
         <v>0</v>
@@ -7794,7 +7797,7 @@
         <v>399</v>
       </c>
       <c r="M106" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7820,7 +7823,7 @@
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I107" t="s">
         <v>36</v>
@@ -7835,7 +7838,7 @@
         <v>351</v>
       </c>
       <c r="M107" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7861,7 +7864,7 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I108" t="s">
         <v>0</v>
@@ -7876,7 +7879,7 @@
         <v>402</v>
       </c>
       <c r="M108" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -7902,7 +7905,7 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I109" t="s">
         <v>86</v>
@@ -7917,7 +7920,7 @@
         <v>402</v>
       </c>
       <c r="M109" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -7943,7 +7946,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I110" t="s">
         <v>144</v>
@@ -7958,7 +7961,7 @@
         <v>140</v>
       </c>
       <c r="M110" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7984,7 +7987,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -7999,7 +8002,7 @@
         <v>394</v>
       </c>
       <c r="M111" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -8025,7 +8028,7 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I112" t="s">
         <v>6</v>
@@ -8040,7 +8043,7 @@
         <v>419</v>
       </c>
       <c r="M112" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -8066,7 +8069,7 @@
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I113" t="s">
         <v>2</v>
@@ -8081,7 +8084,7 @@
         <v>422</v>
       </c>
       <c r="M113" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -8107,7 +8110,7 @@
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -8122,7 +8125,7 @@
         <v>414</v>
       </c>
       <c r="M114" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -8148,7 +8151,7 @@
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I115" t="s">
         <v>86</v>
@@ -8163,7 +8166,7 @@
         <v>425</v>
       </c>
       <c r="M115" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -8189,7 +8192,7 @@
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I116" t="s">
         <v>0</v>
@@ -8204,7 +8207,7 @@
         <v>405</v>
       </c>
       <c r="M116" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -8230,7 +8233,7 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I117" t="s">
         <v>2</v>
@@ -8245,7 +8248,7 @@
         <v>140</v>
       </c>
       <c r="M117" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -8271,7 +8274,7 @@
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I118" t="s">
         <v>0</v>
@@ -8286,7 +8289,7 @@
         <v>450</v>
       </c>
       <c r="M118" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -8312,7 +8315,7 @@
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I119" t="s">
         <v>6</v>
@@ -8327,7 +8330,7 @@
         <v>439</v>
       </c>
       <c r="M119" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -8353,7 +8356,7 @@
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I120" t="s">
         <v>6</v>
@@ -8368,7 +8371,7 @@
         <v>433</v>
       </c>
       <c r="M120" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -8394,7 +8397,7 @@
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -8409,7 +8412,7 @@
         <v>431</v>
       </c>
       <c r="M121" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -8435,7 +8438,7 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I122" t="s">
         <v>6</v>
@@ -8450,7 +8453,7 @@
         <v>453</v>
       </c>
       <c r="M122" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -8476,7 +8479,7 @@
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -8491,7 +8494,7 @@
         <v>455</v>
       </c>
       <c r="M123" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -8517,7 +8520,7 @@
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -8532,7 +8535,7 @@
         <v>458</v>
       </c>
       <c r="M124" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -8558,7 +8561,7 @@
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I125" t="s">
         <v>0</v>
@@ -8573,7 +8576,7 @@
         <v>443</v>
       </c>
       <c r="M125" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -8599,7 +8602,7 @@
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I126" t="s">
         <v>0</v>
@@ -8614,7 +8617,7 @@
         <v>446</v>
       </c>
       <c r="M126" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -8640,7 +8643,7 @@
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -8655,7 +8658,7 @@
         <v>467</v>
       </c>
       <c r="M127" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -8681,7 +8684,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -8696,7 +8699,7 @@
         <v>472</v>
       </c>
       <c r="M128" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8722,7 +8725,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I129" t="s">
         <v>6</v>
@@ -8737,7 +8740,7 @@
         <v>477</v>
       </c>
       <c r="M129" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -8763,7 +8766,7 @@
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I130" t="s">
         <v>2</v>
@@ -8778,7 +8781,7 @@
         <v>469</v>
       </c>
       <c r="M130" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -8804,7 +8807,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I131" t="s">
         <v>46</v>
@@ -8819,7 +8822,7 @@
         <v>463</v>
       </c>
       <c r="M131" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -8845,7 +8848,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I132" t="s">
         <v>46</v>
@@ -8860,7 +8863,7 @@
         <v>480</v>
       </c>
       <c r="M132" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -8886,7 +8889,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I133" t="s">
         <v>191</v>
@@ -8901,7 +8904,7 @@
         <v>482</v>
       </c>
       <c r="M133" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -8927,7 +8930,7 @@
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I134" t="s">
         <v>6</v>
@@ -8942,7 +8945,7 @@
         <v>475</v>
       </c>
       <c r="M134" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8968,7 +8971,7 @@
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I135" t="s">
         <v>2</v>
@@ -8983,7 +8986,7 @@
         <v>485</v>
       </c>
       <c r="M135" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -9009,7 +9012,7 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I136" t="s">
         <v>0</v>
@@ -9024,7 +9027,7 @@
         <v>504</v>
       </c>
       <c r="M136" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -9050,7 +9053,7 @@
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I137" t="s">
         <v>0</v>
@@ -9065,7 +9068,7 @@
         <v>495</v>
       </c>
       <c r="M137" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -9091,7 +9094,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I138" t="s">
         <v>156</v>
@@ -9106,7 +9109,7 @@
         <v>508</v>
       </c>
       <c r="M138" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -9132,7 +9135,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I139" t="s">
         <v>36</v>
@@ -9147,7 +9150,7 @@
         <v>496</v>
       </c>
       <c r="M139" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -9173,7 +9176,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
@@ -9188,7 +9191,7 @@
         <v>490</v>
       </c>
       <c r="M140" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -9214,7 +9217,7 @@
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I141" t="s">
         <v>0</v>
@@ -9229,7 +9232,7 @@
         <v>506</v>
       </c>
       <c r="M141" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -9255,7 +9258,7 @@
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -9270,7 +9273,7 @@
         <v>501</v>
       </c>
       <c r="M142" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -9296,7 +9299,7 @@
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I143" t="s">
         <v>6</v>
@@ -9311,7 +9314,7 @@
         <v>511</v>
       </c>
       <c r="M143" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -9337,7 +9340,7 @@
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I144" t="s">
         <v>0</v>
@@ -9352,7 +9355,7 @@
         <v>513</v>
       </c>
       <c r="M144" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -9378,7 +9381,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I145" t="s">
         <v>6</v>
@@ -9393,7 +9396,7 @@
         <v>515</v>
       </c>
       <c r="M145" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -9419,7 +9422,7 @@
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I146" t="s">
         <v>36</v>
@@ -9434,7 +9437,7 @@
         <v>517</v>
       </c>
       <c r="M146" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -9460,7 +9463,7 @@
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I147" t="s">
         <v>0</v>
@@ -9475,7 +9478,7 @@
         <v>533</v>
       </c>
       <c r="M147" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -9501,7 +9504,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I148" t="s">
         <v>0</v>
@@ -9516,7 +9519,7 @@
         <v>522</v>
       </c>
       <c r="M148" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -9542,7 +9545,7 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I149" t="s">
         <v>0</v>
@@ -9557,7 +9560,7 @@
         <v>540</v>
       </c>
       <c r="M149" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -9583,7 +9586,7 @@
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I150" t="s">
         <v>6</v>
@@ -9598,7 +9601,7 @@
         <v>317</v>
       </c>
       <c r="M150" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -9624,7 +9627,7 @@
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I151" t="s">
         <v>6</v>
@@ -9639,7 +9642,7 @@
         <v>537</v>
       </c>
       <c r="M151" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -9665,7 +9668,7 @@
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I152" t="s">
         <v>6</v>
@@ -9680,7 +9683,7 @@
         <v>544</v>
       </c>
       <c r="M152" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -9706,7 +9709,7 @@
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I153" t="s">
         <v>36</v>
@@ -9721,7 +9724,7 @@
         <v>548</v>
       </c>
       <c r="M153" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -9747,7 +9750,7 @@
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I154" t="s">
         <v>6</v>
@@ -9762,7 +9765,7 @@
         <v>526</v>
       </c>
       <c r="M154" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9788,7 +9791,7 @@
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I155" t="s">
         <v>2</v>
@@ -9803,7 +9806,7 @@
         <v>539</v>
       </c>
       <c r="M155" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -9829,7 +9832,7 @@
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I156" t="s">
         <v>6</v>
@@ -9844,7 +9847,7 @@
         <v>567</v>
       </c>
       <c r="M156" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -9870,7 +9873,7 @@
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -9885,7 +9888,7 @@
         <v>554</v>
       </c>
       <c r="M157" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -9911,7 +9914,7 @@
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I158" t="s">
         <v>0</v>
@@ -9926,7 +9929,7 @@
         <v>578</v>
       </c>
       <c r="M158" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -9952,7 +9955,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I159" t="s">
         <v>2</v>
@@ -9967,7 +9970,7 @@
         <v>571</v>
       </c>
       <c r="M159" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9993,7 +9996,7 @@
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -10008,7 +10011,7 @@
         <v>561</v>
       </c>
       <c r="M160" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -10034,7 +10037,7 @@
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I161" t="s">
         <v>0</v>
@@ -10049,7 +10052,7 @@
         <v>573</v>
       </c>
       <c r="M161" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -10075,7 +10078,7 @@
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I162" t="s">
         <v>6</v>
@@ -10090,7 +10093,7 @@
         <v>587</v>
       </c>
       <c r="M162" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -10116,7 +10119,7 @@
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I163" t="s">
         <v>22</v>
@@ -10131,7 +10134,7 @@
         <v>582</v>
       </c>
       <c r="M163" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -10157,7 +10160,7 @@
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I164" t="s">
         <v>2</v>
@@ -10172,7 +10175,7 @@
         <v>584</v>
       </c>
       <c r="M164" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -10198,7 +10201,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I165" t="s">
         <v>2</v>
@@ -10213,7 +10216,7 @@
         <v>564</v>
       </c>
       <c r="M165" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -10239,7 +10242,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I166" t="s">
         <v>0</v>
@@ -10254,7 +10257,7 @@
         <v>576</v>
       </c>
       <c r="M166" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -10280,7 +10283,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I167" t="s">
         <v>0</v>
@@ -10295,7 +10298,7 @@
         <v>558</v>
       </c>
       <c r="M167" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -10321,7 +10324,7 @@
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I168" t="s">
         <v>36</v>
@@ -10336,7 +10339,7 @@
         <v>583</v>
       </c>
       <c r="M168" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -10362,7 +10365,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I169" t="s">
         <v>22</v>
@@ -10377,7 +10380,7 @@
         <v>596</v>
       </c>
       <c r="M169" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -10403,7 +10406,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I170" t="s">
         <v>36</v>
@@ -10418,7 +10421,7 @@
         <v>90</v>
       </c>
       <c r="M170" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -10444,7 +10447,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -10459,7 +10462,7 @@
         <v>599</v>
       </c>
       <c r="M171" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -10485,7 +10488,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I172" t="s">
         <v>199</v>
@@ -10500,7 +10503,7 @@
         <v>98</v>
       </c>
       <c r="M172" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -10526,7 +10529,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I173" t="s">
         <v>609</v>
@@ -10541,7 +10544,7 @@
         <v>610</v>
       </c>
       <c r="M173" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -10567,7 +10570,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I174" t="s">
         <v>250</v>
@@ -10582,7 +10585,7 @@
         <v>34</v>
       </c>
       <c r="M174" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -10608,7 +10611,7 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I175" t="s">
         <v>0</v>
@@ -10623,7 +10626,7 @@
         <v>603</v>
       </c>
       <c r="M175" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -10649,7 +10652,7 @@
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I176" t="s">
         <v>144</v>
@@ -10664,7 +10667,7 @@
         <v>13</v>
       </c>
       <c r="M176" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -10690,7 +10693,7 @@
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -10705,7 +10708,7 @@
         <v>643</v>
       </c>
       <c r="M177" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -10731,7 +10734,7 @@
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -10746,7 +10749,7 @@
         <v>615</v>
       </c>
       <c r="M178" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -10772,7 +10775,7 @@
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I179" t="s">
         <v>0</v>
@@ -10787,7 +10790,7 @@
         <v>629</v>
       </c>
       <c r="M179" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -10813,7 +10816,7 @@
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -10828,7 +10831,7 @@
         <v>140</v>
       </c>
       <c r="M180" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -10854,7 +10857,7 @@
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I181" t="s">
         <v>0</v>
@@ -10869,7 +10872,7 @@
         <v>98</v>
       </c>
       <c r="M181" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -10895,7 +10898,7 @@
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I182" t="s">
         <v>0</v>
@@ -10910,7 +10913,7 @@
         <v>640</v>
       </c>
       <c r="M182" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -10936,7 +10939,7 @@
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I183" t="s">
         <v>0</v>
@@ -10951,7 +10954,7 @@
         <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -10977,7 +10980,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I184" t="s">
         <v>6</v>
@@ -10992,7 +10995,7 @@
         <v>625</v>
       </c>
       <c r="M184" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -11018,7 +11021,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I185" t="s">
         <v>6</v>
@@ -11033,7 +11036,7 @@
         <v>619</v>
       </c>
       <c r="M185" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -11059,7 +11062,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I186" t="s">
         <v>0</v>
@@ -11074,7 +11077,7 @@
         <v>634</v>
       </c>
       <c r="M186" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -11100,7 +11103,7 @@
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -11115,7 +11118,7 @@
         <v>622</v>
       </c>
       <c r="M187" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -11141,7 +11144,7 @@
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -11156,7 +11159,7 @@
         <v>666</v>
       </c>
       <c r="M188" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -11182,7 +11185,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I189" t="s">
         <v>0</v>
@@ -11197,7 +11200,7 @@
         <v>651</v>
       </c>
       <c r="M189" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -11223,7 +11226,7 @@
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
@@ -11238,7 +11241,7 @@
         <v>669</v>
       </c>
       <c r="M190" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -11264,7 +11267,7 @@
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I191" t="s">
         <v>6</v>
@@ -11279,7 +11282,7 @@
         <v>659</v>
       </c>
       <c r="M191" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -11305,7 +11308,7 @@
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -11320,7 +11323,7 @@
         <v>648</v>
       </c>
       <c r="M192" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -11346,7 +11349,7 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I193" t="s">
         <v>0</v>
@@ -11361,7 +11364,7 @@
         <v>662</v>
       </c>
       <c r="M193" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -11387,7 +11390,7 @@
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I194" t="s">
         <v>2</v>
@@ -11402,7 +11405,7 @@
         <v>655</v>
       </c>
       <c r="M194" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -11428,7 +11431,7 @@
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I195" t="s">
         <v>2</v>
@@ -11443,7 +11446,7 @@
         <v>672</v>
       </c>
       <c r="M195" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -11469,7 +11472,7 @@
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I196" t="s">
         <v>2</v>
@@ -11484,7 +11487,7 @@
         <v>664</v>
       </c>
       <c r="M196" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -11510,7 +11513,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I197" t="s">
         <v>2</v>
@@ -11525,7 +11528,7 @@
         <v>674</v>
       </c>
       <c r="M197" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -11551,7 +11554,7 @@
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I198" t="s">
         <v>0</v>
@@ -11566,7 +11569,7 @@
         <v>680</v>
       </c>
       <c r="M198" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -11592,7 +11595,7 @@
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I199" t="s">
         <v>6</v>
@@ -11607,7 +11610,7 @@
         <v>702</v>
       </c>
       <c r="M199" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -11633,7 +11636,7 @@
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I200" t="s">
         <v>0</v>
@@ -11648,7 +11651,7 @@
         <v>687</v>
       </c>
       <c r="M200" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -11674,7 +11677,7 @@
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I201" t="s">
         <v>0</v>
@@ -11689,7 +11692,7 @@
         <v>691</v>
       </c>
       <c r="M201" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -11715,7 +11718,7 @@
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -11730,7 +11733,7 @@
         <v>693</v>
       </c>
       <c r="M202" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -11756,7 +11759,7 @@
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I203" t="s">
         <v>2</v>
@@ -11771,7 +11774,7 @@
         <v>705</v>
       </c>
       <c r="M203" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -11797,7 +11800,7 @@
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I204" t="s">
         <v>6</v>
@@ -11812,7 +11815,7 @@
         <v>710</v>
       </c>
       <c r="M204" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -11838,7 +11841,7 @@
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I205" t="s">
         <v>0</v>
@@ -11853,7 +11856,7 @@
         <v>696</v>
       </c>
       <c r="M205" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -11879,7 +11882,7 @@
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -11894,7 +11897,7 @@
         <v>684</v>
       </c>
       <c r="M206" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -11920,7 +11923,7 @@
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I207" t="s">
         <v>0</v>
@@ -11935,7 +11938,7 @@
         <v>708</v>
       </c>
       <c r="M207" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -11961,7 +11964,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -11976,7 +11979,7 @@
         <v>714</v>
       </c>
       <c r="M208" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -12002,7 +12005,7 @@
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I209" t="s">
         <v>6</v>
@@ -12017,7 +12020,7 @@
         <v>716</v>
       </c>
       <c r="M209" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -12043,7 +12046,7 @@
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I210" t="s">
         <v>6</v>
@@ -12058,7 +12061,7 @@
         <v>719</v>
       </c>
       <c r="M210" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -12084,7 +12087,7 @@
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I211" t="s">
         <v>36</v>
@@ -12099,7 +12102,7 @@
         <v>699</v>
       </c>
       <c r="M211" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -12125,7 +12128,7 @@
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I212" t="s">
         <v>36</v>
@@ -12140,7 +12143,7 @@
         <v>449</v>
       </c>
       <c r="M212" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -12166,7 +12169,7 @@
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I213" t="s">
         <v>6</v>
@@ -12181,7 +12184,7 @@
         <v>726</v>
       </c>
       <c r="M213" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -12207,7 +12210,7 @@
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -12222,7 +12225,7 @@
         <v>751</v>
       </c>
       <c r="M214" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -12248,7 +12251,7 @@
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I215" t="s">
         <v>250</v>
@@ -12263,7 +12266,7 @@
         <v>753</v>
       </c>
       <c r="M215" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -12289,7 +12292,7 @@
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
@@ -12304,7 +12307,7 @@
         <v>755</v>
       </c>
       <c r="M216" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -12330,7 +12333,7 @@
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I217" t="s">
         <v>2</v>
@@ -12345,7 +12348,7 @@
         <v>743</v>
       </c>
       <c r="M217" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -12371,7 +12374,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I218" t="s">
         <v>6</v>
@@ -12386,7 +12389,7 @@
         <v>734</v>
       </c>
       <c r="M218" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -12412,7 +12415,7 @@
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -12427,7 +12430,7 @@
         <v>738</v>
       </c>
       <c r="M219" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -12453,7 +12456,7 @@
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I220" t="s">
         <v>6</v>
@@ -12468,7 +12471,7 @@
         <v>746</v>
       </c>
       <c r="M220" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -12494,7 +12497,7 @@
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I221" t="s">
         <v>86</v>
@@ -12509,7 +12512,7 @@
         <v>758</v>
       </c>
       <c r="M221" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -12535,7 +12538,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I222" t="s">
         <v>36</v>
@@ -12550,7 +12553,7 @@
         <v>761</v>
       </c>
       <c r="M222" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -12576,7 +12579,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -12591,7 +12594,7 @@
         <v>741</v>
       </c>
       <c r="M223" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -12617,7 +12620,7 @@
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -12632,7 +12635,7 @@
         <v>763</v>
       </c>
       <c r="M224" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -12658,7 +12661,7 @@
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I225" t="s">
         <v>6</v>
@@ -12673,7 +12676,7 @@
         <v>730</v>
       </c>
       <c r="M225" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -12699,7 +12702,7 @@
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I226" t="s">
         <v>0</v>
@@ -12714,7 +12717,7 @@
         <v>785</v>
       </c>
       <c r="M226" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -12740,7 +12743,7 @@
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I227" t="s">
         <v>2</v>
@@ -12755,7 +12758,7 @@
         <v>773</v>
       </c>
       <c r="M227" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -12781,7 +12784,7 @@
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I228" t="s">
         <v>6</v>
@@ -12796,7 +12799,7 @@
         <v>791</v>
       </c>
       <c r="M228" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -12822,7 +12825,7 @@
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I229" t="s">
         <v>6</v>
@@ -12837,7 +12840,7 @@
         <v>777</v>
       </c>
       <c r="M229" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -12863,7 +12866,7 @@
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I230" t="s">
         <v>0</v>
@@ -12878,7 +12881,7 @@
         <v>769</v>
       </c>
       <c r="M230" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -12904,7 +12907,7 @@
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I231" t="s">
         <v>46</v>
@@ -12919,7 +12922,7 @@
         <v>779</v>
       </c>
       <c r="M231" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -12945,7 +12948,7 @@
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I232" t="s">
         <v>6</v>
@@ -12960,7 +12963,7 @@
         <v>794</v>
       </c>
       <c r="M232" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -12986,7 +12989,7 @@
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I233" t="s">
         <v>2</v>
@@ -13001,7 +13004,7 @@
         <v>799</v>
       </c>
       <c r="M233" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -13027,7 +13030,7 @@
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I234" t="s">
         <v>6</v>
@@ -13042,7 +13045,7 @@
         <v>797</v>
       </c>
       <c r="M234" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -13068,7 +13071,7 @@
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I235" t="s">
         <v>36</v>
@@ -13083,7 +13086,7 @@
         <v>783</v>
       </c>
       <c r="M235" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -13109,7 +13112,7 @@
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I236" t="s">
         <v>6</v>
@@ -13124,7 +13127,7 @@
         <v>789</v>
       </c>
       <c r="M236" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -13150,7 +13153,7 @@
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I237" t="s">
         <v>0</v>
@@ -13165,7 +13168,7 @@
         <v>808</v>
       </c>
       <c r="M237" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -13191,7 +13194,7 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I238" t="s">
         <v>36</v>
@@ -13206,7 +13209,7 @@
         <v>819</v>
       </c>
       <c r="M238" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -13232,7 +13235,7 @@
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I239" t="s">
         <v>2</v>
@@ -13247,7 +13250,7 @@
         <v>812</v>
       </c>
       <c r="M239" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -13273,7 +13276,7 @@
         <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I240" t="s">
         <v>6</v>
@@ -13288,7 +13291,7 @@
         <v>804</v>
       </c>
       <c r="M240" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -13308,28 +13311,28 @@
         <v>294</v>
       </c>
       <c r="F241" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G241">
         <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I241" t="s">
         <v>6</v>
       </c>
       <c r="J241" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="K241" t="s">
         <v>17</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M241" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -13355,7 +13358,7 @@
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I242" t="s">
         <v>6</v>
@@ -13370,7 +13373,7 @@
         <v>822</v>
       </c>
       <c r="M242" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -13396,7 +13399,7 @@
         <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I243" t="s">
         <v>6</v>
@@ -13411,7 +13414,7 @@
         <v>816</v>
       </c>
       <c r="M243" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -13437,7 +13440,7 @@
         <v>11</v>
       </c>
       <c r="H244" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I244" t="s">
         <v>6</v>
@@ -13452,7 +13455,7 @@
         <v>825</v>
       </c>
       <c r="M244" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -13478,7 +13481,7 @@
         <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I245" t="s">
         <v>0</v>
@@ -13493,7 +13496,7 @@
         <v>828</v>
       </c>
       <c r="M245" t="s">
-        <v>10</v>
+        <v>829</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -13507,593 +13510,593 @@
         <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E246" t="s">
         <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G246">
         <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I246" t="s">
         <v>46</v>
       </c>
       <c r="J246" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K246" t="s">
         <v>285</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M246" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B247" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E247" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F247" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G247">
         <v>11</v>
       </c>
       <c r="H247" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I247" t="s">
         <v>144</v>
       </c>
       <c r="J247" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K247" t="s">
         <v>51</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M247" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B248" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E248" t="s">
         <v>73</v>
       </c>
       <c r="F248" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G248">
         <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I248" t="s">
         <v>6</v>
       </c>
       <c r="J248" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="K248" t="s">
         <v>34</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="M248" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B249" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E249" t="s">
         <v>411</v>
       </c>
       <c r="F249" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G249">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I249" t="s">
         <v>22</v>
       </c>
       <c r="J249" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K249" t="s">
         <v>58</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M249" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B250" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E250" t="s">
         <v>809</v>
       </c>
       <c r="F250" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G250">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I250" t="s">
         <v>6</v>
       </c>
       <c r="J250" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K250" t="s">
         <v>222</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M250" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B251" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C251" t="s">
         <v>46</v>
       </c>
       <c r="D251" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E251" t="s">
         <v>359</v>
       </c>
       <c r="F251" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G251">
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I251" t="s">
         <v>36</v>
       </c>
       <c r="J251" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K251" t="s">
+        <v>864</v>
+      </c>
+      <c r="L251" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="L251" s="5" t="s">
-        <v>862</v>
-      </c>
       <c r="M251" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B252" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C252" t="s">
         <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E252" t="s">
         <v>164</v>
       </c>
       <c r="F252" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G252">
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I252" t="s">
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="K252" t="s">
         <v>34</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M252" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B253" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C253" t="s">
         <v>46</v>
       </c>
       <c r="D253" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E253" t="s">
         <v>183</v>
       </c>
       <c r="F253" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G253">
         <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I253" t="s">
         <v>6</v>
       </c>
       <c r="J253" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K253" t="s">
         <v>51</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M253" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B254" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E254" t="s">
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G254">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I254" t="s">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K254" t="s">
         <v>34</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M254" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B255" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E255" t="s">
         <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G255">
         <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I255" t="s">
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K255" t="s">
         <v>290</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M255" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B256" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
       </c>
       <c r="D256" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E256" t="s">
         <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G256">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I256" t="s">
         <v>6</v>
       </c>
       <c r="J256" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="K256" t="s">
         <v>9</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M256" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B257" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E257" t="s">
         <v>143</v>
       </c>
       <c r="F257" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G257">
         <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I257" t="s">
         <v>6</v>
       </c>
       <c r="J257" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="K257" t="s">
         <v>222</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M257" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B258" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E258" t="s">
         <v>326</v>
       </c>
       <c r="F258" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G258">
         <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I258" t="s">
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="K258" t="s">
         <v>747</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M258" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B259" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E259" t="s">
         <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G259">
         <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I259" t="s">
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="K259" t="s">
         <v>34</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M259" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B260" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E260" t="s">
         <v>294</v>
       </c>
       <c r="F260" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G260">
         <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I260" t="s">
         <v>46</v>
@@ -14108,244 +14111,244 @@
         <v>666</v>
       </c>
       <c r="M260" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B261" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E261" t="s">
         <v>330</v>
       </c>
       <c r="F261" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G261">
         <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I261" t="s">
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K261" t="s">
         <v>58</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M261" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B262" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E262" t="s">
         <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G262">
         <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I262" t="s">
         <v>250</v>
       </c>
       <c r="J262" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K262" t="s">
         <v>105</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M262" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B263" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E263" t="s">
         <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G263">
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I263" t="s">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K263" t="s">
         <v>51</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M263" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B264" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E264" t="s">
         <v>238</v>
       </c>
       <c r="F264" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G264">
         <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I264" t="s">
         <v>6</v>
       </c>
       <c r="J264" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K264" t="s">
         <v>102</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="M264" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B265" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C265" t="s">
         <v>46</v>
       </c>
       <c r="D265" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E265" t="s">
         <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G265">
         <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I265" t="s">
         <v>46</v>
       </c>
       <c r="J265" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="K265" t="s">
         <v>105</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M265" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B266" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C266" t="s">
         <v>46</v>
       </c>
       <c r="D266" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E266" t="s">
         <v>278</v>
       </c>
       <c r="F266" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G266">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I266" t="s">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K266" t="s">
         <v>58</v>
@@ -14354,361 +14357,361 @@
         <v>203</v>
       </c>
       <c r="M266" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B267" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C267" t="s">
         <v>46</v>
       </c>
       <c r="D267" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E267" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F267" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G267">
         <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I267" t="s">
         <v>6</v>
       </c>
       <c r="J267" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K267" t="s">
         <v>58</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M267" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B268" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C268" t="s">
         <v>46</v>
       </c>
       <c r="D268" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E268" t="s">
         <v>81</v>
       </c>
       <c r="F268" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G268">
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I268" t="s">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K268" t="s">
         <v>17</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M268" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B269" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C269" t="s">
         <v>46</v>
       </c>
       <c r="D269" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E269" t="s">
         <v>396</v>
       </c>
       <c r="F269" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G269">
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I269" t="s">
         <v>6</v>
       </c>
       <c r="J269" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K269" t="s">
         <v>68</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M269" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B270" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E270" t="s">
         <v>73</v>
       </c>
       <c r="F270" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G270">
         <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I270" t="s">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K270" t="s">
         <v>17</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M270" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B271" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E271" t="s">
         <v>278</v>
       </c>
       <c r="F271" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G271">
         <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I271" t="s">
         <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K271" t="s">
         <v>34</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M271" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B272" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E272" t="s">
         <v>183</v>
       </c>
       <c r="F272" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G272">
         <v>11</v>
       </c>
       <c r="H272" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I272" t="s">
         <v>36</v>
       </c>
       <c r="J272" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K272" t="s">
         <v>58</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M272" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B273" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C273" t="s">
         <v>46</v>
       </c>
       <c r="D273" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E273" t="s">
         <v>59</v>
       </c>
       <c r="F273" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G273">
         <v>11</v>
       </c>
       <c r="H273" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I273" t="s">
         <v>46</v>
       </c>
       <c r="J273" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K273" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M273" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B274" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C274" t="s">
         <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E274" t="s">
         <v>81</v>
       </c>
       <c r="F274" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G274">
         <v>11</v>
       </c>
       <c r="H274" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I274" t="s">
         <v>6</v>
       </c>
       <c r="J274" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="K274" t="s">
         <v>68</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M274" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B275" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E275" t="s">
         <v>164</v>
       </c>
       <c r="F275" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G275">
         <v>11</v>
       </c>
       <c r="H275" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I275" t="s">
         <v>6</v>
@@ -14723,115 +14726,115 @@
         <v>63</v>
       </c>
       <c r="M275" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B276" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C276" t="s">
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E276" t="s">
         <v>396</v>
       </c>
       <c r="F276" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G276">
         <v>11</v>
       </c>
       <c r="H276" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I276" t="s">
         <v>46</v>
       </c>
       <c r="J276" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="K276" t="s">
         <v>58</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M276" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B277" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E277" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F277" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G277">
         <v>11</v>
       </c>
       <c r="H277" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I277" t="s">
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="K277" t="s">
         <v>423</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M277" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B278" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
       </c>
       <c r="D278" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E278" t="s">
         <v>168</v>
       </c>
       <c r="F278" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G278">
         <v>11</v>
       </c>
       <c r="H278" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I278" t="s">
         <v>2</v>
@@ -14840,13 +14843,13 @@
         <v>741</v>
       </c>
       <c r="K278" t="s">
+        <v>924</v>
+      </c>
+      <c r="L278" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="L278" s="5" t="s">
-        <v>922</v>
-      </c>
       <c r="M278" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -14854,40 +14857,40 @@
         <v>195</v>
       </c>
       <c r="B279" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E279" t="s">
         <v>271</v>
       </c>
       <c r="F279" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G279">
         <v>11</v>
       </c>
       <c r="H279" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I279" t="s">
         <v>46</v>
       </c>
       <c r="J279" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K279" t="s">
         <v>105</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M279" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -14895,40 +14898,40 @@
         <v>195</v>
       </c>
       <c r="B280" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E280" t="s">
         <v>271</v>
       </c>
       <c r="F280" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G280">
         <v>11</v>
       </c>
       <c r="H280" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I280" t="s">
         <v>86</v>
       </c>
       <c r="J280" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="K280" t="s">
         <v>34</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M280" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -14936,40 +14939,40 @@
         <v>195</v>
       </c>
       <c r="B281" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E281" t="s">
         <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G281">
         <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I281" t="s">
         <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="K281" t="s">
         <v>58</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M281" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -14977,40 +14980,40 @@
         <v>195</v>
       </c>
       <c r="B282" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E282" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F282" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G282">
         <v>11</v>
       </c>
       <c r="H282" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I282" t="s">
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K282" t="s">
         <v>720</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M282" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -15018,40 +15021,40 @@
         <v>195</v>
       </c>
       <c r="B283" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E283" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F283" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G283">
         <v>11</v>
       </c>
       <c r="H283" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I283" t="s">
         <v>550</v>
       </c>
       <c r="J283" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="K283" t="s">
         <v>68</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="M283" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -15059,40 +15062,40 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E284" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F284" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G284">
         <v>11</v>
       </c>
       <c r="H284" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I284" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J284" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K284" t="s">
         <v>105</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M284" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -15100,40 +15103,40 @@
         <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E285" t="s">
         <v>73</v>
       </c>
       <c r="F285" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G285">
         <v>11</v>
       </c>
       <c r="H285" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I285" t="s">
         <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="K285" t="s">
         <v>105</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M285" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -15141,40 +15144,40 @@
         <v>195</v>
       </c>
       <c r="B286" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E286" t="s">
         <v>271</v>
       </c>
       <c r="F286" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G286">
         <v>11</v>
       </c>
       <c r="H286" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I286" t="s">
         <v>36</v>
       </c>
       <c r="J286" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="K286" t="s">
         <v>58</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M286" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -15182,40 +15185,40 @@
         <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C287" t="s">
         <v>36</v>
       </c>
       <c r="D287" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E287" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F287" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G287">
         <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I287" t="s">
         <v>6</v>
       </c>
       <c r="J287" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K287" t="s">
         <v>34</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M287" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -15223,40 +15226,40 @@
         <v>195</v>
       </c>
       <c r="B288" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
       </c>
       <c r="D288" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E288" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F288" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G288">
         <v>11</v>
       </c>
       <c r="H288" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I288" t="s">
         <v>22</v>
       </c>
       <c r="J288" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="K288" t="s">
         <v>549</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M288" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -15264,40 +15267,40 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G289">
         <v>11</v>
       </c>
       <c r="H289" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I289" t="s">
         <v>6</v>
       </c>
       <c r="J289" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K289" t="s">
         <v>68</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M289" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -15305,31 +15308,31 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G290">
         <v>11</v>
       </c>
       <c r="H290" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I290" t="s">
         <v>86</v>
       </c>
       <c r="J290" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="K290" t="s">
         <v>105</v>
@@ -15338,7 +15341,7 @@
         <v>308</v>
       </c>
       <c r="M290" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -15346,40 +15349,40 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E291" t="s">
         <v>70</v>
       </c>
       <c r="F291" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G291">
         <v>11</v>
       </c>
       <c r="H291" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I291" t="s">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="K291" t="s">
         <v>105</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M291" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -15387,40 +15390,40 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
       </c>
       <c r="D292" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E292" t="s">
         <v>809</v>
       </c>
       <c r="F292" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G292">
         <v>11</v>
       </c>
       <c r="H292" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I292" t="s">
         <v>22</v>
       </c>
       <c r="J292" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K292" t="s">
         <v>213</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M292" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -15428,40 +15431,40 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E293" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F293" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G293">
         <v>11</v>
       </c>
       <c r="H293" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I293" t="s">
         <v>6</v>
       </c>
       <c r="J293" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="K293" t="s">
+        <v>979</v>
+      </c>
+      <c r="L293" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="L293" s="5" t="s">
-        <v>977</v>
-      </c>
       <c r="M293" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -15469,40 +15472,40 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C294" t="s">
         <v>22</v>
       </c>
       <c r="D294" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E294" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F294" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G294">
         <v>11</v>
       </c>
       <c r="H294" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I294" t="s">
         <v>195</v>
       </c>
       <c r="J294" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="K294" t="s">
         <v>58</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M294" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -15510,40 +15513,40 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C295" t="s">
         <v>144</v>
       </c>
       <c r="D295" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E295" t="s">
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G295">
         <v>11</v>
       </c>
       <c r="H295" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I295" t="s">
         <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K295" t="s">
         <v>9</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M295" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -15551,25 +15554,25 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C296" t="s">
         <v>191</v>
       </c>
       <c r="D296" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E296" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F296" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G296">
         <v>11</v>
       </c>
       <c r="H296" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I296" t="s">
         <v>156</v>
@@ -15584,7 +15587,7 @@
         <v>153</v>
       </c>
       <c r="M296" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -15592,40 +15595,40 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C297" t="s">
         <v>191</v>
       </c>
       <c r="D297" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E297" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F297" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G297">
         <v>11</v>
       </c>
       <c r="H297" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I297" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J297" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K297" t="s">
         <v>58</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="M297" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -15633,40 +15636,40 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C298" t="s">
         <v>191</v>
       </c>
       <c r="D298" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E298" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F298" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G298">
         <v>11</v>
       </c>
       <c r="H298" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I298" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J298" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="K298" t="s">
         <v>34</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M298" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -15686,28 +15689,28 @@
         <v>13</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G299">
         <v>11</v>
       </c>
       <c r="H299" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I299" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J299" s="6" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K299" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="M299" t="s">
-        <v>45</v>
+        <v>998</v>
+      </c>
+      <c r="M299" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -15724,31 +15727,31 @@
         <v>1</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G300">
         <v>11</v>
       </c>
       <c r="H300" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I300" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M300" t="s">
-        <v>10</v>
+        <v>1001</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -15768,28 +15771,28 @@
         <v>252</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G301">
         <v>11</v>
       </c>
       <c r="H301" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I301" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J301" s="6" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M301" t="s">
-        <v>10</v>
+        <v>1003</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -15806,31 +15809,31 @@
         <v>47</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G302">
         <v>11</v>
       </c>
       <c r="H302" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I302" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J302" s="6" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="K302" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M302" t="s">
-        <v>10</v>
+        <v>1006</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -15850,28 +15853,28 @@
         <v>19</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G303">
         <v>11</v>
       </c>
       <c r="H303" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I303" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K303" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M303" t="s">
-        <v>45</v>
+        <v>1009</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">

--- a/LookupFiles/Regions_tz.xlsx
+++ b/LookupFiles/Regions_tz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915C3720-EED0-4A77-A09A-1A49D2D96513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{832B5207-3E78-41AE-9532-5F7BDEC18E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3584482-BD35-4649-BFC6-7D1E3FB74764}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12735" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1009">
   <si>
     <t>02</t>
   </si>
@@ -2520,9 +2522,6 @@
   </si>
   <si>
     <t>Azimio B</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Ayamohe</t>
@@ -3098,7 +3097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3115,7 +3114,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3432,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AF9C4-3666-48C1-BCA5-6AB22838899C}">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="F265" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,49 +3448,48 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>982</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>984</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3518,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -3533,7 +3530,7 @@
         <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3559,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -3574,7 +3571,7 @@
         <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3600,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -3615,7 +3612,7 @@
         <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3641,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -3656,7 +3653,7 @@
         <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -3697,7 +3694,7 @@
         <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3723,7 +3720,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -3738,7 +3735,7 @@
         <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3764,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -3779,7 +3776,7 @@
         <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,7 +3802,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -3820,7 +3817,7 @@
         <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,7 +3843,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3861,7 +3858,7 @@
         <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3887,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -3902,7 +3899,7 @@
         <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3928,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -3943,7 +3940,7 @@
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -3984,7 +3981,7 @@
         <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4010,7 +4007,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -4025,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4051,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -4066,7 +4063,7 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -4107,7 +4104,7 @@
         <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4133,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
@@ -4148,7 +4145,7 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -4189,7 +4186,7 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4215,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -4230,7 +4227,7 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4256,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -4271,7 +4268,7 @@
         <v>61</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4297,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
@@ -4312,7 +4309,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4338,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -4353,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -4394,7 +4391,7 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4420,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -4435,7 +4432,7 @@
         <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4461,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -4476,7 +4473,7 @@
         <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4502,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -4517,7 +4514,7 @@
         <v>121</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4543,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I27" t="s">
         <v>144</v>
@@ -4558,7 +4555,7 @@
         <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4584,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -4599,7 +4596,7 @@
         <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4625,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -4640,7 +4637,7 @@
         <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4666,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -4681,7 +4678,7 @@
         <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4707,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -4722,7 +4719,7 @@
         <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4748,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I32" t="s">
         <v>86</v>
@@ -4763,7 +4760,7 @@
         <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4789,7 +4786,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -4804,7 +4801,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4830,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I34" t="s">
         <v>156</v>
@@ -4845,7 +4842,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4871,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -4886,7 +4883,7 @@
         <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4912,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I36" t="s">
         <v>0</v>
@@ -4927,7 +4924,7 @@
         <v>58</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4953,7 +4950,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
@@ -4968,7 +4965,7 @@
         <v>166</v>
       </c>
       <c r="M37" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -5009,7 +5006,7 @@
         <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5035,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -5050,7 +5047,7 @@
         <v>163</v>
       </c>
       <c r="M39" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5076,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I40" t="s">
         <v>144</v>
@@ -5091,7 +5088,7 @@
         <v>171</v>
       </c>
       <c r="M40" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5117,7 +5114,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -5132,7 +5129,7 @@
         <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5158,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -5173,7 +5170,7 @@
         <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5199,7 +5196,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I43" t="s">
         <v>86</v>
@@ -5214,7 +5211,7 @@
         <v>197</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5240,7 +5237,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I44" t="s">
         <v>199</v>
@@ -5255,7 +5252,7 @@
         <v>200</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5281,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -5296,7 +5293,7 @@
         <v>203</v>
       </c>
       <c r="M45" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5322,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I46" t="s">
         <v>2</v>
@@ -5337,7 +5334,7 @@
         <v>190</v>
       </c>
       <c r="M46" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5363,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -5378,7 +5375,7 @@
         <v>178</v>
       </c>
       <c r="M47" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -5419,7 +5416,7 @@
         <v>204</v>
       </c>
       <c r="M48" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -5460,7 +5457,7 @@
         <v>194</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -5501,7 +5498,7 @@
         <v>212</v>
       </c>
       <c r="M50" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5527,7 +5524,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -5542,7 +5539,7 @@
         <v>257</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5568,7 +5565,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I52" t="s">
         <v>46</v>
@@ -5583,7 +5580,7 @@
         <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -5624,7 +5621,7 @@
         <v>246</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5650,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I54" t="s">
         <v>0</v>
@@ -5665,7 +5662,7 @@
         <v>228</v>
       </c>
       <c r="M54" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5691,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I55" t="s">
         <v>46</v>
@@ -5706,7 +5703,7 @@
         <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5732,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -5747,7 +5744,7 @@
         <v>260</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -5788,7 +5785,7 @@
         <v>233</v>
       </c>
       <c r="M57" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5814,7 +5811,7 @@
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I58" t="s">
         <v>250</v>
@@ -5829,7 +5826,7 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5855,7 +5852,7 @@
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I59" t="s">
         <v>199</v>
@@ -5870,7 +5867,7 @@
         <v>105</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -5911,7 +5908,7 @@
         <v>208</v>
       </c>
       <c r="M60" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -5952,7 +5949,7 @@
         <v>241</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -5993,7 +5990,7 @@
         <v>221</v>
       </c>
       <c r="M62" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -6034,7 +6031,7 @@
         <v>237</v>
       </c>
       <c r="M63" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6060,7 +6057,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -6075,7 +6072,7 @@
         <v>283</v>
       </c>
       <c r="M64" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6101,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
@@ -6116,7 +6113,7 @@
         <v>269</v>
       </c>
       <c r="M65" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6142,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I66" t="s">
         <v>0</v>
@@ -6157,7 +6154,7 @@
         <v>276</v>
       </c>
       <c r="M66" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
@@ -6198,7 +6195,7 @@
         <v>265</v>
       </c>
       <c r="M67" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6224,7 +6221,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -6239,7 +6236,7 @@
         <v>215</v>
       </c>
       <c r="M68" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6265,7 +6262,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I69" t="s">
         <v>2</v>
@@ -6280,7 +6277,7 @@
         <v>289</v>
       </c>
       <c r="M69" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6306,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -6321,7 +6318,7 @@
         <v>281</v>
       </c>
       <c r="M70" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I71" t="s">
         <v>2</v>
@@ -6362,7 +6359,7 @@
         <v>274</v>
       </c>
       <c r="M71" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6388,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I72" t="s">
         <v>0</v>
@@ -6403,7 +6400,7 @@
         <v>293</v>
       </c>
       <c r="M72" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6429,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I73" t="s">
         <v>46</v>
@@ -6444,7 +6441,7 @@
         <v>296</v>
       </c>
       <c r="M73" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I74" t="s">
         <v>46</v>
@@ -6485,7 +6482,7 @@
         <v>300</v>
       </c>
       <c r="M74" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6511,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I75" t="s">
         <v>2</v>
@@ -6526,7 +6523,7 @@
         <v>358</v>
       </c>
       <c r="M75" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6552,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I76" t="s">
         <v>36</v>
@@ -6567,7 +6564,7 @@
         <v>304</v>
       </c>
       <c r="M76" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6593,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -6608,7 +6605,7 @@
         <v>307</v>
       </c>
       <c r="M77" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6634,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I78" t="s">
         <v>0</v>
@@ -6649,7 +6646,7 @@
         <v>309</v>
       </c>
       <c r="M78" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -6675,7 +6672,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
@@ -6690,7 +6687,7 @@
         <v>311</v>
       </c>
       <c r="M79" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6716,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I80" t="s">
         <v>36</v>
@@ -6731,7 +6728,7 @@
         <v>314</v>
       </c>
       <c r="M80" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6757,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
@@ -6772,7 +6769,7 @@
         <v>317</v>
       </c>
       <c r="M81" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I82" t="s">
         <v>86</v>
@@ -6813,7 +6810,7 @@
         <v>320</v>
       </c>
       <c r="M82" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6854,7 +6851,7 @@
         <v>324</v>
       </c>
       <c r="M83" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6880,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6895,7 +6892,7 @@
         <v>328</v>
       </c>
       <c r="M84" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I85" t="s">
         <v>0</v>
@@ -6936,7 +6933,7 @@
         <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6962,7 +6959,7 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I86" t="s">
         <v>2</v>
@@ -6977,7 +6974,7 @@
         <v>334</v>
       </c>
       <c r="M86" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7003,7 +7000,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I87" t="s">
         <v>2</v>
@@ -7018,7 +7015,7 @@
         <v>336</v>
       </c>
       <c r="M87" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7044,7 +7041,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I88" t="s">
         <v>0</v>
@@ -7059,7 +7056,7 @@
         <v>338</v>
       </c>
       <c r="M88" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7085,7 +7082,7 @@
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I89" t="s">
         <v>2</v>
@@ -7100,7 +7097,7 @@
         <v>317</v>
       </c>
       <c r="M89" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7126,7 +7123,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I90" t="s">
         <v>36</v>
@@ -7141,7 +7138,7 @@
         <v>345</v>
       </c>
       <c r="M90" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7167,7 +7164,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I91" t="s">
         <v>86</v>
@@ -7182,7 +7179,7 @@
         <v>347</v>
       </c>
       <c r="M91" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7208,7 +7205,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I92" t="s">
         <v>46</v>
@@ -7223,7 +7220,7 @@
         <v>349</v>
       </c>
       <c r="M92" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7249,7 +7246,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I93" t="s">
         <v>0</v>
@@ -7264,7 +7261,7 @@
         <v>351</v>
       </c>
       <c r="M93" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,7 +7287,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I94" t="s">
         <v>46</v>
@@ -7305,7 +7302,7 @@
         <v>353</v>
       </c>
       <c r="M94" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7331,7 +7328,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
@@ -7346,7 +7343,7 @@
         <v>355</v>
       </c>
       <c r="M95" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7372,7 +7369,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -7387,7 +7384,7 @@
         <v>356</v>
       </c>
       <c r="M96" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7413,7 +7410,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
@@ -7428,7 +7425,7 @@
         <v>367</v>
       </c>
       <c r="M97" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7454,7 +7451,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -7469,7 +7466,7 @@
         <v>384</v>
       </c>
       <c r="M98" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,7 +7492,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I99" t="s">
         <v>36</v>
@@ -7510,7 +7507,7 @@
         <v>371</v>
       </c>
       <c r="M99" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7536,7 +7533,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I100" t="s">
         <v>2</v>
@@ -7551,7 +7548,7 @@
         <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7577,7 +7574,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I101" t="s">
         <v>36</v>
@@ -7592,7 +7589,7 @@
         <v>364</v>
       </c>
       <c r="M101" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -7618,7 +7615,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7633,7 +7630,7 @@
         <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -7659,7 +7656,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I103" t="s">
         <v>46</v>
@@ -7674,7 +7671,7 @@
         <v>374</v>
       </c>
       <c r="M103" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -7700,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
@@ -7715,7 +7712,7 @@
         <v>105</v>
       </c>
       <c r="M104" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7741,7 +7738,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I105" t="s">
         <v>46</v>
@@ -7756,7 +7753,7 @@
         <v>51</v>
       </c>
       <c r="M105" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I106" t="s">
         <v>0</v>
@@ -7797,7 +7794,7 @@
         <v>399</v>
       </c>
       <c r="M106" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7823,7 +7820,7 @@
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I107" t="s">
         <v>36</v>
@@ -7838,7 +7835,7 @@
         <v>351</v>
       </c>
       <c r="M107" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7864,7 +7861,7 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I108" t="s">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>402</v>
       </c>
       <c r="M108" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -7905,7 +7902,7 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I109" t="s">
         <v>86</v>
@@ -7920,7 +7917,7 @@
         <v>402</v>
       </c>
       <c r="M109" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -7946,7 +7943,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I110" t="s">
         <v>144</v>
@@ -7961,7 +7958,7 @@
         <v>140</v>
       </c>
       <c r="M110" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7987,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -8002,7 +7999,7 @@
         <v>394</v>
       </c>
       <c r="M111" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -8028,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I112" t="s">
         <v>6</v>
@@ -8043,7 +8040,7 @@
         <v>419</v>
       </c>
       <c r="M112" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -8069,7 +8066,7 @@
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I113" t="s">
         <v>2</v>
@@ -8084,7 +8081,7 @@
         <v>422</v>
       </c>
       <c r="M113" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -8110,7 +8107,7 @@
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -8125,7 +8122,7 @@
         <v>414</v>
       </c>
       <c r="M114" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -8151,7 +8148,7 @@
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I115" t="s">
         <v>86</v>
@@ -8166,7 +8163,7 @@
         <v>425</v>
       </c>
       <c r="M115" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -8192,7 +8189,7 @@
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I116" t="s">
         <v>0</v>
@@ -8207,7 +8204,7 @@
         <v>405</v>
       </c>
       <c r="M116" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -8233,7 +8230,7 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I117" t="s">
         <v>2</v>
@@ -8248,7 +8245,7 @@
         <v>140</v>
       </c>
       <c r="M117" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -8274,7 +8271,7 @@
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I118" t="s">
         <v>0</v>
@@ -8289,7 +8286,7 @@
         <v>450</v>
       </c>
       <c r="M118" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -8315,7 +8312,7 @@
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I119" t="s">
         <v>6</v>
@@ -8330,7 +8327,7 @@
         <v>439</v>
       </c>
       <c r="M119" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -8356,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I120" t="s">
         <v>6</v>
@@ -8371,7 +8368,7 @@
         <v>433</v>
       </c>
       <c r="M120" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -8397,7 +8394,7 @@
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -8412,7 +8409,7 @@
         <v>431</v>
       </c>
       <c r="M121" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -8438,7 +8435,7 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I122" t="s">
         <v>6</v>
@@ -8453,7 +8450,7 @@
         <v>453</v>
       </c>
       <c r="M122" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -8479,7 +8476,7 @@
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -8494,7 +8491,7 @@
         <v>455</v>
       </c>
       <c r="M123" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -8520,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -8535,7 +8532,7 @@
         <v>458</v>
       </c>
       <c r="M124" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -8561,7 +8558,7 @@
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I125" t="s">
         <v>0</v>
@@ -8576,7 +8573,7 @@
         <v>443</v>
       </c>
       <c r="M125" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -8602,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I126" t="s">
         <v>0</v>
@@ -8617,7 +8614,7 @@
         <v>446</v>
       </c>
       <c r="M126" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -8658,7 +8655,7 @@
         <v>467</v>
       </c>
       <c r="M127" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -8684,7 +8681,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -8699,7 +8696,7 @@
         <v>472</v>
       </c>
       <c r="M128" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8725,7 +8722,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I129" t="s">
         <v>6</v>
@@ -8740,7 +8737,7 @@
         <v>477</v>
       </c>
       <c r="M129" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -8766,7 +8763,7 @@
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I130" t="s">
         <v>2</v>
@@ -8781,7 +8778,7 @@
         <v>469</v>
       </c>
       <c r="M130" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -8807,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I131" t="s">
         <v>46</v>
@@ -8822,7 +8819,7 @@
         <v>463</v>
       </c>
       <c r="M131" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,7 +8845,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I132" t="s">
         <v>46</v>
@@ -8863,7 +8860,7 @@
         <v>480</v>
       </c>
       <c r="M132" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,7 +8886,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I133" t="s">
         <v>191</v>
@@ -8904,7 +8901,7 @@
         <v>482</v>
       </c>
       <c r="M133" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -8930,7 +8927,7 @@
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I134" t="s">
         <v>6</v>
@@ -8945,7 +8942,7 @@
         <v>475</v>
       </c>
       <c r="M134" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8971,7 +8968,7 @@
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I135" t="s">
         <v>2</v>
@@ -8986,7 +8983,7 @@
         <v>485</v>
       </c>
       <c r="M135" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -9012,7 +9009,7 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I136" t="s">
         <v>0</v>
@@ -9027,7 +9024,7 @@
         <v>504</v>
       </c>
       <c r="M136" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -9053,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I137" t="s">
         <v>0</v>
@@ -9068,7 +9065,7 @@
         <v>495</v>
       </c>
       <c r="M137" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -9094,7 +9091,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I138" t="s">
         <v>156</v>
@@ -9109,7 +9106,7 @@
         <v>508</v>
       </c>
       <c r="M138" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -9135,7 +9132,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I139" t="s">
         <v>36</v>
@@ -9150,7 +9147,7 @@
         <v>496</v>
       </c>
       <c r="M139" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -9176,7 +9173,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
@@ -9191,7 +9188,7 @@
         <v>490</v>
       </c>
       <c r="M140" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -9217,7 +9214,7 @@
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I141" t="s">
         <v>0</v>
@@ -9232,7 +9229,7 @@
         <v>506</v>
       </c>
       <c r="M141" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -9258,7 +9255,7 @@
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -9273,7 +9270,7 @@
         <v>501</v>
       </c>
       <c r="M142" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -9299,7 +9296,7 @@
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I143" t="s">
         <v>6</v>
@@ -9314,7 +9311,7 @@
         <v>511</v>
       </c>
       <c r="M143" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -9340,7 +9337,7 @@
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I144" t="s">
         <v>0</v>
@@ -9355,7 +9352,7 @@
         <v>513</v>
       </c>
       <c r="M144" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -9381,7 +9378,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I145" t="s">
         <v>6</v>
@@ -9396,7 +9393,7 @@
         <v>515</v>
       </c>
       <c r="M145" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -9422,7 +9419,7 @@
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I146" t="s">
         <v>36</v>
@@ -9437,7 +9434,7 @@
         <v>517</v>
       </c>
       <c r="M146" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -9463,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I147" t="s">
         <v>0</v>
@@ -9478,7 +9475,7 @@
         <v>533</v>
       </c>
       <c r="M147" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -9504,7 +9501,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I148" t="s">
         <v>0</v>
@@ -9519,7 +9516,7 @@
         <v>522</v>
       </c>
       <c r="M148" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -9545,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I149" t="s">
         <v>0</v>
@@ -9560,7 +9557,7 @@
         <v>540</v>
       </c>
       <c r="M149" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -9586,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I150" t="s">
         <v>6</v>
@@ -9601,7 +9598,7 @@
         <v>317</v>
       </c>
       <c r="M150" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -9627,7 +9624,7 @@
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I151" t="s">
         <v>6</v>
@@ -9642,7 +9639,7 @@
         <v>537</v>
       </c>
       <c r="M151" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -9668,7 +9665,7 @@
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I152" t="s">
         <v>6</v>
@@ -9683,7 +9680,7 @@
         <v>544</v>
       </c>
       <c r="M152" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -9709,7 +9706,7 @@
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I153" t="s">
         <v>36</v>
@@ -9724,7 +9721,7 @@
         <v>548</v>
       </c>
       <c r="M153" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -9750,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I154" t="s">
         <v>6</v>
@@ -9765,7 +9762,7 @@
         <v>526</v>
       </c>
       <c r="M154" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9791,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I155" t="s">
         <v>2</v>
@@ -9806,7 +9803,7 @@
         <v>539</v>
       </c>
       <c r="M155" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -9832,7 +9829,7 @@
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I156" t="s">
         <v>6</v>
@@ -9847,7 +9844,7 @@
         <v>567</v>
       </c>
       <c r="M156" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -9873,7 +9870,7 @@
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -9888,7 +9885,7 @@
         <v>554</v>
       </c>
       <c r="M157" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -9914,7 +9911,7 @@
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I158" t="s">
         <v>0</v>
@@ -9929,7 +9926,7 @@
         <v>578</v>
       </c>
       <c r="M158" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -9955,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I159" t="s">
         <v>2</v>
@@ -9970,7 +9967,7 @@
         <v>571</v>
       </c>
       <c r="M159" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9996,7 +9993,7 @@
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -10011,7 +10008,7 @@
         <v>561</v>
       </c>
       <c r="M160" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -10037,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I161" t="s">
         <v>0</v>
@@ -10052,7 +10049,7 @@
         <v>573</v>
       </c>
       <c r="M161" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -10078,7 +10075,7 @@
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I162" t="s">
         <v>6</v>
@@ -10093,7 +10090,7 @@
         <v>587</v>
       </c>
       <c r="M162" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -10119,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I163" t="s">
         <v>22</v>
@@ -10134,7 +10131,7 @@
         <v>582</v>
       </c>
       <c r="M163" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -10160,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I164" t="s">
         <v>2</v>
@@ -10175,7 +10172,7 @@
         <v>584</v>
       </c>
       <c r="M164" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -10201,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I165" t="s">
         <v>2</v>
@@ -10216,7 +10213,7 @@
         <v>564</v>
       </c>
       <c r="M165" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -10242,7 +10239,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I166" t="s">
         <v>0</v>
@@ -10257,7 +10254,7 @@
         <v>576</v>
       </c>
       <c r="M166" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -10283,7 +10280,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I167" t="s">
         <v>0</v>
@@ -10298,7 +10295,7 @@
         <v>558</v>
       </c>
       <c r="M167" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -10324,7 +10321,7 @@
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I168" t="s">
         <v>36</v>
@@ -10339,7 +10336,7 @@
         <v>583</v>
       </c>
       <c r="M168" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -10365,7 +10362,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I169" t="s">
         <v>22</v>
@@ -10380,7 +10377,7 @@
         <v>596</v>
       </c>
       <c r="M169" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -10406,7 +10403,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I170" t="s">
         <v>36</v>
@@ -10421,7 +10418,7 @@
         <v>90</v>
       </c>
       <c r="M170" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -10447,7 +10444,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -10462,7 +10459,7 @@
         <v>599</v>
       </c>
       <c r="M171" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -10488,7 +10485,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I172" t="s">
         <v>199</v>
@@ -10503,7 +10500,7 @@
         <v>98</v>
       </c>
       <c r="M172" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -10529,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I173" t="s">
         <v>609</v>
@@ -10544,7 +10541,7 @@
         <v>610</v>
       </c>
       <c r="M173" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -10570,7 +10567,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I174" t="s">
         <v>250</v>
@@ -10585,7 +10582,7 @@
         <v>34</v>
       </c>
       <c r="M174" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -10611,7 +10608,7 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I175" t="s">
         <v>0</v>
@@ -10626,7 +10623,7 @@
         <v>603</v>
       </c>
       <c r="M175" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -10652,7 +10649,7 @@
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I176" t="s">
         <v>144</v>
@@ -10667,7 +10664,7 @@
         <v>13</v>
       </c>
       <c r="M176" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -10693,7 +10690,7 @@
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -10708,7 +10705,7 @@
         <v>643</v>
       </c>
       <c r="M177" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -10734,7 +10731,7 @@
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -10749,7 +10746,7 @@
         <v>615</v>
       </c>
       <c r="M178" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -10775,7 +10772,7 @@
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I179" t="s">
         <v>0</v>
@@ -10790,7 +10787,7 @@
         <v>629</v>
       </c>
       <c r="M179" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -10816,7 +10813,7 @@
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -10831,7 +10828,7 @@
         <v>140</v>
       </c>
       <c r="M180" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -10857,7 +10854,7 @@
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I181" t="s">
         <v>0</v>
@@ -10872,7 +10869,7 @@
         <v>98</v>
       </c>
       <c r="M181" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -10898,7 +10895,7 @@
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I182" t="s">
         <v>0</v>
@@ -10913,7 +10910,7 @@
         <v>640</v>
       </c>
       <c r="M182" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -10939,7 +10936,7 @@
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I183" t="s">
         <v>0</v>
@@ -10954,7 +10951,7 @@
         <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -10980,7 +10977,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I184" t="s">
         <v>6</v>
@@ -10995,7 +10992,7 @@
         <v>625</v>
       </c>
       <c r="M184" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -11021,7 +11018,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I185" t="s">
         <v>6</v>
@@ -11036,7 +11033,7 @@
         <v>619</v>
       </c>
       <c r="M185" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -11062,7 +11059,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I186" t="s">
         <v>0</v>
@@ -11077,7 +11074,7 @@
         <v>634</v>
       </c>
       <c r="M186" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -11103,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -11118,7 +11115,7 @@
         <v>622</v>
       </c>
       <c r="M187" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -11144,7 +11141,7 @@
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -11159,7 +11156,7 @@
         <v>666</v>
       </c>
       <c r="M188" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -11185,7 +11182,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I189" t="s">
         <v>0</v>
@@ -11200,7 +11197,7 @@
         <v>651</v>
       </c>
       <c r="M189" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -11226,7 +11223,7 @@
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
@@ -11241,7 +11238,7 @@
         <v>669</v>
       </c>
       <c r="M190" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -11267,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I191" t="s">
         <v>6</v>
@@ -11282,7 +11279,7 @@
         <v>659</v>
       </c>
       <c r="M191" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -11308,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -11323,7 +11320,7 @@
         <v>648</v>
       </c>
       <c r="M192" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -11349,7 +11346,7 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I193" t="s">
         <v>0</v>
@@ -11364,7 +11361,7 @@
         <v>662</v>
       </c>
       <c r="M193" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -11390,7 +11387,7 @@
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I194" t="s">
         <v>2</v>
@@ -11405,7 +11402,7 @@
         <v>655</v>
       </c>
       <c r="M194" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -11431,7 +11428,7 @@
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I195" t="s">
         <v>2</v>
@@ -11446,7 +11443,7 @@
         <v>672</v>
       </c>
       <c r="M195" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -11472,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I196" t="s">
         <v>2</v>
@@ -11487,7 +11484,7 @@
         <v>664</v>
       </c>
       <c r="M196" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -11513,7 +11510,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I197" t="s">
         <v>2</v>
@@ -11528,7 +11525,7 @@
         <v>674</v>
       </c>
       <c r="M197" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -11554,7 +11551,7 @@
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I198" t="s">
         <v>0</v>
@@ -11569,7 +11566,7 @@
         <v>680</v>
       </c>
       <c r="M198" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -11595,7 +11592,7 @@
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I199" t="s">
         <v>6</v>
@@ -11610,7 +11607,7 @@
         <v>702</v>
       </c>
       <c r="M199" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -11636,7 +11633,7 @@
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I200" t="s">
         <v>0</v>
@@ -11651,7 +11648,7 @@
         <v>687</v>
       </c>
       <c r="M200" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -11677,7 +11674,7 @@
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I201" t="s">
         <v>0</v>
@@ -11692,7 +11689,7 @@
         <v>691</v>
       </c>
       <c r="M201" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -11718,7 +11715,7 @@
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -11733,7 +11730,7 @@
         <v>693</v>
       </c>
       <c r="M202" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -11759,7 +11756,7 @@
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I203" t="s">
         <v>2</v>
@@ -11774,7 +11771,7 @@
         <v>705</v>
       </c>
       <c r="M203" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -11800,7 +11797,7 @@
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I204" t="s">
         <v>6</v>
@@ -11815,7 +11812,7 @@
         <v>710</v>
       </c>
       <c r="M204" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -11841,7 +11838,7 @@
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I205" t="s">
         <v>0</v>
@@ -11856,7 +11853,7 @@
         <v>696</v>
       </c>
       <c r="M205" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -11882,7 +11879,7 @@
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -11897,7 +11894,7 @@
         <v>684</v>
       </c>
       <c r="M206" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -11923,7 +11920,7 @@
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I207" t="s">
         <v>0</v>
@@ -11938,7 +11935,7 @@
         <v>708</v>
       </c>
       <c r="M207" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -11964,7 +11961,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -11979,7 +11976,7 @@
         <v>714</v>
       </c>
       <c r="M208" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -12005,7 +12002,7 @@
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I209" t="s">
         <v>6</v>
@@ -12020,7 +12017,7 @@
         <v>716</v>
       </c>
       <c r="M209" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -12046,7 +12043,7 @@
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I210" t="s">
         <v>6</v>
@@ -12061,7 +12058,7 @@
         <v>719</v>
       </c>
       <c r="M210" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -12087,7 +12084,7 @@
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I211" t="s">
         <v>36</v>
@@ -12102,7 +12099,7 @@
         <v>699</v>
       </c>
       <c r="M211" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -12128,7 +12125,7 @@
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I212" t="s">
         <v>36</v>
@@ -12143,7 +12140,7 @@
         <v>449</v>
       </c>
       <c r="M212" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -12169,7 +12166,7 @@
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I213" t="s">
         <v>6</v>
@@ -12184,7 +12181,7 @@
         <v>726</v>
       </c>
       <c r="M213" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,7 +12207,7 @@
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -12225,7 +12222,7 @@
         <v>751</v>
       </c>
       <c r="M214" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -12251,7 +12248,7 @@
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I215" t="s">
         <v>250</v>
@@ -12266,7 +12263,7 @@
         <v>753</v>
       </c>
       <c r="M215" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -12292,7 +12289,7 @@
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
@@ -12307,7 +12304,7 @@
         <v>755</v>
       </c>
       <c r="M216" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -12333,7 +12330,7 @@
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I217" t="s">
         <v>2</v>
@@ -12348,7 +12345,7 @@
         <v>743</v>
       </c>
       <c r="M217" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -12374,7 +12371,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I218" t="s">
         <v>6</v>
@@ -12389,7 +12386,7 @@
         <v>734</v>
       </c>
       <c r="M218" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -12415,7 +12412,7 @@
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -12430,7 +12427,7 @@
         <v>738</v>
       </c>
       <c r="M219" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -12456,7 +12453,7 @@
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I220" t="s">
         <v>6</v>
@@ -12471,7 +12468,7 @@
         <v>746</v>
       </c>
       <c r="M220" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -12497,7 +12494,7 @@
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I221" t="s">
         <v>86</v>
@@ -12512,7 +12509,7 @@
         <v>758</v>
       </c>
       <c r="M221" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -12538,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I222" t="s">
         <v>36</v>
@@ -12553,7 +12550,7 @@
         <v>761</v>
       </c>
       <c r="M222" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -12579,7 +12576,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -12594,7 +12591,7 @@
         <v>741</v>
       </c>
       <c r="M223" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -12620,7 +12617,7 @@
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -12635,7 +12632,7 @@
         <v>763</v>
       </c>
       <c r="M224" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -12661,7 +12658,7 @@
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I225" t="s">
         <v>6</v>
@@ -12676,7 +12673,7 @@
         <v>730</v>
       </c>
       <c r="M225" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -12702,7 +12699,7 @@
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I226" t="s">
         <v>0</v>
@@ -12717,7 +12714,7 @@
         <v>785</v>
       </c>
       <c r="M226" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -12743,7 +12740,7 @@
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I227" t="s">
         <v>2</v>
@@ -12758,7 +12755,7 @@
         <v>773</v>
       </c>
       <c r="M227" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -12784,7 +12781,7 @@
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I228" t="s">
         <v>6</v>
@@ -12799,7 +12796,7 @@
         <v>791</v>
       </c>
       <c r="M228" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -12825,7 +12822,7 @@
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I229" t="s">
         <v>6</v>
@@ -12840,7 +12837,7 @@
         <v>777</v>
       </c>
       <c r="M229" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -12866,7 +12863,7 @@
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I230" t="s">
         <v>0</v>
@@ -12881,7 +12878,7 @@
         <v>769</v>
       </c>
       <c r="M230" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -12907,7 +12904,7 @@
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I231" t="s">
         <v>46</v>
@@ -12922,7 +12919,7 @@
         <v>779</v>
       </c>
       <c r="M231" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -12948,7 +12945,7 @@
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I232" t="s">
         <v>6</v>
@@ -12963,7 +12960,7 @@
         <v>794</v>
       </c>
       <c r="M232" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -12989,7 +12986,7 @@
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I233" t="s">
         <v>2</v>
@@ -13004,7 +13001,7 @@
         <v>799</v>
       </c>
       <c r="M233" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -13030,7 +13027,7 @@
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I234" t="s">
         <v>6</v>
@@ -13045,7 +13042,7 @@
         <v>797</v>
       </c>
       <c r="M234" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -13071,7 +13068,7 @@
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I235" t="s">
         <v>36</v>
@@ -13086,7 +13083,7 @@
         <v>783</v>
       </c>
       <c r="M235" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -13112,7 +13109,7 @@
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I236" t="s">
         <v>6</v>
@@ -13127,7 +13124,7 @@
         <v>789</v>
       </c>
       <c r="M236" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -13153,7 +13150,7 @@
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I237" t="s">
         <v>0</v>
@@ -13168,7 +13165,7 @@
         <v>808</v>
       </c>
       <c r="M237" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -13194,7 +13191,7 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I238" t="s">
         <v>36</v>
@@ -13209,7 +13206,7 @@
         <v>819</v>
       </c>
       <c r="M238" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -13235,7 +13232,7 @@
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I239" t="s">
         <v>2</v>
@@ -13250,7 +13247,7 @@
         <v>812</v>
       </c>
       <c r="M239" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -13276,7 +13273,7 @@
         <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I240" t="s">
         <v>6</v>
@@ -13291,7 +13288,7 @@
         <v>804</v>
       </c>
       <c r="M240" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -13311,28 +13308,28 @@
         <v>294</v>
       </c>
       <c r="F241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G241">
         <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I241" t="s">
         <v>6</v>
       </c>
       <c r="J241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K241" t="s">
         <v>17</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M241" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -13358,7 +13355,7 @@
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I242" t="s">
         <v>6</v>
@@ -13373,7 +13370,7 @@
         <v>822</v>
       </c>
       <c r="M242" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -13399,7 +13396,7 @@
         <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I243" t="s">
         <v>6</v>
@@ -13414,7 +13411,7 @@
         <v>816</v>
       </c>
       <c r="M243" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -13440,7 +13437,7 @@
         <v>11</v>
       </c>
       <c r="H244" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I244" t="s">
         <v>6</v>
@@ -13455,7 +13452,7 @@
         <v>825</v>
       </c>
       <c r="M244" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -13481,7 +13478,7 @@
         <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I245" t="s">
         <v>0</v>
@@ -13496,7 +13493,7 @@
         <v>828</v>
       </c>
       <c r="M245" t="s">
-        <v>829</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -13510,593 +13507,593 @@
         <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E246" t="s">
         <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G246">
         <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I246" t="s">
         <v>46</v>
       </c>
       <c r="J246" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K246" t="s">
         <v>285</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M246" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>833</v>
+      </c>
+      <c r="B247" t="s">
         <v>834</v>
-      </c>
-      <c r="B247" t="s">
-        <v>835</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E247" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G247">
         <v>11</v>
       </c>
       <c r="H247" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I247" t="s">
         <v>144</v>
       </c>
       <c r="J247" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K247" t="s">
         <v>51</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M247" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>833</v>
+      </c>
+      <c r="B248" t="s">
         <v>834</v>
-      </c>
-      <c r="B248" t="s">
-        <v>835</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E248" t="s">
         <v>73</v>
       </c>
       <c r="F248" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G248">
         <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I248" t="s">
         <v>6</v>
       </c>
       <c r="J248" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K248" t="s">
         <v>34</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M248" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>833</v>
+      </c>
+      <c r="B249" t="s">
         <v>834</v>
-      </c>
-      <c r="B249" t="s">
-        <v>835</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E249" t="s">
         <v>411</v>
       </c>
       <c r="F249" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G249">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I249" t="s">
         <v>22</v>
       </c>
       <c r="J249" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K249" t="s">
         <v>58</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M249" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>833</v>
+      </c>
+      <c r="B250" t="s">
         <v>834</v>
-      </c>
-      <c r="B250" t="s">
-        <v>835</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E250" t="s">
         <v>809</v>
       </c>
       <c r="F250" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G250">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I250" t="s">
         <v>6</v>
       </c>
       <c r="J250" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K250" t="s">
         <v>222</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M250" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>833</v>
+      </c>
+      <c r="B251" t="s">
         <v>834</v>
-      </c>
-      <c r="B251" t="s">
-        <v>835</v>
       </c>
       <c r="C251" t="s">
         <v>46</v>
       </c>
       <c r="D251" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E251" t="s">
         <v>359</v>
       </c>
       <c r="F251" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G251">
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I251" t="s">
         <v>36</v>
       </c>
       <c r="J251" t="s">
+        <v>861</v>
+      </c>
+      <c r="K251" t="s">
+        <v>863</v>
+      </c>
+      <c r="L251" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="K251" t="s">
-        <v>864</v>
-      </c>
-      <c r="L251" s="5" t="s">
-        <v>863</v>
-      </c>
       <c r="M251" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>833</v>
+      </c>
+      <c r="B252" t="s">
         <v>834</v>
-      </c>
-      <c r="B252" t="s">
-        <v>835</v>
       </c>
       <c r="C252" t="s">
         <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E252" t="s">
         <v>164</v>
       </c>
       <c r="F252" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G252">
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I252" t="s">
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K252" t="s">
         <v>34</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M252" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>833</v>
+      </c>
+      <c r="B253" t="s">
         <v>834</v>
-      </c>
-      <c r="B253" t="s">
-        <v>835</v>
       </c>
       <c r="C253" t="s">
         <v>46</v>
       </c>
       <c r="D253" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E253" t="s">
         <v>183</v>
       </c>
       <c r="F253" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G253">
         <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I253" t="s">
         <v>6</v>
       </c>
       <c r="J253" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K253" t="s">
         <v>51</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M253" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>833</v>
+      </c>
+      <c r="B254" t="s">
         <v>834</v>
-      </c>
-      <c r="B254" t="s">
-        <v>835</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E254" t="s">
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G254">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I254" t="s">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K254" t="s">
         <v>34</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M254" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>833</v>
+      </c>
+      <c r="B255" t="s">
         <v>834</v>
-      </c>
-      <c r="B255" t="s">
-        <v>835</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E255" t="s">
         <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G255">
         <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I255" t="s">
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K255" t="s">
         <v>290</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M255" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>833</v>
+      </c>
+      <c r="B256" t="s">
         <v>834</v>
-      </c>
-      <c r="B256" t="s">
-        <v>835</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
       </c>
       <c r="D256" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E256" t="s">
         <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G256">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I256" t="s">
         <v>6</v>
       </c>
       <c r="J256" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K256" t="s">
         <v>9</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M256" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>833</v>
+      </c>
+      <c r="B257" t="s">
         <v>834</v>
-      </c>
-      <c r="B257" t="s">
-        <v>835</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E257" t="s">
         <v>143</v>
       </c>
       <c r="F257" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G257">
         <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I257" t="s">
         <v>6</v>
       </c>
       <c r="J257" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K257" t="s">
         <v>222</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M257" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>869</v>
+      </c>
+      <c r="B258" t="s">
         <v>870</v>
-      </c>
-      <c r="B258" t="s">
-        <v>871</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E258" t="s">
         <v>326</v>
       </c>
       <c r="F258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G258">
         <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I258" t="s">
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K258" t="s">
         <v>747</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M258" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>869</v>
+      </c>
+      <c r="B259" t="s">
         <v>870</v>
-      </c>
-      <c r="B259" t="s">
-        <v>871</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E259" t="s">
         <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G259">
         <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I259" t="s">
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K259" t="s">
         <v>34</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M259" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>869</v>
+      </c>
+      <c r="B260" t="s">
         <v>870</v>
-      </c>
-      <c r="B260" t="s">
-        <v>871</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E260" t="s">
         <v>294</v>
       </c>
       <c r="F260" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G260">
         <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I260" t="s">
         <v>46</v>
@@ -14111,244 +14108,244 @@
         <v>666</v>
       </c>
       <c r="M260" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>869</v>
+      </c>
+      <c r="B261" t="s">
         <v>870</v>
-      </c>
-      <c r="B261" t="s">
-        <v>871</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E261" t="s">
         <v>330</v>
       </c>
       <c r="F261" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G261">
         <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I261" t="s">
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K261" t="s">
         <v>58</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M261" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>869</v>
+      </c>
+      <c r="B262" t="s">
         <v>870</v>
-      </c>
-      <c r="B262" t="s">
-        <v>871</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E262" t="s">
         <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G262">
         <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I262" t="s">
         <v>250</v>
       </c>
       <c r="J262" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K262" t="s">
         <v>105</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M262" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>869</v>
+      </c>
+      <c r="B263" t="s">
         <v>870</v>
-      </c>
-      <c r="B263" t="s">
-        <v>871</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E263" t="s">
         <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G263">
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I263" t="s">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K263" t="s">
         <v>51</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M263" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>869</v>
+      </c>
+      <c r="B264" t="s">
         <v>870</v>
-      </c>
-      <c r="B264" t="s">
-        <v>871</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E264" t="s">
         <v>238</v>
       </c>
       <c r="F264" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G264">
         <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I264" t="s">
         <v>6</v>
       </c>
       <c r="J264" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K264" t="s">
         <v>102</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M264" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>869</v>
+      </c>
+      <c r="B265" t="s">
         <v>870</v>
-      </c>
-      <c r="B265" t="s">
-        <v>871</v>
       </c>
       <c r="C265" t="s">
         <v>46</v>
       </c>
       <c r="D265" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E265" t="s">
         <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G265">
         <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I265" t="s">
         <v>46</v>
       </c>
       <c r="J265" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K265" t="s">
         <v>105</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M265" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>869</v>
+      </c>
+      <c r="B266" t="s">
         <v>870</v>
-      </c>
-      <c r="B266" t="s">
-        <v>871</v>
       </c>
       <c r="C266" t="s">
         <v>46</v>
       </c>
       <c r="D266" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E266" t="s">
         <v>278</v>
       </c>
       <c r="F266" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G266">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I266" t="s">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K266" t="s">
         <v>58</v>
@@ -14357,361 +14354,361 @@
         <v>203</v>
       </c>
       <c r="M266" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>869</v>
+      </c>
+      <c r="B267" t="s">
         <v>870</v>
-      </c>
-      <c r="B267" t="s">
-        <v>871</v>
       </c>
       <c r="C267" t="s">
         <v>46</v>
       </c>
       <c r="D267" t="s">
+        <v>876</v>
+      </c>
+      <c r="E267" t="s">
         <v>877</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>878</v>
       </c>
-      <c r="F267" t="s">
-        <v>879</v>
-      </c>
       <c r="G267">
         <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I267" t="s">
         <v>6</v>
       </c>
       <c r="J267" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K267" t="s">
         <v>58</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M267" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>869</v>
+      </c>
+      <c r="B268" t="s">
         <v>870</v>
-      </c>
-      <c r="B268" t="s">
-        <v>871</v>
       </c>
       <c r="C268" t="s">
         <v>46</v>
       </c>
       <c r="D268" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E268" t="s">
         <v>81</v>
       </c>
       <c r="F268" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G268">
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I268" t="s">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K268" t="s">
         <v>17</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M268" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>869</v>
+      </c>
+      <c r="B269" t="s">
         <v>870</v>
-      </c>
-      <c r="B269" t="s">
-        <v>871</v>
       </c>
       <c r="C269" t="s">
         <v>46</v>
       </c>
       <c r="D269" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E269" t="s">
         <v>396</v>
       </c>
       <c r="F269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G269">
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I269" t="s">
         <v>6</v>
       </c>
       <c r="J269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K269" t="s">
         <v>68</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M269" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>900</v>
+      </c>
+      <c r="B270" t="s">
         <v>901</v>
-      </c>
-      <c r="B270" t="s">
-        <v>902</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E270" t="s">
         <v>73</v>
       </c>
       <c r="F270" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G270">
         <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I270" t="s">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K270" t="s">
         <v>17</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M270" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>900</v>
+      </c>
+      <c r="B271" t="s">
         <v>901</v>
-      </c>
-      <c r="B271" t="s">
-        <v>902</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E271" t="s">
         <v>278</v>
       </c>
       <c r="F271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G271">
         <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I271" t="s">
         <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K271" t="s">
         <v>34</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M271" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>900</v>
+      </c>
+      <c r="B272" t="s">
         <v>901</v>
-      </c>
-      <c r="B272" t="s">
-        <v>902</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E272" t="s">
         <v>183</v>
       </c>
       <c r="F272" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G272">
         <v>11</v>
       </c>
       <c r="H272" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I272" t="s">
         <v>36</v>
       </c>
       <c r="J272" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K272" t="s">
         <v>58</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M272" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>900</v>
+      </c>
+      <c r="B273" t="s">
         <v>901</v>
-      </c>
-      <c r="B273" t="s">
-        <v>902</v>
       </c>
       <c r="C273" t="s">
         <v>46</v>
       </c>
       <c r="D273" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E273" t="s">
         <v>59</v>
       </c>
       <c r="F273" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G273">
         <v>11</v>
       </c>
       <c r="H273" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I273" t="s">
         <v>46</v>
       </c>
       <c r="J273" t="s">
+        <v>925</v>
+      </c>
+      <c r="K273" t="s">
+        <v>863</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="K273" t="s">
-        <v>864</v>
-      </c>
-      <c r="L273" s="5" t="s">
-        <v>927</v>
-      </c>
       <c r="M273" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>900</v>
+      </c>
+      <c r="B274" t="s">
         <v>901</v>
-      </c>
-      <c r="B274" t="s">
-        <v>902</v>
       </c>
       <c r="C274" t="s">
         <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E274" t="s">
         <v>81</v>
       </c>
       <c r="F274" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G274">
         <v>11</v>
       </c>
       <c r="H274" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I274" t="s">
         <v>6</v>
       </c>
       <c r="J274" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K274" t="s">
         <v>68</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M274" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>900</v>
+      </c>
+      <c r="B275" t="s">
         <v>901</v>
-      </c>
-      <c r="B275" t="s">
-        <v>902</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E275" t="s">
         <v>164</v>
       </c>
       <c r="F275" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G275">
         <v>11</v>
       </c>
       <c r="H275" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I275" t="s">
         <v>6</v>
@@ -14726,115 +14723,115 @@
         <v>63</v>
       </c>
       <c r="M275" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>900</v>
+      </c>
+      <c r="B276" t="s">
         <v>901</v>
-      </c>
-      <c r="B276" t="s">
-        <v>902</v>
       </c>
       <c r="C276" t="s">
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E276" t="s">
         <v>396</v>
       </c>
       <c r="F276" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G276">
         <v>11</v>
       </c>
       <c r="H276" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I276" t="s">
         <v>46</v>
       </c>
       <c r="J276" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K276" t="s">
         <v>58</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M276" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>900</v>
+      </c>
+      <c r="B277" t="s">
         <v>901</v>
-      </c>
-      <c r="B277" t="s">
-        <v>902</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E277" t="s">
+        <v>927</v>
+      </c>
+      <c r="F277" t="s">
         <v>928</v>
       </c>
-      <c r="F277" t="s">
-        <v>929</v>
-      </c>
       <c r="G277">
         <v>11</v>
       </c>
       <c r="H277" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I277" t="s">
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K277" t="s">
         <v>423</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M277" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>900</v>
+      </c>
+      <c r="B278" t="s">
         <v>901</v>
-      </c>
-      <c r="B278" t="s">
-        <v>902</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
       </c>
       <c r="D278" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E278" t="s">
         <v>168</v>
       </c>
       <c r="F278" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G278">
         <v>11</v>
       </c>
       <c r="H278" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I278" t="s">
         <v>2</v>
@@ -14843,13 +14840,13 @@
         <v>741</v>
       </c>
       <c r="K278" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M278" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -14857,40 +14854,40 @@
         <v>195</v>
       </c>
       <c r="B279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E279" t="s">
         <v>271</v>
       </c>
       <c r="F279" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G279">
         <v>11</v>
       </c>
       <c r="H279" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I279" t="s">
         <v>46</v>
       </c>
       <c r="J279" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K279" t="s">
         <v>105</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M279" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -14898,40 +14895,40 @@
         <v>195</v>
       </c>
       <c r="B280" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E280" t="s">
         <v>271</v>
       </c>
       <c r="F280" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G280">
         <v>11</v>
       </c>
       <c r="H280" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I280" t="s">
         <v>86</v>
       </c>
       <c r="J280" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K280" t="s">
         <v>34</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M280" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -14939,40 +14936,40 @@
         <v>195</v>
       </c>
       <c r="B281" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E281" t="s">
         <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G281">
         <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I281" t="s">
         <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K281" t="s">
         <v>58</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M281" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -14980,40 +14977,40 @@
         <v>195</v>
       </c>
       <c r="B282" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E282" t="s">
+        <v>952</v>
+      </c>
+      <c r="F282" t="s">
         <v>953</v>
       </c>
-      <c r="F282" t="s">
-        <v>954</v>
-      </c>
       <c r="G282">
         <v>11</v>
       </c>
       <c r="H282" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I282" t="s">
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K282" t="s">
         <v>720</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M282" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -15021,40 +15018,40 @@
         <v>195</v>
       </c>
       <c r="B283" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E283" t="s">
+        <v>955</v>
+      </c>
+      <c r="F283" t="s">
         <v>956</v>
       </c>
-      <c r="F283" t="s">
-        <v>957</v>
-      </c>
       <c r="G283">
         <v>11</v>
       </c>
       <c r="H283" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I283" t="s">
         <v>550</v>
       </c>
       <c r="J283" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K283" t="s">
         <v>68</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M283" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -15062,40 +15059,40 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E284" t="s">
+        <v>955</v>
+      </c>
+      <c r="F284" t="s">
         <v>956</v>
       </c>
-      <c r="F284" t="s">
-        <v>957</v>
-      </c>
       <c r="G284">
         <v>11</v>
       </c>
       <c r="H284" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I284" t="s">
+        <v>958</v>
+      </c>
+      <c r="J284" t="s">
         <v>959</v>
-      </c>
-      <c r="J284" t="s">
-        <v>960</v>
       </c>
       <c r="K284" t="s">
         <v>105</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M284" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -15103,40 +15100,40 @@
         <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E285" t="s">
         <v>73</v>
       </c>
       <c r="F285" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G285">
         <v>11</v>
       </c>
       <c r="H285" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I285" t="s">
         <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K285" t="s">
         <v>105</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M285" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -15144,40 +15141,40 @@
         <v>195</v>
       </c>
       <c r="B286" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E286" t="s">
         <v>271</v>
       </c>
       <c r="F286" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G286">
         <v>11</v>
       </c>
       <c r="H286" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I286" t="s">
         <v>36</v>
       </c>
       <c r="J286" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K286" t="s">
         <v>58</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M286" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -15185,40 +15182,40 @@
         <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C287" t="s">
         <v>36</v>
       </c>
       <c r="D287" t="s">
+        <v>938</v>
+      </c>
+      <c r="E287" t="s">
         <v>939</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>940</v>
       </c>
-      <c r="F287" t="s">
-        <v>941</v>
-      </c>
       <c r="G287">
         <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I287" t="s">
         <v>6</v>
       </c>
       <c r="J287" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K287" t="s">
         <v>34</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M287" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -15226,40 +15223,40 @@
         <v>195</v>
       </c>
       <c r="B288" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
       </c>
       <c r="D288" t="s">
+        <v>938</v>
+      </c>
+      <c r="E288" t="s">
         <v>939</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>940</v>
       </c>
-      <c r="F288" t="s">
-        <v>941</v>
-      </c>
       <c r="G288">
         <v>11</v>
       </c>
       <c r="H288" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I288" t="s">
         <v>22</v>
       </c>
       <c r="J288" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K288" t="s">
         <v>549</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M288" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -15267,40 +15264,40 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G289">
         <v>11</v>
       </c>
       <c r="H289" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I289" t="s">
         <v>6</v>
       </c>
       <c r="J289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K289" t="s">
         <v>68</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M289" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -15308,31 +15305,31 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G290">
         <v>11</v>
       </c>
       <c r="H290" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I290" t="s">
         <v>86</v>
       </c>
       <c r="J290" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K290" t="s">
         <v>105</v>
@@ -15341,7 +15338,7 @@
         <v>308</v>
       </c>
       <c r="M290" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -15349,40 +15346,40 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E291" t="s">
         <v>70</v>
       </c>
       <c r="F291" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G291">
         <v>11</v>
       </c>
       <c r="H291" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I291" t="s">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K291" t="s">
         <v>105</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M291" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -15390,40 +15387,40 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
       </c>
       <c r="D292" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E292" t="s">
         <v>809</v>
       </c>
       <c r="F292" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G292">
         <v>11</v>
       </c>
       <c r="H292" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I292" t="s">
         <v>22</v>
       </c>
       <c r="J292" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K292" t="s">
         <v>213</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M292" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -15431,40 +15428,40 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E293" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F293" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G293">
         <v>11</v>
       </c>
       <c r="H293" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I293" t="s">
         <v>6</v>
       </c>
       <c r="J293" t="s">
+        <v>977</v>
+      </c>
+      <c r="K293" t="s">
         <v>978</v>
       </c>
-      <c r="K293" t="s">
-        <v>979</v>
-      </c>
       <c r="L293" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M293" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -15472,40 +15469,40 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C294" t="s">
         <v>22</v>
       </c>
       <c r="D294" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E294" t="s">
+        <v>972</v>
+      </c>
+      <c r="F294" t="s">
         <v>973</v>
       </c>
-      <c r="F294" t="s">
-        <v>974</v>
-      </c>
       <c r="G294">
         <v>11</v>
       </c>
       <c r="H294" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I294" t="s">
         <v>195</v>
       </c>
       <c r="J294" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K294" t="s">
         <v>58</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M294" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -15513,40 +15510,40 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C295" t="s">
         <v>144</v>
       </c>
       <c r="D295" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E295" t="s">
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G295">
         <v>11</v>
       </c>
       <c r="H295" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I295" t="s">
         <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K295" t="s">
         <v>9</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M295" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -15554,25 +15551,25 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C296" t="s">
         <v>191</v>
       </c>
       <c r="D296" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E296" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F296" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G296">
         <v>11</v>
       </c>
       <c r="H296" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I296" t="s">
         <v>156</v>
@@ -15587,7 +15584,7 @@
         <v>153</v>
       </c>
       <c r="M296" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -15595,40 +15592,40 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C297" t="s">
         <v>191</v>
       </c>
       <c r="D297" t="s">
+        <v>975</v>
+      </c>
+      <c r="E297" t="s">
+        <v>859</v>
+      </c>
+      <c r="F297" t="s">
+        <v>975</v>
+      </c>
+      <c r="G297">
+        <v>11</v>
+      </c>
+      <c r="H297" t="s">
+        <v>993</v>
+      </c>
+      <c r="I297" t="s">
+        <v>833</v>
+      </c>
+      <c r="J297" t="s">
         <v>976</v>
-      </c>
-      <c r="E297" t="s">
-        <v>860</v>
-      </c>
-      <c r="F297" t="s">
-        <v>976</v>
-      </c>
-      <c r="G297">
-        <v>11</v>
-      </c>
-      <c r="H297" t="s">
-        <v>994</v>
-      </c>
-      <c r="I297" t="s">
-        <v>834</v>
-      </c>
-      <c r="J297" t="s">
-        <v>977</v>
       </c>
       <c r="K297" t="s">
         <v>58</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M297" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -15636,40 +15633,40 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C298" t="s">
         <v>191</v>
       </c>
       <c r="D298" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E298" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F298" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G298">
         <v>11</v>
       </c>
       <c r="H298" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I298" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J298" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K298" t="s">
         <v>34</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M298" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -15689,28 +15686,28 @@
         <v>13</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G299">
         <v>11</v>
       </c>
       <c r="H299" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I299" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J299" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K299" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="M299" s="8">
-        <v>1</v>
+        <v>997</v>
+      </c>
+      <c r="M299" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -15727,31 +15724,31 @@
         <v>1</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G300">
         <v>11</v>
       </c>
       <c r="H300" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I300" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M300">
-        <v>2</v>
+        <v>1000</v>
+      </c>
+      <c r="M300" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -15771,28 +15768,28 @@
         <v>252</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G301">
         <v>11</v>
       </c>
       <c r="H301" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I301" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J301" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M301">
-        <v>2</v>
+        <v>1002</v>
+      </c>
+      <c r="M301" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -15809,31 +15806,31 @@
         <v>47</v>
       </c>
       <c r="E302" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F302" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="F302" s="6" t="s">
-        <v>1005</v>
-      </c>
       <c r="G302">
         <v>11</v>
       </c>
       <c r="H302" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I302" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J302" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K302" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M302">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="M302" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -15853,28 +15850,28 @@
         <v>19</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G303">
         <v>11</v>
       </c>
       <c r="H303" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I303" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K303" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M303">
-        <v>1</v>
+        <v>1008</v>
+      </c>
+      <c r="M303" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">

--- a/LookupFiles/Regions_tz.xlsx
+++ b/LookupFiles/Regions_tz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915C3720-EED0-4A77-A09A-1A49D2D96513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{915C3720-EED0-4A77-A09A-1A49D2D96513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FCF1BD0-4479-471A-AA7E-6220417EA3AA}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12735" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2AE3010E-1E7F-48A6-BD7C-E8103134159B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1009">
   <si>
     <t>02</t>
   </si>
@@ -2520,9 +2522,6 @@
   </si>
   <si>
     <t>Azimio B</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Ayamohe</t>
@@ -3098,7 +3097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3115,7 +3114,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3432,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AF9C4-3666-48C1-BCA5-6AB22838899C}">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,49 +3448,48 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>982</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>984</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3518,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -3533,7 +3530,7 @@
         <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3559,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -3574,7 +3571,7 @@
         <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3600,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -3615,7 +3612,7 @@
         <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3641,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -3656,7 +3653,7 @@
         <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -3697,7 +3694,7 @@
         <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3723,7 +3720,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -3738,7 +3735,7 @@
         <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3764,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -3779,7 +3776,7 @@
         <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,7 +3802,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -3820,7 +3817,7 @@
         <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,7 +3843,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3861,7 +3858,7 @@
         <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3887,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -3902,7 +3899,7 @@
         <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3928,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -3943,7 +3940,7 @@
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -3984,7 +3981,7 @@
         <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4010,7 +4007,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -4025,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4051,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -4066,7 +4063,7 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -4107,7 +4104,7 @@
         <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4133,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
@@ -4148,7 +4145,7 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -4189,7 +4186,7 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4215,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -4230,7 +4227,7 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4256,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -4271,7 +4268,7 @@
         <v>61</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4297,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
@@ -4312,7 +4309,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4338,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -4353,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -4394,7 +4391,7 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4420,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -4435,7 +4432,7 @@
         <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4461,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -4476,7 +4473,7 @@
         <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4502,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -4517,7 +4514,7 @@
         <v>121</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4543,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I27" t="s">
         <v>144</v>
@@ -4558,7 +4555,7 @@
         <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4584,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -4599,7 +4596,7 @@
         <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4625,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -4640,7 +4637,7 @@
         <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4666,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -4681,7 +4678,7 @@
         <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4707,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -4722,7 +4719,7 @@
         <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4748,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I32" t="s">
         <v>86</v>
@@ -4763,7 +4760,7 @@
         <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4789,7 +4786,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -4804,7 +4801,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4830,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I34" t="s">
         <v>156</v>
@@ -4845,7 +4842,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4871,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -4886,7 +4883,7 @@
         <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4912,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I36" t="s">
         <v>0</v>
@@ -4927,7 +4924,7 @@
         <v>58</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4953,7 +4950,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
@@ -4968,7 +4965,7 @@
         <v>166</v>
       </c>
       <c r="M37" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -5009,7 +5006,7 @@
         <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5035,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -5050,7 +5047,7 @@
         <v>163</v>
       </c>
       <c r="M39" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5076,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I40" t="s">
         <v>144</v>
@@ -5091,7 +5088,7 @@
         <v>171</v>
       </c>
       <c r="M40" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5117,7 +5114,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -5132,7 +5129,7 @@
         <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5158,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -5173,7 +5170,7 @@
         <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5199,7 +5196,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I43" t="s">
         <v>86</v>
@@ -5214,7 +5211,7 @@
         <v>197</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5240,7 +5237,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I44" t="s">
         <v>199</v>
@@ -5255,7 +5252,7 @@
         <v>200</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5281,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -5296,7 +5293,7 @@
         <v>203</v>
       </c>
       <c r="M45" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5322,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I46" t="s">
         <v>2</v>
@@ -5337,7 +5334,7 @@
         <v>190</v>
       </c>
       <c r="M46" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5363,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -5378,7 +5375,7 @@
         <v>178</v>
       </c>
       <c r="M47" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -5419,7 +5416,7 @@
         <v>204</v>
       </c>
       <c r="M48" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -5460,7 +5457,7 @@
         <v>194</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -5501,7 +5498,7 @@
         <v>212</v>
       </c>
       <c r="M50" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5527,7 +5524,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -5542,7 +5539,7 @@
         <v>257</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5568,7 +5565,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I52" t="s">
         <v>46</v>
@@ -5583,7 +5580,7 @@
         <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -5624,7 +5621,7 @@
         <v>246</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5650,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I54" t="s">
         <v>0</v>
@@ -5665,7 +5662,7 @@
         <v>228</v>
       </c>
       <c r="M54" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5691,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I55" t="s">
         <v>46</v>
@@ -5706,7 +5703,7 @@
         <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5732,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -5747,7 +5744,7 @@
         <v>260</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -5788,7 +5785,7 @@
         <v>233</v>
       </c>
       <c r="M57" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5814,7 +5811,7 @@
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I58" t="s">
         <v>250</v>
@@ -5829,7 +5826,7 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5855,7 +5852,7 @@
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I59" t="s">
         <v>199</v>
@@ -5870,7 +5867,7 @@
         <v>105</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -5911,7 +5908,7 @@
         <v>208</v>
       </c>
       <c r="M60" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -5952,7 +5949,7 @@
         <v>241</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -5993,7 +5990,7 @@
         <v>221</v>
       </c>
       <c r="M62" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -6034,7 +6031,7 @@
         <v>237</v>
       </c>
       <c r="M63" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6060,7 +6057,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -6075,7 +6072,7 @@
         <v>283</v>
       </c>
       <c r="M64" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6101,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
@@ -6116,7 +6113,7 @@
         <v>269</v>
       </c>
       <c r="M65" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6142,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I66" t="s">
         <v>0</v>
@@ -6157,7 +6154,7 @@
         <v>276</v>
       </c>
       <c r="M66" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
@@ -6198,7 +6195,7 @@
         <v>265</v>
       </c>
       <c r="M67" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6224,7 +6221,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -6239,7 +6236,7 @@
         <v>215</v>
       </c>
       <c r="M68" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6265,7 +6262,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I69" t="s">
         <v>2</v>
@@ -6280,7 +6277,7 @@
         <v>289</v>
       </c>
       <c r="M69" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6306,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -6321,7 +6318,7 @@
         <v>281</v>
       </c>
       <c r="M70" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I71" t="s">
         <v>2</v>
@@ -6362,7 +6359,7 @@
         <v>274</v>
       </c>
       <c r="M71" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6388,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I72" t="s">
         <v>0</v>
@@ -6403,7 +6400,7 @@
         <v>293</v>
       </c>
       <c r="M72" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6429,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I73" t="s">
         <v>46</v>
@@ -6444,7 +6441,7 @@
         <v>296</v>
       </c>
       <c r="M73" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I74" t="s">
         <v>46</v>
@@ -6485,7 +6482,7 @@
         <v>300</v>
       </c>
       <c r="M74" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6511,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I75" t="s">
         <v>2</v>
@@ -6526,7 +6523,7 @@
         <v>358</v>
       </c>
       <c r="M75" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6552,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I76" t="s">
         <v>36</v>
@@ -6567,7 +6564,7 @@
         <v>304</v>
       </c>
       <c r="M76" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6593,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -6608,7 +6605,7 @@
         <v>307</v>
       </c>
       <c r="M77" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6634,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I78" t="s">
         <v>0</v>
@@ -6649,7 +6646,7 @@
         <v>309</v>
       </c>
       <c r="M78" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -6675,7 +6672,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
@@ -6690,7 +6687,7 @@
         <v>311</v>
       </c>
       <c r="M79" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6716,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I80" t="s">
         <v>36</v>
@@ -6731,7 +6728,7 @@
         <v>314</v>
       </c>
       <c r="M80" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6757,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
@@ -6772,7 +6769,7 @@
         <v>317</v>
       </c>
       <c r="M81" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I82" t="s">
         <v>86</v>
@@ -6813,7 +6810,7 @@
         <v>320</v>
       </c>
       <c r="M82" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6854,7 +6851,7 @@
         <v>324</v>
       </c>
       <c r="M83" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6880,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6895,7 +6892,7 @@
         <v>328</v>
       </c>
       <c r="M84" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I85" t="s">
         <v>0</v>
@@ -6936,7 +6933,7 @@
         <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6962,7 +6959,7 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I86" t="s">
         <v>2</v>
@@ -6977,7 +6974,7 @@
         <v>334</v>
       </c>
       <c r="M86" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7003,7 +7000,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I87" t="s">
         <v>2</v>
@@ -7018,7 +7015,7 @@
         <v>336</v>
       </c>
       <c r="M87" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7044,7 +7041,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I88" t="s">
         <v>0</v>
@@ -7059,7 +7056,7 @@
         <v>338</v>
       </c>
       <c r="M88" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7085,7 +7082,7 @@
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I89" t="s">
         <v>2</v>
@@ -7100,7 +7097,7 @@
         <v>317</v>
       </c>
       <c r="M89" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7126,7 +7123,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I90" t="s">
         <v>36</v>
@@ -7141,7 +7138,7 @@
         <v>345</v>
       </c>
       <c r="M90" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7167,7 +7164,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I91" t="s">
         <v>86</v>
@@ -7182,7 +7179,7 @@
         <v>347</v>
       </c>
       <c r="M91" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7208,7 +7205,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I92" t="s">
         <v>46</v>
@@ -7223,7 +7220,7 @@
         <v>349</v>
       </c>
       <c r="M92" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7249,7 +7246,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I93" t="s">
         <v>0</v>
@@ -7264,7 +7261,7 @@
         <v>351</v>
       </c>
       <c r="M93" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,7 +7287,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I94" t="s">
         <v>46</v>
@@ -7305,7 +7302,7 @@
         <v>353</v>
       </c>
       <c r="M94" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7331,7 +7328,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
@@ -7346,7 +7343,7 @@
         <v>355</v>
       </c>
       <c r="M95" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7372,7 +7369,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -7387,7 +7384,7 @@
         <v>356</v>
       </c>
       <c r="M96" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7413,7 +7410,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
@@ -7428,7 +7425,7 @@
         <v>367</v>
       </c>
       <c r="M97" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7454,7 +7451,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -7469,7 +7466,7 @@
         <v>384</v>
       </c>
       <c r="M98" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,7 +7492,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I99" t="s">
         <v>36</v>
@@ -7510,7 +7507,7 @@
         <v>371</v>
       </c>
       <c r="M99" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7536,7 +7533,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I100" t="s">
         <v>2</v>
@@ -7551,7 +7548,7 @@
         <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7577,7 +7574,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I101" t="s">
         <v>36</v>
@@ -7592,7 +7589,7 @@
         <v>364</v>
       </c>
       <c r="M101" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -7618,7 +7615,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7633,7 +7630,7 @@
         <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -7659,7 +7656,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I103" t="s">
         <v>46</v>
@@ -7674,7 +7671,7 @@
         <v>374</v>
       </c>
       <c r="M103" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -7700,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I104" t="s">
         <v>46</v>
@@ -7715,7 +7712,7 @@
         <v>105</v>
       </c>
       <c r="M104" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7741,7 +7738,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I105" t="s">
         <v>46</v>
@@ -7756,7 +7753,7 @@
         <v>51</v>
       </c>
       <c r="M105" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I106" t="s">
         <v>0</v>
@@ -7797,7 +7794,7 @@
         <v>399</v>
       </c>
       <c r="M106" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7823,7 +7820,7 @@
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I107" t="s">
         <v>36</v>
@@ -7838,7 +7835,7 @@
         <v>351</v>
       </c>
       <c r="M107" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7864,7 +7861,7 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I108" t="s">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>402</v>
       </c>
       <c r="M108" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -7905,7 +7902,7 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I109" t="s">
         <v>86</v>
@@ -7920,7 +7917,7 @@
         <v>402</v>
       </c>
       <c r="M109" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -7946,7 +7943,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I110" t="s">
         <v>144</v>
@@ -7961,7 +7958,7 @@
         <v>140</v>
       </c>
       <c r="M110" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7987,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -8002,7 +7999,7 @@
         <v>394</v>
       </c>
       <c r="M111" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -8028,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I112" t="s">
         <v>6</v>
@@ -8043,7 +8040,7 @@
         <v>419</v>
       </c>
       <c r="M112" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -8069,7 +8066,7 @@
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I113" t="s">
         <v>2</v>
@@ -8084,7 +8081,7 @@
         <v>422</v>
       </c>
       <c r="M113" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -8110,7 +8107,7 @@
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -8125,7 +8122,7 @@
         <v>414</v>
       </c>
       <c r="M114" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -8151,7 +8148,7 @@
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I115" t="s">
         <v>86</v>
@@ -8166,7 +8163,7 @@
         <v>425</v>
       </c>
       <c r="M115" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -8192,7 +8189,7 @@
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I116" t="s">
         <v>0</v>
@@ -8207,7 +8204,7 @@
         <v>405</v>
       </c>
       <c r="M116" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -8233,7 +8230,7 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I117" t="s">
         <v>2</v>
@@ -8248,7 +8245,7 @@
         <v>140</v>
       </c>
       <c r="M117" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -8274,7 +8271,7 @@
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I118" t="s">
         <v>0</v>
@@ -8289,7 +8286,7 @@
         <v>450</v>
       </c>
       <c r="M118" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -8315,7 +8312,7 @@
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I119" t="s">
         <v>6</v>
@@ -8330,7 +8327,7 @@
         <v>439</v>
       </c>
       <c r="M119" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -8356,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I120" t="s">
         <v>6</v>
@@ -8371,7 +8368,7 @@
         <v>433</v>
       </c>
       <c r="M120" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -8397,7 +8394,7 @@
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -8412,7 +8409,7 @@
         <v>431</v>
       </c>
       <c r="M121" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -8438,7 +8435,7 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I122" t="s">
         <v>6</v>
@@ -8453,7 +8450,7 @@
         <v>453</v>
       </c>
       <c r="M122" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -8479,7 +8476,7 @@
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -8494,7 +8491,7 @@
         <v>455</v>
       </c>
       <c r="M123" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -8520,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -8535,7 +8532,7 @@
         <v>458</v>
       </c>
       <c r="M124" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -8561,7 +8558,7 @@
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I125" t="s">
         <v>0</v>
@@ -8576,7 +8573,7 @@
         <v>443</v>
       </c>
       <c r="M125" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -8602,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I126" t="s">
         <v>0</v>
@@ -8617,7 +8614,7 @@
         <v>446</v>
       </c>
       <c r="M126" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -8658,7 +8655,7 @@
         <v>467</v>
       </c>
       <c r="M127" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -8684,7 +8681,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -8699,7 +8696,7 @@
         <v>472</v>
       </c>
       <c r="M128" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8725,7 +8722,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I129" t="s">
         <v>6</v>
@@ -8740,7 +8737,7 @@
         <v>477</v>
       </c>
       <c r="M129" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -8766,7 +8763,7 @@
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I130" t="s">
         <v>2</v>
@@ -8781,7 +8778,7 @@
         <v>469</v>
       </c>
       <c r="M130" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -8807,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I131" t="s">
         <v>46</v>
@@ -8822,7 +8819,7 @@
         <v>463</v>
       </c>
       <c r="M131" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,7 +8845,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I132" t="s">
         <v>46</v>
@@ -8863,7 +8860,7 @@
         <v>480</v>
       </c>
       <c r="M132" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,7 +8886,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I133" t="s">
         <v>191</v>
@@ -8904,7 +8901,7 @@
         <v>482</v>
       </c>
       <c r="M133" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -8930,7 +8927,7 @@
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I134" t="s">
         <v>6</v>
@@ -8945,7 +8942,7 @@
         <v>475</v>
       </c>
       <c r="M134" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8971,7 +8968,7 @@
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I135" t="s">
         <v>2</v>
@@ -8986,7 +8983,7 @@
         <v>485</v>
       </c>
       <c r="M135" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -9012,7 +9009,7 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I136" t="s">
         <v>0</v>
@@ -9027,7 +9024,7 @@
         <v>504</v>
       </c>
       <c r="M136" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -9053,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I137" t="s">
         <v>0</v>
@@ -9068,7 +9065,7 @@
         <v>495</v>
       </c>
       <c r="M137" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -9094,7 +9091,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I138" t="s">
         <v>156</v>
@@ -9109,7 +9106,7 @@
         <v>508</v>
       </c>
       <c r="M138" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -9135,7 +9132,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I139" t="s">
         <v>36</v>
@@ -9150,7 +9147,7 @@
         <v>496</v>
       </c>
       <c r="M139" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -9176,7 +9173,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
@@ -9191,7 +9188,7 @@
         <v>490</v>
       </c>
       <c r="M140" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -9217,7 +9214,7 @@
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I141" t="s">
         <v>0</v>
@@ -9232,7 +9229,7 @@
         <v>506</v>
       </c>
       <c r="M141" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -9258,7 +9255,7 @@
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -9273,7 +9270,7 @@
         <v>501</v>
       </c>
       <c r="M142" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -9299,7 +9296,7 @@
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I143" t="s">
         <v>6</v>
@@ -9314,7 +9311,7 @@
         <v>511</v>
       </c>
       <c r="M143" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -9340,7 +9337,7 @@
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I144" t="s">
         <v>0</v>
@@ -9355,7 +9352,7 @@
         <v>513</v>
       </c>
       <c r="M144" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -9381,7 +9378,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I145" t="s">
         <v>6</v>
@@ -9396,7 +9393,7 @@
         <v>515</v>
       </c>
       <c r="M145" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -9422,7 +9419,7 @@
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I146" t="s">
         <v>36</v>
@@ -9437,7 +9434,7 @@
         <v>517</v>
       </c>
       <c r="M146" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -9463,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I147" t="s">
         <v>0</v>
@@ -9478,7 +9475,7 @@
         <v>533</v>
       </c>
       <c r="M147" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -9504,7 +9501,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I148" t="s">
         <v>0</v>
@@ -9519,7 +9516,7 @@
         <v>522</v>
       </c>
       <c r="M148" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -9545,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I149" t="s">
         <v>0</v>
@@ -9560,7 +9557,7 @@
         <v>540</v>
       </c>
       <c r="M149" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -9586,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I150" t="s">
         <v>6</v>
@@ -9601,7 +9598,7 @@
         <v>317</v>
       </c>
       <c r="M150" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -9627,7 +9624,7 @@
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I151" t="s">
         <v>6</v>
@@ -9642,7 +9639,7 @@
         <v>537</v>
       </c>
       <c r="M151" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -9668,7 +9665,7 @@
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I152" t="s">
         <v>6</v>
@@ -9683,7 +9680,7 @@
         <v>544</v>
       </c>
       <c r="M152" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -9709,7 +9706,7 @@
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I153" t="s">
         <v>36</v>
@@ -9724,7 +9721,7 @@
         <v>548</v>
       </c>
       <c r="M153" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -9750,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I154" t="s">
         <v>6</v>
@@ -9765,7 +9762,7 @@
         <v>526</v>
       </c>
       <c r="M154" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9791,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I155" t="s">
         <v>2</v>
@@ -9806,7 +9803,7 @@
         <v>539</v>
       </c>
       <c r="M155" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -9832,7 +9829,7 @@
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I156" t="s">
         <v>6</v>
@@ -9847,7 +9844,7 @@
         <v>567</v>
       </c>
       <c r="M156" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -9873,7 +9870,7 @@
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -9888,7 +9885,7 @@
         <v>554</v>
       </c>
       <c r="M157" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -9914,7 +9911,7 @@
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I158" t="s">
         <v>0</v>
@@ -9929,7 +9926,7 @@
         <v>578</v>
       </c>
       <c r="M158" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -9955,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I159" t="s">
         <v>2</v>
@@ -9970,7 +9967,7 @@
         <v>571</v>
       </c>
       <c r="M159" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9996,7 +9993,7 @@
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -10011,7 +10008,7 @@
         <v>561</v>
       </c>
       <c r="M160" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -10037,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I161" t="s">
         <v>0</v>
@@ -10052,7 +10049,7 @@
         <v>573</v>
       </c>
       <c r="M161" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -10078,7 +10075,7 @@
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I162" t="s">
         <v>6</v>
@@ -10093,7 +10090,7 @@
         <v>587</v>
       </c>
       <c r="M162" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -10119,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I163" t="s">
         <v>22</v>
@@ -10134,7 +10131,7 @@
         <v>582</v>
       </c>
       <c r="M163" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -10160,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I164" t="s">
         <v>2</v>
@@ -10175,7 +10172,7 @@
         <v>584</v>
       </c>
       <c r="M164" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -10201,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I165" t="s">
         <v>2</v>
@@ -10216,7 +10213,7 @@
         <v>564</v>
       </c>
       <c r="M165" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -10242,7 +10239,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I166" t="s">
         <v>0</v>
@@ -10257,7 +10254,7 @@
         <v>576</v>
       </c>
       <c r="M166" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -10283,7 +10280,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I167" t="s">
         <v>0</v>
@@ -10298,7 +10295,7 @@
         <v>558</v>
       </c>
       <c r="M167" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -10324,7 +10321,7 @@
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I168" t="s">
         <v>36</v>
@@ -10339,7 +10336,7 @@
         <v>583</v>
       </c>
       <c r="M168" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -10365,7 +10362,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I169" t="s">
         <v>22</v>
@@ -10380,7 +10377,7 @@
         <v>596</v>
       </c>
       <c r="M169" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -10406,7 +10403,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I170" t="s">
         <v>36</v>
@@ -10421,7 +10418,7 @@
         <v>90</v>
       </c>
       <c r="M170" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -10447,7 +10444,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -10462,7 +10459,7 @@
         <v>599</v>
       </c>
       <c r="M171" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -10488,7 +10485,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I172" t="s">
         <v>199</v>
@@ -10503,7 +10500,7 @@
         <v>98</v>
       </c>
       <c r="M172" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -10529,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I173" t="s">
         <v>609</v>
@@ -10544,7 +10541,7 @@
         <v>610</v>
       </c>
       <c r="M173" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -10570,7 +10567,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I174" t="s">
         <v>250</v>
@@ -10585,7 +10582,7 @@
         <v>34</v>
       </c>
       <c r="M174" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -10611,7 +10608,7 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I175" t="s">
         <v>0</v>
@@ -10626,7 +10623,7 @@
         <v>603</v>
       </c>
       <c r="M175" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -10652,7 +10649,7 @@
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I176" t="s">
         <v>144</v>
@@ -10667,7 +10664,7 @@
         <v>13</v>
       </c>
       <c r="M176" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -10693,7 +10690,7 @@
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -10708,7 +10705,7 @@
         <v>643</v>
       </c>
       <c r="M177" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -10734,7 +10731,7 @@
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -10749,7 +10746,7 @@
         <v>615</v>
       </c>
       <c r="M178" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -10775,7 +10772,7 @@
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I179" t="s">
         <v>0</v>
@@ -10790,7 +10787,7 @@
         <v>629</v>
       </c>
       <c r="M179" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -10816,7 +10813,7 @@
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -10831,7 +10828,7 @@
         <v>140</v>
       </c>
       <c r="M180" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -10857,7 +10854,7 @@
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I181" t="s">
         <v>0</v>
@@ -10872,7 +10869,7 @@
         <v>98</v>
       </c>
       <c r="M181" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -10898,7 +10895,7 @@
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I182" t="s">
         <v>0</v>
@@ -10913,7 +10910,7 @@
         <v>640</v>
       </c>
       <c r="M182" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -10939,7 +10936,7 @@
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I183" t="s">
         <v>0</v>
@@ -10954,7 +10951,7 @@
         <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -10980,7 +10977,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I184" t="s">
         <v>6</v>
@@ -10995,7 +10992,7 @@
         <v>625</v>
       </c>
       <c r="M184" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -11021,7 +11018,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I185" t="s">
         <v>6</v>
@@ -11036,7 +11033,7 @@
         <v>619</v>
       </c>
       <c r="M185" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -11062,7 +11059,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I186" t="s">
         <v>0</v>
@@ -11077,7 +11074,7 @@
         <v>634</v>
       </c>
       <c r="M186" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -11103,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -11118,7 +11115,7 @@
         <v>622</v>
       </c>
       <c r="M187" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -11144,7 +11141,7 @@
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -11159,7 +11156,7 @@
         <v>666</v>
       </c>
       <c r="M188" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -11185,7 +11182,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I189" t="s">
         <v>0</v>
@@ -11200,7 +11197,7 @@
         <v>651</v>
       </c>
       <c r="M189" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -11226,7 +11223,7 @@
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
@@ -11241,7 +11238,7 @@
         <v>669</v>
       </c>
       <c r="M190" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -11267,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I191" t="s">
         <v>6</v>
@@ -11282,7 +11279,7 @@
         <v>659</v>
       </c>
       <c r="M191" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -11308,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -11323,7 +11320,7 @@
         <v>648</v>
       </c>
       <c r="M192" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -11349,7 +11346,7 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I193" t="s">
         <v>0</v>
@@ -11364,7 +11361,7 @@
         <v>662</v>
       </c>
       <c r="M193" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -11390,7 +11387,7 @@
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I194" t="s">
         <v>2</v>
@@ -11405,7 +11402,7 @@
         <v>655</v>
       </c>
       <c r="M194" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -11431,7 +11428,7 @@
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I195" t="s">
         <v>2</v>
@@ -11446,7 +11443,7 @@
         <v>672</v>
       </c>
       <c r="M195" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -11472,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I196" t="s">
         <v>2</v>
@@ -11487,7 +11484,7 @@
         <v>664</v>
       </c>
       <c r="M196" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -11513,7 +11510,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I197" t="s">
         <v>2</v>
@@ -11528,7 +11525,7 @@
         <v>674</v>
       </c>
       <c r="M197" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -11554,7 +11551,7 @@
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I198" t="s">
         <v>0</v>
@@ -11569,7 +11566,7 @@
         <v>680</v>
       </c>
       <c r="M198" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -11595,7 +11592,7 @@
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I199" t="s">
         <v>6</v>
@@ -11610,7 +11607,7 @@
         <v>702</v>
       </c>
       <c r="M199" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -11636,7 +11633,7 @@
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I200" t="s">
         <v>0</v>
@@ -11651,7 +11648,7 @@
         <v>687</v>
       </c>
       <c r="M200" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -11677,7 +11674,7 @@
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I201" t="s">
         <v>0</v>
@@ -11692,7 +11689,7 @@
         <v>691</v>
       </c>
       <c r="M201" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -11718,7 +11715,7 @@
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -11733,7 +11730,7 @@
         <v>693</v>
       </c>
       <c r="M202" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -11759,7 +11756,7 @@
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I203" t="s">
         <v>2</v>
@@ -11774,7 +11771,7 @@
         <v>705</v>
       </c>
       <c r="M203" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -11800,7 +11797,7 @@
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I204" t="s">
         <v>6</v>
@@ -11815,7 +11812,7 @@
         <v>710</v>
       </c>
       <c r="M204" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -11841,7 +11838,7 @@
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I205" t="s">
         <v>0</v>
@@ -11856,7 +11853,7 @@
         <v>696</v>
       </c>
       <c r="M205" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -11882,7 +11879,7 @@
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -11897,7 +11894,7 @@
         <v>684</v>
       </c>
       <c r="M206" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -11923,7 +11920,7 @@
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I207" t="s">
         <v>0</v>
@@ -11938,7 +11935,7 @@
         <v>708</v>
       </c>
       <c r="M207" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -11964,7 +11961,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -11979,7 +11976,7 @@
         <v>714</v>
       </c>
       <c r="M208" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -12005,7 +12002,7 @@
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I209" t="s">
         <v>6</v>
@@ -12020,7 +12017,7 @@
         <v>716</v>
       </c>
       <c r="M209" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -12046,7 +12043,7 @@
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I210" t="s">
         <v>6</v>
@@ -12061,7 +12058,7 @@
         <v>719</v>
       </c>
       <c r="M210" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -12087,7 +12084,7 @@
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I211" t="s">
         <v>36</v>
@@ -12102,7 +12099,7 @@
         <v>699</v>
       </c>
       <c r="M211" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -12128,7 +12125,7 @@
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I212" t="s">
         <v>36</v>
@@ -12143,7 +12140,7 @@
         <v>449</v>
       </c>
       <c r="M212" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -12169,7 +12166,7 @@
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I213" t="s">
         <v>6</v>
@@ -12184,7 +12181,7 @@
         <v>726</v>
       </c>
       <c r="M213" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,7 +12207,7 @@
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -12225,7 +12222,7 @@
         <v>751</v>
       </c>
       <c r="M214" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -12251,7 +12248,7 @@
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I215" t="s">
         <v>250</v>
@@ -12266,7 +12263,7 @@
         <v>753</v>
       </c>
       <c r="M215" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -12292,7 +12289,7 @@
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
@@ -12307,7 +12304,7 @@
         <v>755</v>
       </c>
       <c r="M216" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -12333,7 +12330,7 @@
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I217" t="s">
         <v>2</v>
@@ -12348,7 +12345,7 @@
         <v>743</v>
       </c>
       <c r="M217" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -12374,7 +12371,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I218" t="s">
         <v>6</v>
@@ -12389,7 +12386,7 @@
         <v>734</v>
       </c>
       <c r="M218" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -12415,7 +12412,7 @@
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -12430,7 +12427,7 @@
         <v>738</v>
       </c>
       <c r="M219" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -12456,7 +12453,7 @@
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I220" t="s">
         <v>6</v>
@@ -12471,7 +12468,7 @@
         <v>746</v>
       </c>
       <c r="M220" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -12497,7 +12494,7 @@
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I221" t="s">
         <v>86</v>
@@ -12512,7 +12509,7 @@
         <v>758</v>
       </c>
       <c r="M221" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -12538,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I222" t="s">
         <v>36</v>
@@ -12553,7 +12550,7 @@
         <v>761</v>
       </c>
       <c r="M222" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -12579,7 +12576,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -12594,7 +12591,7 @@
         <v>741</v>
       </c>
       <c r="M223" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -12620,7 +12617,7 @@
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -12635,7 +12632,7 @@
         <v>763</v>
       </c>
       <c r="M224" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -12661,7 +12658,7 @@
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I225" t="s">
         <v>6</v>
@@ -12676,7 +12673,7 @@
         <v>730</v>
       </c>
       <c r="M225" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -12702,7 +12699,7 @@
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I226" t="s">
         <v>0</v>
@@ -12717,7 +12714,7 @@
         <v>785</v>
       </c>
       <c r="M226" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -12743,7 +12740,7 @@
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I227" t="s">
         <v>2</v>
@@ -12758,7 +12755,7 @@
         <v>773</v>
       </c>
       <c r="M227" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -12784,7 +12781,7 @@
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I228" t="s">
         <v>6</v>
@@ -12799,7 +12796,7 @@
         <v>791</v>
       </c>
       <c r="M228" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -12825,7 +12822,7 @@
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I229" t="s">
         <v>6</v>
@@ -12840,7 +12837,7 @@
         <v>777</v>
       </c>
       <c r="M229" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -12866,7 +12863,7 @@
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I230" t="s">
         <v>0</v>
@@ -12881,7 +12878,7 @@
         <v>769</v>
       </c>
       <c r="M230" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -12907,7 +12904,7 @@
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I231" t="s">
         <v>46</v>
@@ -12922,7 +12919,7 @@
         <v>779</v>
       </c>
       <c r="M231" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -12948,7 +12945,7 @@
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I232" t="s">
         <v>6</v>
@@ -12963,7 +12960,7 @@
         <v>794</v>
       </c>
       <c r="M232" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -12989,7 +12986,7 @@
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I233" t="s">
         <v>2</v>
@@ -13004,7 +13001,7 @@
         <v>799</v>
       </c>
       <c r="M233" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -13030,7 +13027,7 @@
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I234" t="s">
         <v>6</v>
@@ -13045,7 +13042,7 @@
         <v>797</v>
       </c>
       <c r="M234" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -13071,7 +13068,7 @@
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I235" t="s">
         <v>36</v>
@@ -13086,7 +13083,7 @@
         <v>783</v>
       </c>
       <c r="M235" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -13112,7 +13109,7 @@
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I236" t="s">
         <v>6</v>
@@ -13127,7 +13124,7 @@
         <v>789</v>
       </c>
       <c r="M236" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -13153,7 +13150,7 @@
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I237" t="s">
         <v>0</v>
@@ -13168,7 +13165,7 @@
         <v>808</v>
       </c>
       <c r="M237" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -13194,7 +13191,7 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I238" t="s">
         <v>36</v>
@@ -13209,7 +13206,7 @@
         <v>819</v>
       </c>
       <c r="M238" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -13235,7 +13232,7 @@
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I239" t="s">
         <v>2</v>
@@ -13250,7 +13247,7 @@
         <v>812</v>
       </c>
       <c r="M239" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -13276,7 +13273,7 @@
         <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I240" t="s">
         <v>6</v>
@@ -13291,7 +13288,7 @@
         <v>804</v>
       </c>
       <c r="M240" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -13311,28 +13308,28 @@
         <v>294</v>
       </c>
       <c r="F241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G241">
         <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I241" t="s">
         <v>6</v>
       </c>
       <c r="J241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K241" t="s">
         <v>17</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M241" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -13358,7 +13355,7 @@
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I242" t="s">
         <v>6</v>
@@ -13373,7 +13370,7 @@
         <v>822</v>
       </c>
       <c r="M242" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -13399,7 +13396,7 @@
         <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I243" t="s">
         <v>6</v>
@@ -13414,7 +13411,7 @@
         <v>816</v>
       </c>
       <c r="M243" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -13440,7 +13437,7 @@
         <v>11</v>
       </c>
       <c r="H244" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I244" t="s">
         <v>6</v>
@@ -13455,7 +13452,7 @@
         <v>825</v>
       </c>
       <c r="M244" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -13481,7 +13478,7 @@
         <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I245" t="s">
         <v>0</v>
@@ -13496,7 +13493,7 @@
         <v>828</v>
       </c>
       <c r="M245" t="s">
-        <v>829</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -13510,593 +13507,593 @@
         <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E246" t="s">
         <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G246">
         <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I246" t="s">
         <v>46</v>
       </c>
       <c r="J246" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K246" t="s">
         <v>285</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M246" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>833</v>
+      </c>
+      <c r="B247" t="s">
         <v>834</v>
-      </c>
-      <c r="B247" t="s">
-        <v>835</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E247" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G247">
         <v>11</v>
       </c>
       <c r="H247" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I247" t="s">
         <v>144</v>
       </c>
       <c r="J247" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K247" t="s">
         <v>51</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M247" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>833</v>
+      </c>
+      <c r="B248" t="s">
         <v>834</v>
-      </c>
-      <c r="B248" t="s">
-        <v>835</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E248" t="s">
         <v>73</v>
       </c>
       <c r="F248" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G248">
         <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I248" t="s">
         <v>6</v>
       </c>
       <c r="J248" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K248" t="s">
         <v>34</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M248" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>833</v>
+      </c>
+      <c r="B249" t="s">
         <v>834</v>
-      </c>
-      <c r="B249" t="s">
-        <v>835</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E249" t="s">
         <v>411</v>
       </c>
       <c r="F249" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G249">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I249" t="s">
         <v>22</v>
       </c>
       <c r="J249" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K249" t="s">
         <v>58</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M249" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>833</v>
+      </c>
+      <c r="B250" t="s">
         <v>834</v>
-      </c>
-      <c r="B250" t="s">
-        <v>835</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E250" t="s">
         <v>809</v>
       </c>
       <c r="F250" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G250">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I250" t="s">
         <v>6</v>
       </c>
       <c r="J250" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K250" t="s">
         <v>222</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M250" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>833</v>
+      </c>
+      <c r="B251" t="s">
         <v>834</v>
-      </c>
-      <c r="B251" t="s">
-        <v>835</v>
       </c>
       <c r="C251" t="s">
         <v>46</v>
       </c>
       <c r="D251" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E251" t="s">
         <v>359</v>
       </c>
       <c r="F251" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G251">
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I251" t="s">
         <v>36</v>
       </c>
       <c r="J251" t="s">
+        <v>861</v>
+      </c>
+      <c r="K251" t="s">
+        <v>863</v>
+      </c>
+      <c r="L251" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="K251" t="s">
-        <v>864</v>
-      </c>
-      <c r="L251" s="5" t="s">
-        <v>863</v>
-      </c>
       <c r="M251" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>833</v>
+      </c>
+      <c r="B252" t="s">
         <v>834</v>
-      </c>
-      <c r="B252" t="s">
-        <v>835</v>
       </c>
       <c r="C252" t="s">
         <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E252" t="s">
         <v>164</v>
       </c>
       <c r="F252" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G252">
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I252" t="s">
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K252" t="s">
         <v>34</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M252" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>833</v>
+      </c>
+      <c r="B253" t="s">
         <v>834</v>
-      </c>
-      <c r="B253" t="s">
-        <v>835</v>
       </c>
       <c r="C253" t="s">
         <v>46</v>
       </c>
       <c r="D253" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E253" t="s">
         <v>183</v>
       </c>
       <c r="F253" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G253">
         <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I253" t="s">
         <v>6</v>
       </c>
       <c r="J253" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K253" t="s">
         <v>51</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M253" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>833</v>
+      </c>
+      <c r="B254" t="s">
         <v>834</v>
-      </c>
-      <c r="B254" t="s">
-        <v>835</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E254" t="s">
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G254">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I254" t="s">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K254" t="s">
         <v>34</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M254" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>833</v>
+      </c>
+      <c r="B255" t="s">
         <v>834</v>
-      </c>
-      <c r="B255" t="s">
-        <v>835</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E255" t="s">
         <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G255">
         <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I255" t="s">
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K255" t="s">
         <v>290</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M255" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>833</v>
+      </c>
+      <c r="B256" t="s">
         <v>834</v>
-      </c>
-      <c r="B256" t="s">
-        <v>835</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
       </c>
       <c r="D256" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E256" t="s">
         <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G256">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I256" t="s">
         <v>6</v>
       </c>
       <c r="J256" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K256" t="s">
         <v>9</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M256" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>833</v>
+      </c>
+      <c r="B257" t="s">
         <v>834</v>
-      </c>
-      <c r="B257" t="s">
-        <v>835</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E257" t="s">
         <v>143</v>
       </c>
       <c r="F257" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G257">
         <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I257" t="s">
         <v>6</v>
       </c>
       <c r="J257" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K257" t="s">
         <v>222</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M257" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>869</v>
+      </c>
+      <c r="B258" t="s">
         <v>870</v>
-      </c>
-      <c r="B258" t="s">
-        <v>871</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E258" t="s">
         <v>326</v>
       </c>
       <c r="F258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G258">
         <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I258" t="s">
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K258" t="s">
         <v>747</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M258" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>869</v>
+      </c>
+      <c r="B259" t="s">
         <v>870</v>
-      </c>
-      <c r="B259" t="s">
-        <v>871</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E259" t="s">
         <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G259">
         <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I259" t="s">
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K259" t="s">
         <v>34</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M259" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>869</v>
+      </c>
+      <c r="B260" t="s">
         <v>870</v>
-      </c>
-      <c r="B260" t="s">
-        <v>871</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E260" t="s">
         <v>294</v>
       </c>
       <c r="F260" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G260">
         <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I260" t="s">
         <v>46</v>
@@ -14111,244 +14108,244 @@
         <v>666</v>
       </c>
       <c r="M260" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>869</v>
+      </c>
+      <c r="B261" t="s">
         <v>870</v>
-      </c>
-      <c r="B261" t="s">
-        <v>871</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E261" t="s">
         <v>330</v>
       </c>
       <c r="F261" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G261">
         <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I261" t="s">
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K261" t="s">
         <v>58</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M261" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>869</v>
+      </c>
+      <c r="B262" t="s">
         <v>870</v>
-      </c>
-      <c r="B262" t="s">
-        <v>871</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E262" t="s">
         <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G262">
         <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I262" t="s">
         <v>250</v>
       </c>
       <c r="J262" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K262" t="s">
         <v>105</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M262" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>869</v>
+      </c>
+      <c r="B263" t="s">
         <v>870</v>
-      </c>
-      <c r="B263" t="s">
-        <v>871</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E263" t="s">
         <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G263">
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I263" t="s">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K263" t="s">
         <v>51</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M263" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>869</v>
+      </c>
+      <c r="B264" t="s">
         <v>870</v>
-      </c>
-      <c r="B264" t="s">
-        <v>871</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E264" t="s">
         <v>238</v>
       </c>
       <c r="F264" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G264">
         <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I264" t="s">
         <v>6</v>
       </c>
       <c r="J264" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K264" t="s">
         <v>102</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M264" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>869</v>
+      </c>
+      <c r="B265" t="s">
         <v>870</v>
-      </c>
-      <c r="B265" t="s">
-        <v>871</v>
       </c>
       <c r="C265" t="s">
         <v>46</v>
       </c>
       <c r="D265" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E265" t="s">
         <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G265">
         <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I265" t="s">
         <v>46</v>
       </c>
       <c r="J265" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K265" t="s">
         <v>105</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M265" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>869</v>
+      </c>
+      <c r="B266" t="s">
         <v>870</v>
-      </c>
-      <c r="B266" t="s">
-        <v>871</v>
       </c>
       <c r="C266" t="s">
         <v>46</v>
       </c>
       <c r="D266" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E266" t="s">
         <v>278</v>
       </c>
       <c r="F266" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G266">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I266" t="s">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K266" t="s">
         <v>58</v>
@@ -14357,361 +14354,361 @@
         <v>203</v>
       </c>
       <c r="M266" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>869</v>
+      </c>
+      <c r="B267" t="s">
         <v>870</v>
-      </c>
-      <c r="B267" t="s">
-        <v>871</v>
       </c>
       <c r="C267" t="s">
         <v>46</v>
       </c>
       <c r="D267" t="s">
+        <v>876</v>
+      </c>
+      <c r="E267" t="s">
         <v>877</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>878</v>
       </c>
-      <c r="F267" t="s">
-        <v>879</v>
-      </c>
       <c r="G267">
         <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I267" t="s">
         <v>6</v>
       </c>
       <c r="J267" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K267" t="s">
         <v>58</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M267" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>869</v>
+      </c>
+      <c r="B268" t="s">
         <v>870</v>
-      </c>
-      <c r="B268" t="s">
-        <v>871</v>
       </c>
       <c r="C268" t="s">
         <v>46</v>
       </c>
       <c r="D268" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E268" t="s">
         <v>81</v>
       </c>
       <c r="F268" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G268">
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I268" t="s">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K268" t="s">
         <v>17</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M268" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>869</v>
+      </c>
+      <c r="B269" t="s">
         <v>870</v>
-      </c>
-      <c r="B269" t="s">
-        <v>871</v>
       </c>
       <c r="C269" t="s">
         <v>46</v>
       </c>
       <c r="D269" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E269" t="s">
         <v>396</v>
       </c>
       <c r="F269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G269">
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I269" t="s">
         <v>6</v>
       </c>
       <c r="J269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K269" t="s">
         <v>68</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M269" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>900</v>
+      </c>
+      <c r="B270" t="s">
         <v>901</v>
-      </c>
-      <c r="B270" t="s">
-        <v>902</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E270" t="s">
         <v>73</v>
       </c>
       <c r="F270" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G270">
         <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I270" t="s">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K270" t="s">
         <v>17</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M270" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>900</v>
+      </c>
+      <c r="B271" t="s">
         <v>901</v>
-      </c>
-      <c r="B271" t="s">
-        <v>902</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E271" t="s">
         <v>278</v>
       </c>
       <c r="F271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G271">
         <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I271" t="s">
         <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K271" t="s">
         <v>34</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M271" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>900</v>
+      </c>
+      <c r="B272" t="s">
         <v>901</v>
-      </c>
-      <c r="B272" t="s">
-        <v>902</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E272" t="s">
         <v>183</v>
       </c>
       <c r="F272" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G272">
         <v>11</v>
       </c>
       <c r="H272" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I272" t="s">
         <v>36</v>
       </c>
       <c r="J272" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K272" t="s">
         <v>58</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M272" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>900</v>
+      </c>
+      <c r="B273" t="s">
         <v>901</v>
-      </c>
-      <c r="B273" t="s">
-        <v>902</v>
       </c>
       <c r="C273" t="s">
         <v>46</v>
       </c>
       <c r="D273" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E273" t="s">
         <v>59</v>
       </c>
       <c r="F273" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G273">
         <v>11</v>
       </c>
       <c r="H273" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I273" t="s">
         <v>46</v>
       </c>
       <c r="J273" t="s">
+        <v>925</v>
+      </c>
+      <c r="K273" t="s">
+        <v>863</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="K273" t="s">
-        <v>864</v>
-      </c>
-      <c r="L273" s="5" t="s">
-        <v>927</v>
-      </c>
       <c r="M273" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>900</v>
+      </c>
+      <c r="B274" t="s">
         <v>901</v>
-      </c>
-      <c r="B274" t="s">
-        <v>902</v>
       </c>
       <c r="C274" t="s">
         <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E274" t="s">
         <v>81</v>
       </c>
       <c r="F274" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G274">
         <v>11</v>
       </c>
       <c r="H274" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I274" t="s">
         <v>6</v>
       </c>
       <c r="J274" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K274" t="s">
         <v>68</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M274" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>900</v>
+      </c>
+      <c r="B275" t="s">
         <v>901</v>
-      </c>
-      <c r="B275" t="s">
-        <v>902</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E275" t="s">
         <v>164</v>
       </c>
       <c r="F275" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G275">
         <v>11</v>
       </c>
       <c r="H275" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I275" t="s">
         <v>6</v>
@@ -14726,115 +14723,115 @@
         <v>63</v>
       </c>
       <c r="M275" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>900</v>
+      </c>
+      <c r="B276" t="s">
         <v>901</v>
-      </c>
-      <c r="B276" t="s">
-        <v>902</v>
       </c>
       <c r="C276" t="s">
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E276" t="s">
         <v>396</v>
       </c>
       <c r="F276" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G276">
         <v>11</v>
       </c>
       <c r="H276" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I276" t="s">
         <v>46</v>
       </c>
       <c r="J276" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K276" t="s">
         <v>58</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M276" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>900</v>
+      </c>
+      <c r="B277" t="s">
         <v>901</v>
-      </c>
-      <c r="B277" t="s">
-        <v>902</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E277" t="s">
+        <v>927</v>
+      </c>
+      <c r="F277" t="s">
         <v>928</v>
       </c>
-      <c r="F277" t="s">
-        <v>929</v>
-      </c>
       <c r="G277">
         <v>11</v>
       </c>
       <c r="H277" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I277" t="s">
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K277" t="s">
         <v>423</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M277" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>900</v>
+      </c>
+      <c r="B278" t="s">
         <v>901</v>
-      </c>
-      <c r="B278" t="s">
-        <v>902</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
       </c>
       <c r="D278" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E278" t="s">
         <v>168</v>
       </c>
       <c r="F278" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G278">
         <v>11</v>
       </c>
       <c r="H278" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I278" t="s">
         <v>2</v>
@@ -14843,13 +14840,13 @@
         <v>741</v>
       </c>
       <c r="K278" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M278" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -14857,40 +14854,40 @@
         <v>195</v>
       </c>
       <c r="B279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E279" t="s">
         <v>271</v>
       </c>
       <c r="F279" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G279">
         <v>11</v>
       </c>
       <c r="H279" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I279" t="s">
         <v>46</v>
       </c>
       <c r="J279" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K279" t="s">
         <v>105</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M279" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -14898,40 +14895,40 @@
         <v>195</v>
       </c>
       <c r="B280" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E280" t="s">
         <v>271</v>
       </c>
       <c r="F280" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G280">
         <v>11</v>
       </c>
       <c r="H280" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I280" t="s">
         <v>86</v>
       </c>
       <c r="J280" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K280" t="s">
         <v>34</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M280" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -14939,40 +14936,40 @@
         <v>195</v>
       </c>
       <c r="B281" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E281" t="s">
         <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G281">
         <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I281" t="s">
         <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K281" t="s">
         <v>58</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M281" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -14980,40 +14977,40 @@
         <v>195</v>
       </c>
       <c r="B282" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E282" t="s">
+        <v>952</v>
+      </c>
+      <c r="F282" t="s">
         <v>953</v>
       </c>
-      <c r="F282" t="s">
-        <v>954</v>
-      </c>
       <c r="G282">
         <v>11</v>
       </c>
       <c r="H282" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I282" t="s">
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K282" t="s">
         <v>720</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M282" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -15021,40 +15018,40 @@
         <v>195</v>
       </c>
       <c r="B283" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E283" t="s">
+        <v>955</v>
+      </c>
+      <c r="F283" t="s">
         <v>956</v>
       </c>
-      <c r="F283" t="s">
-        <v>957</v>
-      </c>
       <c r="G283">
         <v>11</v>
       </c>
       <c r="H283" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I283" t="s">
         <v>550</v>
       </c>
       <c r="J283" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K283" t="s">
         <v>68</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M283" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -15062,40 +15059,40 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E284" t="s">
+        <v>955</v>
+      </c>
+      <c r="F284" t="s">
         <v>956</v>
       </c>
-      <c r="F284" t="s">
-        <v>957</v>
-      </c>
       <c r="G284">
         <v>11</v>
       </c>
       <c r="H284" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I284" t="s">
+        <v>958</v>
+      </c>
+      <c r="J284" t="s">
         <v>959</v>
-      </c>
-      <c r="J284" t="s">
-        <v>960</v>
       </c>
       <c r="K284" t="s">
         <v>105</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M284" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -15103,40 +15100,40 @@
         <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E285" t="s">
         <v>73</v>
       </c>
       <c r="F285" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G285">
         <v>11</v>
       </c>
       <c r="H285" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I285" t="s">
         <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K285" t="s">
         <v>105</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M285" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -15144,40 +15141,40 @@
         <v>195</v>
       </c>
       <c r="B286" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E286" t="s">
         <v>271</v>
       </c>
       <c r="F286" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G286">
         <v>11</v>
       </c>
       <c r="H286" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I286" t="s">
         <v>36</v>
       </c>
       <c r="J286" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K286" t="s">
         <v>58</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M286" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -15185,40 +15182,40 @@
         <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C287" t="s">
         <v>36</v>
       </c>
       <c r="D287" t="s">
+        <v>938</v>
+      </c>
+      <c r="E287" t="s">
         <v>939</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>940</v>
       </c>
-      <c r="F287" t="s">
-        <v>941</v>
-      </c>
       <c r="G287">
         <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I287" t="s">
         <v>6</v>
       </c>
       <c r="J287" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K287" t="s">
         <v>34</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M287" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -15226,40 +15223,40 @@
         <v>195</v>
       </c>
       <c r="B288" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
       </c>
       <c r="D288" t="s">
+        <v>938</v>
+      </c>
+      <c r="E288" t="s">
         <v>939</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>940</v>
       </c>
-      <c r="F288" t="s">
-        <v>941</v>
-      </c>
       <c r="G288">
         <v>11</v>
       </c>
       <c r="H288" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I288" t="s">
         <v>22</v>
       </c>
       <c r="J288" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K288" t="s">
         <v>549</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M288" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -15267,40 +15264,40 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G289">
         <v>11</v>
       </c>
       <c r="H289" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I289" t="s">
         <v>6</v>
       </c>
       <c r="J289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K289" t="s">
         <v>68</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M289" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -15308,31 +15305,31 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G290">
         <v>11</v>
       </c>
       <c r="H290" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I290" t="s">
         <v>86</v>
       </c>
       <c r="J290" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K290" t="s">
         <v>105</v>
@@ -15341,7 +15338,7 @@
         <v>308</v>
       </c>
       <c r="M290" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -15349,40 +15346,40 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E291" t="s">
         <v>70</v>
       </c>
       <c r="F291" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G291">
         <v>11</v>
       </c>
       <c r="H291" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I291" t="s">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K291" t="s">
         <v>105</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M291" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -15390,40 +15387,40 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
       </c>
       <c r="D292" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E292" t="s">
         <v>809</v>
       </c>
       <c r="F292" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G292">
         <v>11</v>
       </c>
       <c r="H292" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I292" t="s">
         <v>22</v>
       </c>
       <c r="J292" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K292" t="s">
         <v>213</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M292" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -15431,40 +15428,40 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E293" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F293" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G293">
         <v>11</v>
       </c>
       <c r="H293" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I293" t="s">
         <v>6</v>
       </c>
       <c r="J293" t="s">
+        <v>977</v>
+      </c>
+      <c r="K293" t="s">
         <v>978</v>
       </c>
-      <c r="K293" t="s">
-        <v>979</v>
-      </c>
       <c r="L293" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M293" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -15472,40 +15469,40 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C294" t="s">
         <v>22</v>
       </c>
       <c r="D294" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E294" t="s">
+        <v>972</v>
+      </c>
+      <c r="F294" t="s">
         <v>973</v>
       </c>
-      <c r="F294" t="s">
-        <v>974</v>
-      </c>
       <c r="G294">
         <v>11</v>
       </c>
       <c r="H294" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I294" t="s">
         <v>195</v>
       </c>
       <c r="J294" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K294" t="s">
         <v>58</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M294" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -15513,40 +15510,40 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C295" t="s">
         <v>144</v>
       </c>
       <c r="D295" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E295" t="s">
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G295">
         <v>11</v>
       </c>
       <c r="H295" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I295" t="s">
         <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K295" t="s">
         <v>9</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M295" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -15554,25 +15551,25 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C296" t="s">
         <v>191</v>
       </c>
       <c r="D296" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E296" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F296" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G296">
         <v>11</v>
       </c>
       <c r="H296" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I296" t="s">
         <v>156</v>
@@ -15587,7 +15584,7 @@
         <v>153</v>
       </c>
       <c r="M296" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -15595,40 +15592,40 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C297" t="s">
         <v>191</v>
       </c>
       <c r="D297" t="s">
+        <v>975</v>
+      </c>
+      <c r="E297" t="s">
+        <v>859</v>
+      </c>
+      <c r="F297" t="s">
+        <v>975</v>
+      </c>
+      <c r="G297">
+        <v>11</v>
+      </c>
+      <c r="H297" t="s">
+        <v>993</v>
+      </c>
+      <c r="I297" t="s">
+        <v>833</v>
+      </c>
+      <c r="J297" t="s">
         <v>976</v>
-      </c>
-      <c r="E297" t="s">
-        <v>860</v>
-      </c>
-      <c r="F297" t="s">
-        <v>976</v>
-      </c>
-      <c r="G297">
-        <v>11</v>
-      </c>
-      <c r="H297" t="s">
-        <v>994</v>
-      </c>
-      <c r="I297" t="s">
-        <v>834</v>
-      </c>
-      <c r="J297" t="s">
-        <v>977</v>
       </c>
       <c r="K297" t="s">
         <v>58</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M297" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -15636,40 +15633,40 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C298" t="s">
         <v>191</v>
       </c>
       <c r="D298" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E298" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F298" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G298">
         <v>11</v>
       </c>
       <c r="H298" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I298" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J298" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K298" t="s">
         <v>34</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M298" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -15689,28 +15686,28 @@
         <v>13</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G299">
         <v>11</v>
       </c>
       <c r="H299" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I299" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J299" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K299" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="M299" s="8">
-        <v>1</v>
+        <v>997</v>
+      </c>
+      <c r="M299" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -15727,31 +15724,31 @@
         <v>1</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G300">
         <v>11</v>
       </c>
       <c r="H300" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I300" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M300">
-        <v>2</v>
+        <v>1000</v>
+      </c>
+      <c r="M300" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -15771,28 +15768,28 @@
         <v>252</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G301">
         <v>11</v>
       </c>
       <c r="H301" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I301" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J301" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M301">
-        <v>2</v>
+        <v>1002</v>
+      </c>
+      <c r="M301" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -15809,31 +15806,31 @@
         <v>47</v>
       </c>
       <c r="E302" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F302" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="F302" s="6" t="s">
-        <v>1005</v>
-      </c>
       <c r="G302">
         <v>11</v>
       </c>
       <c r="H302" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I302" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J302" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K302" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M302">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="M302" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -15853,28 +15850,28 @@
         <v>19</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G303">
         <v>11</v>
       </c>
       <c r="H303" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I303" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K303" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M303">
-        <v>1</v>
+        <v>1008</v>
+      </c>
+      <c r="M303" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
